--- a/logDirectoryOutput.xlsx
+++ b/logDirectoryOutput.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Simeon\Documents\GitHub\ethereum-version-compare\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D26ADC-B0BF-4AC8-8B83-41B7FB8F6424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B98DA287-A47E-47A4-88A7-6AFAA66F60F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21870" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2805" yWindow="780" windowWidth="21870" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="logDirectoryOutput" sheetId="1" r:id="rId1"/>
@@ -97,255 +97,6 @@
     <t>Code changed bytes</t>
   </si>
   <si>
-    <t>.go (1005), .json (779),  (120), .h (68), .yml (32), .md (32), .s (21), .c (19), .pl (9), .markdown (8), .sh (7), .txt (7), .js (3), .include (3), .py (3), .in (2), .LESSER (1), .920751759Z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .ac (1), .am (1), .java (1), .deflate (1), .cpp (1), .mkd (1), .sol (1), .ini (1)</t>
-  </si>
-  <si>
-    <t>.go (1006), .json (779),  (120), .h (68), .yml (32), .md (32), .s (21), .c (19), .pl (9), .markdown (8), .sh (7), .txt (7), .js (3), .include (3), .py (3), .in (2), .LESSER (1), .920751759Z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .ac (1), .am (1), .java (1), .deflate (1), .cpp (1), .mkd (1), .sol (1), .ini (1)</t>
-  </si>
-  <si>
-    <t>.go (1008), .json (783),  (115), .h (68), .md (31), .s (22), .yml (19), .c (19), .pl (9), .markdown (8), .txt (7), .sh (5), .js (3), .include (3), .in (2), .py (2), .LESSER (1), .920751759Z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .ac (1), .am (1), .java (1), .deflate (1), .cpp (1), .mkd (1), .sol (1)</t>
-  </si>
-  <si>
-    <t>.go (1010), .json (783),  (115), .h (68), .md (31), .s (22), .yml (19), .c (19), .pl (9), .markdown (8), .txt (7), .sh (5), .js (3), .include (3), .in (2), .py (2), .LESSER (1), .920751759Z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .ac (1), .am (1), .java (1), .deflate (1), .cpp (1), .mkd (1), .sol (1)</t>
-  </si>
-  <si>
-    <t>.go (1012), .json (805),  (115), .h (68), .md (31), .s (22), .yml (19), .c (19), .pl (9), .markdown (8), .txt (7), .sh (5), .js (3), .include (3), .in (2), .py (2), .LESSER (1), .920751759Z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .ac (1), .am (1), .java (1), .deflate (1), .cpp (1), .mkd (1), .sol (1)</t>
-  </si>
-  <si>
-    <t>.go (1014), .json (848),  (120), .h (68), .md (39), .yml (32), .s (22), .c (19), .pl (9), .markdown (8), .sh (7), .txt (7), .js (3), .include (3), .py (3), .in (2), .LESSER (1), .920751759Z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .ac (1), .am (1), .java (1), .deflate (1), .cpp (1), .mkd (1), .sol (1), .ini (1)</t>
-  </si>
-  <si>
-    <t>.go (1207), .json (846),  (141), .h (62), .md (56), .yml (40), .s (26), .c (19), .sh (10), .pl (10), .txt (7), .markdown (7), .cfg (5), .nsh (3), .js (3), .sol (3), .include (3), .py (3), .in (2), .lock (2), .yaml (2), .LESSER (1), .conf (1), .920751759Z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .ac (1), .am (1), .java (1), .deflate (1), .css (1), .html (1), .png (1), .ini (1), .awk (1), .cpp (1), .mkd (1)</t>
-  </si>
-  <si>
-    <t>.go (1207), .json (846),  (142), .h (62), .md (56), .yml (40), .s (26), .c (19), .sh (10), .pl (10), .txt (7), .markdown (7), .cfg (5), .nsh (3), .js (3), .sol (3), .include (3), .py (3), .in (2), .lock (2), .yaml (2), .LESSER (1), .conf (1), .920751759Z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .ac (1), .am (1), .java (1), .deflate (1), .css (1), .html (1), .png (1), .ini (1), .awk (1), .cpp (1), .mkd (1)</t>
-  </si>
-  <si>
-    <t>.go (1206), .json (846),  (142), .h (62), .md (56), .yml (40), .s (26), .c (19), .sh (10), .pl (10), .txt (7), .markdown (7), .cfg (5), .nsh (3), .js (3), .sol (3), .include (3), .py (3), .in (2), .lock (2), .yaml (2), .LESSER (1), .conf (1), .920751759Z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .ac (1), .am (1), .java (1), .deflate (1), .css (1), .html (1), .png (1), .ini (1), .awk (1), .cpp (1), .mkd (1)</t>
-  </si>
-  <si>
-    <t>.go (1210), .json (846),  (142), .h (62), .md (56), .yml (40), .s (26), .c (18), .sh (10), .pl (10), .txt (7), .markdown (7), .cfg (5), .nsh (4), .js (3), .sol (3), .include (3), .py (3), .in (2), .lock (2), .yaml (2), .LESSER (1), .conf (1), .920751759Z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .ac (1), .am (1), .java (1), .deflate (1), .css (1), .html (1), .png (1), .ini (1), .awk (1), .cpp (1), .mkd (1)</t>
-  </si>
-  <si>
-    <t>.go (1196), .json (846),  (142), .h (62), .md (56), .yml (40), .s (26), .c (18), .sh (10), .pl (10), .txt (7), .markdown (7), .cfg (5), .nsh (4), .js (3), .sol (3), .include (3), .py (3), .in (2), .lock (2), .yaml (2), .LESSER (1), .conf (1), .920751759Z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .ac (1), .am (1), .java (1), .deflate (1), .css (1), .html (1), .png (1), .ini (1), .awk (1), .cpp (1), .mkd (1)</t>
-  </si>
-  <si>
-    <t>.go (1210), .json (847),  (143), .h (62), .md (57), .yml (43), .s (28), .c (22), .sh (10), .pl (10), .txt (7), .markdown (7), .js (5), .cfg (5), .nsh (4), .java (4), .py (4), .sol (3), .m4 (3), .sage (3), .in (2), .include (2), .lock (2), .yaml (2), .LESSER (1), .conf (1), .920751759Z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .ac (1), .am (1), .deflate (1), .css (1), .html (1), .png (1), .ini (1), .awk (1), .cpp (1), .mkd (1)</t>
-  </si>
-  <si>
-    <t>.go (1215), .json (847),  (143), .h (62), .md (57), .yml (43), .s (28), .c (22), .sh (10), .pl (10), .txt (7), .markdown (7), .js (5), .cfg (5), .nsh (4), .java (4), .py (4), .sol (3), .m4 (3), .sage (3), .in (2), .include (2), .lock (2), .yaml (2), .LESSER (1), .conf (1), .920751759Z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .ac (1), .am (1), .deflate (1), .css (1), .html (1), .png (1), .ini (1), .awk (1), .cpp (1), .mkd (1)</t>
-  </si>
-  <si>
-    <t>.go (1246), .json (847),  (148), .h (82), .md (58), .yml (45), .c (44), .s (28), .sh (10), .pl (10), .txt (7), .markdown (7), .js (5), .cfg (5), .nsh (4), .java (4), .py (4), .cpp (4), .sol (3), .m4 (3), .sage (3), .in (2), .include (2), .lock (2), .yaml (2), .LESSER (1), .conf (1), .920751759Z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .ac (1), .am (1), .deflate (1), .css (1), .html (1), .png (1), .ini (1), .awk (1), .mkd (1)</t>
-  </si>
-  <si>
-    <t>.go (1443), .json (848),  (138), .h (84), .md (71), .c (46), .s (33), .yml (26), .txt (12), .sh (10), .pl (10), .markdown (7), .js (5), .cfg (5), .nsh (4), .java (4), .cpp (4), .sol (3), .m4 (3), .sage (3), .py (3), .lock (3), .yaml (3), .html (2), .include (2), .csv (2), .LESSER (1), .920751759Z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .ac (1), .in (1), .am (1), .deflate (1), .css (1), .png (1), .ini (1), .iml (1), .awk (1), .mkd (1), .peg (1)</t>
-  </si>
-  <si>
-    <t>.go (1446), .json (848),  (138), .h (84), .md (71), .c (46), .s (33), .yml (26), .txt (12), .sh (10), .pl (10), .markdown (7), .js (5), .cfg (5), .nsh (4), .java (4), .cpp (4), .sol (3), .m4 (3), .sage (3), .py (3), .lock (3), .yaml (3), .html (2), .include (2), .csv (2), .LESSER (1), .920751759Z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .ac (1), .in (1), .am (1), .deflate (1), .css (1), .png (1), .ini (1), .iml (1), .awk (1), .mkd (1), .peg (1)</t>
-  </si>
-  <si>
-    <t>.go (1464), .json (848),  (139), .h (84), .md (71), .c (46), .s (33), .yml (26), .sh (13), .txt (12), .pl (10), .markdown (7), .js (5), .cfg (5), .nsh (4), .java (4), .cpp (4), .sol (3), .m4 (3), .sage (3), .py (3), .lock (3), .yaml (3), .html (2), .include (2), .csv (2), .LESSER (1), .920751759Z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .ac (1), .in (1), .am (1), .deflate (1), .css (1), .png (1), .ini (1), .iml (1), .awk (1), .mkd (1), .peg (1)</t>
-  </si>
-  <si>
-    <t>.go (1464), .json (848),  (144), .h (84), .md (72), .c (46), .s (33), .yml (26), .sh (18), .txt (12), .pl (10), .markdown (7), .js (5), .cfg (5), .nsh (4), .java (4), .cpp (4), .sol (3), .m4 (3), .sage (3), .py (3), .lock (3), .yaml (3), .html (2), .include (2), .csv (2), .LESSER (1), .920751759Z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .ac (1), .in (1), .am (1), .deflate (1), .css (1), .png (1), .ini (1), .iml (1), .awk (1), .mkd (1), .peg (1)</t>
-  </si>
-  <si>
-    <t>.go (1477), .json (848),  (146), .h (84), .md (73), .c (46), .s (33), .yml (26), .sh (18), .txt (12), .pl (10), .markdown (7), .js (5), .cfg (5), .nsh (4), .java (4), .cpp (4), .sol (3), .m4 (3), .sage (3), .py (3), .lock (3), .yaml (3), .html (2), .include (2), .csv (2), .LESSER (1), .920751759Z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .ac (1), .in (1), .am (1), .deflate (1), .css (1), .png (1), .ini (1), .iml (1), .awk (1), .mkd (1), .peg (1)</t>
-  </si>
-  <si>
-    <t>.go (1487),  (142), .h (84), .md (64), .c (46), .s (33), .sh (16), .yml (13), .txt (12), .pl (10), .markdown (7), .json (6), .js (5), .cfg (5), .nsh (4), .java (4), .cpp (4), .sol (3), .m4 (3), .sage (3), .lock (3), .yaml (3), .html (2), .include (2), .py (2), .csv (2), .LESSER (1), .920751759Z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .ac (1), .in (1), .am (1), .deflate (1), .css (1), .png (1), .iml (1), .awk (1), .mkd (1), .peg (1)</t>
-  </si>
-  <si>
-    <t>.go (1525),  (147), .h (84), .md (64), .c (46), .s (33), .sh (16), .yml (13), .txt (12), .pl (10), .markdown (7), .json (6), .js (5), .cfg (5), .nsh (4), .java (4), .cpp (4), .sol (3), .m4 (3), .sage (3), .lock (3), .yaml (3), .proto (2), .html (2), .include (2), .py (2), .csv (2), .LESSER (1), .920751759Z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .ac (1), .in (1), .am (1), .deflate (1), .css (1), .png (1), .iml (1), .awk (1), .mkd (1), .peg (1)</t>
-  </si>
-  <si>
-    <t>.go (1545),  (148), .h (84), .md (67), .c (46), .s (33), .sh (17), .yml (13), .txt (12), .pl (10), .markdown (7), .json (6), .js (5), .cfg (5), .nsh (4), .java (4), .cpp (4), .sol (3), .m4 (3), .sage (3), .lock (3), .yaml (3), .proto (2), .html (2), .include (2), .py (2), .csv (2), .LESSER (1), .920751759Z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .ac (1), .in (1), .am (1), .deflate (1), .css (1), .png (1), .iml (1), .awk (1), .mkd (1), .peg (1)</t>
-  </si>
-  <si>
-    <t>.go (1546),  (148), .h (84), .md (67), .c (46), .s (33), .sh (17), .yml (13), .txt (12), .pl (10), .markdown (7), .json (6), .js (5), .cfg (5), .nsh (4), .java (4), .cpp (4), .sol (3), .m4 (3), .sage (3), .lock (3), .yaml (3), .proto (2), .html (2), .include (2), .py (2), .csv (2), .LESSER (1), .920751759Z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .ac (1), .in (1), .am (1), .deflate (1), .css (1), .png (1), .iml (1), .awk (1), .mkd (1), .peg (1)</t>
-  </si>
-  <si>
-    <t>.go (1622),  (152), .h (84), .md (69), .c (46), .s (36), .sh (17), .yml (13), .txt (12), .pl (9), .json (7), .jsx (7), .markdown (7), .js (6), .cfg (5), .nsh (4), .java (4), .cpp (4), .tmpl (4), .html (3), .sol (3), .m4 (3), .sage (3), .lock (3), .yaml (3), .proto (2), .include (2), .py (2), .csv (2), .LESSER (1), .alltools (1), .920751759Z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .ac (1), .in (1), .am (1), .deflate (1), .css (1), .png (1), .iml (1), .awk (1), .mkd (1), .peg (1)</t>
-  </si>
-  <si>
-    <t>.go (1732),  (159), .h (94), .md (78), .c (55), .s (36), .yml (17), .json (17), .sh (17), .js (13), .txt (12), .jsx (11), .pl (9), .sol (7), .markdown (7), .cfg (5), .nsh (4), .java (4), .lock (4), .cpp (4), .tmpl (4), .html (3), .m4 (3), .sage (3), .yaml (3), .proto (2), .include (2), .py (2), .csv (2), .LESSER (1), .alltools (1), .920751759Z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .ac (1), .in (1), .am (1), .deflate (1), .css (1), .png (1), .iml (1), .awk (1), .mkd (1), .peg (1), .toml (1)</t>
-  </si>
-  <si>
-    <t>.go (1730),  (159), .h (94), .md (78), .c (55), .s (36), .yml (17), .json (17), .sh (17), .js (13), .txt (12), .jsx (11), .pl (9), .sol (7), .markdown (7), .cfg (5), .nsh (4), .java (4), .lock (4), .cpp (4), .tmpl (4), .html (3), .m4 (3), .sage (3), .yaml (3), .proto (2), .include (2), .py (2), .csv (2), .LESSER (1), .alltools (1), .920751759Z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .ac (1), .in (1), .am (1), .deflate (1), .css (1), .png (1), .iml (1), .awk (1), .mkd (1), .peg (1), .toml (1)</t>
-  </si>
-  <si>
-    <t>.go (1769),  (161), .h (97), .md (82), .c (55), .s (37), .yml (18), .json (17), .sh (17), .js (13), .txt (12), .jsx (11), .pl (9), .sol (7), .markdown (7), .cfg (5), .nsh (4), .java (4), .lock (4), .cpp (4), .tmpl (4), .html (3), .m4 (3), .sage (3), .yaml (3), .proto (2), .include (2), .py (2), .csv (2), .LESSER (1), .alltools (1), .920751759Z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .ac (1), .in (1), .am (1), .deflate (1), .css (1), .png (1), .iml (1), .awk (1), .mkd (1), .peg (1), .toml (1)</t>
-  </si>
-  <si>
-    <t>.go (1771),  (159), .h (97), .md (82), .c (55), .s (38), .yml (19), .json (16), .sh (14), .js (13), .txt (12), .jsx (11), .pl (9), .sol (7), .markdown (7), .lock (5), .cfg (5), .nsh (4), .java (4), .cpp (4), .tmpl (4), .html (3), .m4 (3), .sage (3), .yaml (3), .proto (2), .include (2), .py (2), .csv (2), .LESSER (1), .alltools (1), .920751759Z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .ac (1), .in (1), .am (1), .deflate (1), .css (1), .png (1), .iml (1), .awk (1), .mkd (1), .peg (1), .toml (1)</t>
-  </si>
-  <si>
-    <t>.go (1789),  (159), .h (97), .md (87), .c (55), .s (38), .yml (19), .json (17), .sh (14), .js (14), .txt (12), .jsx (11), .pl (9), .sol (7), .markdown (7), .lock (5), .cfg (5), .nsh (4), .java (4), .cpp (4), .tmpl (4), .py (3), .html (3), .m4 (3), .sage (3), .yaml (3), .proto (2), .png (2), .include (2), .csv (2), .LESSER (1), .alltools (1), .920751759Z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .ac (1), .in (1), .am (1), .deflate (1), .css (1), .iml (1), .awk (1), .mkd (1), .peg (1), .toml (1)</t>
-  </si>
-  <si>
-    <t>.go (1789),  (159), .h (97), .md (87), .c (55), .s (38), .yml (19), .json (17), .sh (15), .js (14), .txt (12), .jsx (11), .pl (9), .sol (7), .markdown (7), .lock (5), .cfg (5), .nsh (4), .java (4), .cpp (4), .tmpl (4), .py (3), .html (3), .m4 (3), .sage (3), .yaml (3), .proto (2), .png (2), .include (2), .csv (2), .LESSER (1), .alltools (1), .920751759Z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .ac (1), .in (1), .am (1), .deflate (1), .css (1), .iml (1), .awk (1), .mkd (1), .peg (1), .toml (1)</t>
-  </si>
-  <si>
-    <t>.go (1796),  (160), .h (97), .md (88), .c (55), .s (39), .yml (19), .json (17), .sh (15), .js (14), .txt (12), .jsx (11), .pl (9), .png (7), .sol (7), .markdown (7), .lock (5), .cfg (5), .nsh (4), .py (4), .java (4), .cpp (4), .tmpl (4), .html (3), .m4 (3), .sage (3), .yaml (3), .proto (2), .include (2), .csv (2), .LESSER (1), .alltools (1), .920751759Z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .Clefsign (1), .ac (1), .in (1), .am (1), .deflate (1), .css (1), .iml (1), .awk (1), .mkd (1), .peg (1), .toml (1)</t>
-  </si>
-  <si>
-    <t>.go (1802),  (160), .h (97), .md (88), .c (55), .s (39), .yml (19), .json (17), .sh (15), .js (14), .txt (12), .jsx (11), .pl (9), .png (7), .sol (7), .markdown (7), .lock (5), .cfg (5), .nsh (4), .py (4), .java (4), .cpp (4), .tmpl (4), .html (3), .m4 (3), .sage (3), .yaml (3), .proto (2), .include (2), .csv (2), .LESSER (1), .alltools (1), .920751759Z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .Clefsign (1), .ac (1), .in (1), .am (1), .deflate (1), .css (1), .iml (1), .awk (1), .mkd (1), .peg (1), .toml (1)</t>
-  </si>
-  <si>
-    <t>.go (1804),  (160), .h (97), .md (88), .c (55), .s (39), .yml (19), .json (17), .sh (15), .js (14), .txt (12), .jsx (11), .pl (9), .png (7), .sol (7), .markdown (7), .lock (5), .cfg (5), .nsh (4), .py (4), .java (4), .cpp (4), .tmpl (4), .html (3), .m4 (3), .sage (3), .yaml (3), .proto (2), .include (2), .csv (2), .LESSER (1), .alltools (1), .920751759Z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .Clefsign (1), .ac (1), .in (1), .am (1), .deflate (1), .css (1), .iml (1), .awk (1), .mkd (1), .peg (1), .toml (1)</t>
-  </si>
-  <si>
-    <t>.go (1831),  (160), .h (97), .md (88), .c (55), .s (39), .yml (19), .json (17), .sh (15), .js (14), .txt (12), .jsx (11), .pl (9), .png (7), .sol (7), .markdown (7), .lock (5), .cfg (5), .nsh (4), .py (4), .java (4), .cpp (4), .tmpl (4), .html (3), .m4 (3), .sage (3), .yaml (3), .proto (2), .include (2), .csv (2), .LESSER (1), .alltools (1), .920751759Z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .Clefsign (1), .ac (1), .in (1), .am (1), .deflate (1), .css (1), .iml (1), .awk (1), .mkd (1), .peg (1), .toml (1)</t>
-  </si>
-  <si>
-    <t>.go (1907),  (162), .h (97), .md (92), .c (55), .s (39), .json (33), .yml (19), .js (17), .sh (16), .txt (13), .jsx (11), .pl (10), .png (7), .sol (7), .markdown (7), .lock (5), .cfg (5), .nsh (4), .py (4), .java (4), .cpp (4), .tmpl (4), .html (3), .m4 (3), .sage (3), .yaml (3), .proto (2), .include (2), .csv (2), .LESSER (1), .alltools (1), .920751759Z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .Clefsign (1), .ac (1), .in (1), .am (1), .deflate (1), .css (1), .iml (1), .awk (1), .mkd (1), .peg (1), .toml (1)</t>
-  </si>
-  <si>
-    <t>.go (2063),  (171), .md (101), .h (97), .c (55), .s (39), .json (33), .yml (19), .sh (17), .js (17), .txt (13), .jsx (12), .pl (10), .png (7), .sol (7), .markdown (7), .lock (6), .cfg (5), .nsh (4), .py (4), .java (4), .cpp (4), .tmpl (4), .html (3), .m4 (3), .sage (3), .yaml (3), .proto (2), .changelog (2), .control (2), .copyright (2), .docs (2), .install (2), .rules (2), .include (2), .csv (2), .toml (2), .LESSER (1), .alltools (1), .920751759Z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .Clefsign (1), .ac (1), .in (1), .am (1), .deflate (1), .css (1), .iml (1), .awk (1), .mkd (1), .peg (1)</t>
-  </si>
-  <si>
-    <t>.go (2092),  (173), .md (101), .h (97), .c (56), .s (40), .json (33), .yml (19), .sh (17), .js (17), .txt (13), .jsx (12), .pl (10), .png (7), .sol (7), .markdown (7), .lock (6), .cfg (5), .nsh (4), .py (4), .java (4), .cpp (4), .tmpl (4), .html (3), .m4 (3), .sage (3), .yaml (3), .proto (2), .changelog (2), .control (2), .copyright (2), .docs (2), .install (2), .rules (2), .include (2), .csv (2), .toml (2), .LESSER (1), .alltools (1), .920751759Z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .Clefsign (1), .ac (1), .in (1), .am (1), .deflate (1), .css (1), .iml (1), .awk (1), .mkd (1), .peg (1)</t>
-  </si>
-  <si>
-    <t>.go (2091),  (172), .md (100), .h (97), .c (56), .s (40), .json (33), .yml (19), .sh (17), .js (17), .txt (13), .jsx (12), .pl (10), .png (7), .sol (7), .markdown (7), .lock (6), .cfg (5), .nsh (4), .py (4), .java (4), .cpp (4), .tmpl (4), .html (3), .m4 (3), .sage (3), .yaml (3), .proto (2), .changelog (2), .control (2), .copyright (2), .docs (2), .install (2), .rules (2), .include (2), .csv (2), .toml (2), .LESSER (1), .alltools (1), .920751759Z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .Clefsign (1), .ac (1), .in (1), .am (1), .deflate (1), .css (1), .iml (1), .awk (1), .mkd (1), .peg (1)</t>
-  </si>
-  <si>
-    <t>.go (2085),  (171), .md (100), .h (97), .c (56), .s (40), .json (34), .yml (19), .sh (17), .js (17), .txt (12), .jsx (12), .pl (10), .png (7), .sol (7), .markdown (7), .lock (6), .cfg (5), .nsh (4), .py (4), .java (4), .cpp (4), .tmpl (4), .html (3), .m4 (3), .sage (3), .yaml (3), .proto (2), .changelog (2), .control (2), .copyright (2), .docs (2), .install (2), .rules (2), .include (2), .csv (2), .toml (2), .LESSER (1), .alltools (1), .920751759Z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .Clefsign (1), .types (1), .ac (1), .in (1), .am (1), .deflate (1), .css (1), .iml (1), .awk (1), .mkd (1), .peg (1)</t>
-  </si>
-  <si>
-    <t>.go (2096),  (171), .md (100), .h (97), .c (56), .s (40), .json (34), .yml (19), .sh (17), .js (17), .txt (12), .jsx (12), .pl (10), .png (7), .sol (7), .markdown (7), .lock (6), .cfg (5), .nsh (4), .py (4), .java (4), .cpp (4), .tmpl (4), .html (3), .m4 (3), .sage (3), .yaml (3), .proto (2), .changelog (2), .control (2), .copyright (2), .docs (2), .install (2), .rules (2), .include (2), .csv (2), .toml (2), .LESSER (1), .alltools (1), .920751759Z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .Clefsign (1), .types (1), .ac (1), .in (1), .am (1), .deflate (1), .css (1), .iml (1), .awk (1), .mkd (1), .peg (1)</t>
-  </si>
-  <si>
-    <t>.go (2125),  (172), .md (101), .h (97), .c (56), .s (40), .json (34), .yml (19), .sh (17), .js (17), .txt (12), .jsx (12), .pl (10), .png (7), .sol (7), .markdown (7), .lock (6), .cfg (5), .nsh (4), .py (4), .java (4), .cpp (4), .tmpl (4), .html (3), .m4 (3), .sage (3), .yaml (3), .proto (2), .changelog (2), .control (2), .copyright (2), .docs (2), .install (2), .rules (2), .include (2), .csv (2), .toml (2), .LESSER (1), .alltools (1), .920751759Z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .Clefsign (1), .types (1), .ac (1), .in (1), .am (1), .deflate (1), .css (1), .iml (1), .awk (1), .mkd (1), .peg (1)</t>
-  </si>
-  <si>
-    <t>.go (2126),  (172), .md (101), .h (97), .c (56), .s (40), .json (35), .yml (19), .sh (17), .js (17), .txt (12), .jsx (12), .pl (10), .png (7), .sol (7), .markdown (7), .lock (6), .cfg (5), .nsh (4), .py (4), .java (4), .cpp (4), .tmpl (4), .html (3), .m4 (3), .sage (3), .yaml (3), .proto (2), .changelog (2), .control (2), .copyright (2), .docs (2), .install (2), .rules (2), .include (2), .csv (2), .toml (2), .LESSER (1), .alltools (1), .920751759Z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .Clefsign (1), .types (1), .ac (1), .in (1), .am (1), .deflate (1), .css (1), .iml (1), .awk (1), .mkd (1), .peg (1)</t>
-  </si>
-  <si>
-    <t>.go (2149),  (171), .md (101), .h (97), .c (56), .s (46), .json (35), .yml (19), .sh (19), .js (17), .txt (12), .jsx (12), .pl (10), .png (7), .sol (7), .markdown (7), .lock (6), .cfg (5), .nsh (4), .py (4), .java (4), .cpp (4), .tmpl (4), .html (3), .m4 (3), .sage (3), .yaml (3), .proto (2), .changelog (2), .control (2), .copyright (2), .docs (2), .install (2), .rules (2), .include (2), .csv (2), .toml (2), .LESSER (1), .alltools (1), .920751759Z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .Clefsign (1), .types (1), .ac (1), .in (1), .am (1), .css (1), .iml (1), .awk (1), .mkd (1), .peg (1)</t>
-  </si>
-  <si>
-    <t>.go (2226),  (171), .md (101), .h (97), .c (56), .s (54), .json (36), .yml (19), .sh (19), .js (17), .txt (12), .jsx (12), .png (7), .sol (7), .markdown (7), .lock (6), .cfg (5), .nsh (4), .py (4), .java (4), .cpp (4), .tmpl (4), .html (3), .m4 (3), .sage (3), .pl (3), .yaml (3), .proto (2), .changelog (2), .control (2), .copyright (2), .docs (2), .install (2), .rules (2), .include (2), .csv (2), .toml (2), .LESSER (1), .alltools (1), .920751759Z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .Clefsign (1), .types (1), .ac (1), .in (1), .am (1), .css (1), .iml (1), .awk (1), .mkd (1), .peg (1)</t>
-  </si>
-  <si>
-    <t>.go (2228),  (171), .md (101), .h (97), .c (56), .s (54), .json (36), .yml (19), .sh (19), .js (17), .txt (12), .jsx (12), .png (7), .sol (7), .markdown (7), .lock (6), .cfg (5), .nsh (4), .py (4), .java (4), .cpp (4), .tmpl (4), .html (3), .m4 (3), .sage (3), .pl (3), .yaml (3), .proto (2), .changelog (2), .control (2), .copyright (2), .docs (2), .install (2), .rules (2), .include (2), .csv (2), .toml (2), .LESSER (1), .alltools (1), .920751759Z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .Clefsign (1), .types (1), .ac (1), .in (1), .am (1), .css (1), .iml (1), .awk (1), .mkd (1), .peg (1)</t>
-  </si>
-  <si>
-    <t>.go (1924),  (149), .h (98), .md (92), .json (56), .s (56), .c (56), .js (34), .yml (17), .txt (14), .jsx (13), .sh (12), .png (11), .markdown (7), .proto (5), .lock (5), .nsh (4), .py (4), .java (4), .cpp (4), .tmpl (4), .m4 (3), .sage (3), .mod (3), .toml (3), .html (2), .include (2), .pdf (2), .pl (2), .cfg (2), .LESSER (1), .alltools (1), .920751759Z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .Clefsign (1), .sol (1), .ac (1), .in (1), .am (1), .awk (1), .yaml (1), .alpine (1), .ubuntu (1), .mkd (1), .peg (1), .sum (1)</t>
-  </si>
-  <si>
-    <t>.go (1984),  (152), .h (98), .md (94), .json (57), .s (56), .c (56), .js (34), .yml (17), .txt (14), .jsx (13), .sh (12), .png (11), .markdown (7), .proto (5), .lock (5), .nsh (4), .py (4), .java (4), .cpp (4), .mod (4), .tmpl (4), .m4 (3), .sage (3), .toml (3), .html (2), .include (2), .pdf (2), .sum (2), .pl (2), .cfg (2), .LESSER (1), .alltools (1), .920751759Z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .Clefsign (1), .sol (1), .ac (1), .in (1), .am (1), .awk (1), .yaml (1), .alpine (1), .ubuntu (1), .mkd (1), .peg (1)</t>
-  </si>
-  <si>
-    <t>.go (1987),  (152), .h (98), .md (94), .json (57), .s (56), .c (56), .js (34), .yml (17), .txt (14), .jsx (13), .sh (12), .png (11), .markdown (7), .proto (5), .lock (5), .nsh (4), .py (4), .java (4), .cpp (4), .mod (4), .tmpl (4), .m4 (3), .sage (3), .toml (3), .html (2), .include (2), .pdf (2), .sum (2), .pl (2), .cfg (2), .LESSER (1), .alltools (1), .920751759Z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .Clefsign (1), .sol (1), .ac (1), .in (1), .am (1), .awk (1), .yaml (1), .alpine (1), .ubuntu (1), .mkd (1), .peg (1)</t>
-  </si>
-  <si>
-    <t>.go (2000),  (152), .h (98), .md (94), .s (58), .json (57), .c (56), .js (34), .yml (17), .txt (14), .jsx (13), .sh (12), .png (11), .markdown (7), .proto (5), .lock (5), .nsh (4), .py (4), .java (4), .cpp (4), .mod (4), .tmpl (4), .m4 (3), .sage (3), .toml (3), .html (2), .include (2), .pdf (2), .sum (2), .pl (2), .cfg (2), .LESSER (1), .alltools (1), .920751759Z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .Clefsign (1), .sol (1), .ac (1), .in (1), .am (1), .awk (1), .yaml (1), .alpine (1), .ubuntu (1), .mkd (1), .peg (1)</t>
-  </si>
-  <si>
-    <t>.go (2002),  (152), .h (98), .md (94), .s (58), .json (57), .c (56), .js (34), .yml (17), .txt (14), .jsx (13), .sh (12), .png (11), .markdown (7), .proto (5), .lock (5), .nsh (4), .py (4), .java (4), .cpp (4), .mod (4), .tmpl (4), .m4 (3), .sage (3), .toml (3), .html (2), .include (2), .pdf (2), .sum (2), .pl (2), .cfg (2), .LESSER (1), .alltools (1), .920751759Z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .Clefsign (1), .sol (1), .ac (1), .in (1), .am (1), .awk (1), .yaml (1), .alpine (1), .ubuntu (1), .mkd (1), .peg (1)</t>
-  </si>
-  <si>
-    <t>.go (2054),  (155), .h (98), .md (96), .json (58), .s (58), .c (56), .js (39), .yml (17), .txt (14), .jsx (13), .sh (12), .png (11), .markdown (7), .proto (5), .lock (5), .mod (5), .nsh (4), .py (4), .java (4), .cpp (4), .tmpl (4), .sol (3), .m4 (3), .sage (3), .sum (3), .toml (3), .html (2), .include (2), .pdf (2), .pl (2), .cfg (2), .LESSER (1), .alltools (1), .920751759Z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .Clefsign (1), .ac (1), .in (1), .am (1), .awk (1), .yaml (1), .alpine (1), .ubuntu (1), .mkd (1), .peg (1)</t>
-  </si>
-  <si>
-    <t>.go (2062),  (155), .h (98), .md (96), .json (58), .s (58), .c (56), .js (39), .yml (17), .txt (14), .jsx (13), .sh (12), .png (11), .markdown (7), .proto (5), .lock (5), .mod (5), .nsh (4), .py (4), .java (4), .cpp (4), .tmpl (4), .sol (3), .m4 (3), .sage (3), .sum (3), .toml (3), .html (2), .include (2), .pdf (2), .pl (2), .cfg (2), .LESSER (1), .alltools (1), .920751759Z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .Clefsign (1), .ac (1), .in (1), .am (1), .awk (1), .yaml (1), .alpine (1), .ubuntu (1), .mkd (1), .peg (1)</t>
-  </si>
-  <si>
-    <t>.go (892), .h (54), .json (52),  (47), .js (35), .md (25), .c (14), .png (10), .yml (7), .sh (6), .s (5), .proto (4), .nsh (4), .py (4), .java (4), .txt (3), .sol (3), .m4 (3), .sage (3), .include (2), .pdf (2), .LESSER (1), .alltools (1), .mod (1), .sum (1), .920751759Z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .Clefsign (1), .html (1), .ac (1), .in (1), .am (1)</t>
-  </si>
-  <si>
-    <t>.go (900), .h (54), .json (52),  (50), .js (35), .md (26), .c (14), .png (10), .yml (7), .sh (5), .s (5), .proto (4), .nsh (4), .py (4), .java (4), .txt (3), .sol (3), .m4 (3), .sage (3), .include (2), .pdf (2), .rlp (2), .LESSER (1), .alltools (1), .yaml (1), .mod (1), .sum (1), .920751759Z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .Clefsign (1), .html (1), .ac (1), .in (1), .am (1), .bin (1)</t>
-  </si>
-  <si>
-    <t>.go (903),  (165), .h (54), .json (52), .js (35), .md (26), .c (14), .png (10), .yml (7), .sh (5), .s (5), .proto (4), .nsh (4), .py (4), .java (4), .txt (3), .sol (3), .m4 (3), .sage (3), .include (2), .pdf (2), .rlp (2), .LESSER (1), .alltools (1), .yaml (1), .mod (1), .sum (1), .920751759Z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .Clefsign (1), .html (1), .ac (1), .in (1), .am (1), .bin (1)</t>
-  </si>
-  <si>
-    <t>.go (941),  (165), .h (54), .json (52), .js (35), .md (27), .c (14), .png (10), .yml (7), .sh (5), .s (5), .proto (4), .nsh (4), .py (4), .java (4), .pdf (4), .txt (3), .sol (3), .m4 (3), .sage (3), .include (2), .rlp (2), .LESSER (1), .alltools (1), .yaml (1), .mod (1), .sum (1), .920751759Z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .Clefsign (1), .html (1), .ac (1), .in (1), .am (1), .bin (1)</t>
-  </si>
-  <si>
-    <t>.go (945),  (165), .h (54), .json (52), .js (35), .md (27), .c (14), .png (10), .yml (7), .sh (5), .s (5), .proto (4), .nsh (4), .py (4), .java (4), .pdf (4), .txt (3), .sol (3), .m4 (3), .sage (3), .include (2), .rlp (2), .LESSER (1), .alltools (1), .yaml (1), .mod (1), .sum (1), .920751759Z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .Clefsign (1), .html (1), .ac (1), .in (1), .am (1), .bin (1)</t>
-  </si>
-  <si>
-    <t>.go (981),  (165), .json (77), .h (54), .js (35), .md (27), .c (14), .png (10), .yml (7), .s (6), .sh (5), .proto (4), .nsh (4), .py (4), .java (4), .pdf (4), .txt (3), .sol (3), .m4 (3), .sage (3), .include (2), .rlp (2), .LESSER (1), .alltools (1), .yaml (1), .mod (1), .sum (1), .920751759Z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .Clefsign (1), .html (1), .ac (1), .in (1), .am (1), .bin (1)</t>
-  </si>
-  <si>
-    <t>.go (990),  (165), .json (97), .h (54), .js (35), .md (33), .c (14), .png (10), .yml (7), .sh (6), .s (6), .proto (4), .txt (4), .nsh (4), .py (4), .java (4), .pdf (4), .sol (3), .m4 (3), .sage (3), .include (2), .rlp (2), .LESSER (1), .alltools (1), .yaml (1), .mod (1), .sum (1), .920751759Z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .Clefsign (1), .html (1), .blocks (1), .prv (1), .ac (1), .in (1), .am (1), .bin (1)</t>
-  </si>
-  <si>
-    <t>.go (993),  (165), .json (97), .h (54), .js (35), .md (33), .c (14), .png (10), .yml (7), .sh (6), .s (6), .proto (4), .txt (4), .nsh (4), .py (4), .java (4), .pdf (4), .sol (3), .m4 (3), .sage (3), .include (2), .rlp (2), .LESSER (1), .alltools (1), .yaml (1), .mod (1), .sum (1), .920751759Z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .Clefsign (1), .html (1), .blocks (1), .prv (1), .ac (1), .in (1), .am (1), .bin (1)</t>
-  </si>
-  <si>
-    <t>.go (996),  (165), .json (97), .h (54), .js (35), .md (33), .c (14), .png (10), .yml (7), .sh (6), .s (6), .proto (4), .txt (4), .nsh (4), .py (4), .java (4), .pdf (4), .sol (3), .m4 (3), .sage (3), .include (2), .rlp (2), .LESSER (1), .alltools (1), .yaml (1), .mod (1), .sum (1), .920751759Z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .Clefsign (1), .html (1), .blocks (1), .prv (1), .ac (1), .in (1), .am (1), .bin (1)</t>
-  </si>
-  <si>
-    <t>.go (994),  (165), .json (97), .h (54), .js (35), .md (33), .c (14), .png (10), .yml (7), .sh (6), .s (6), .proto (4), .txt (4), .nsh (4), .py (4), .java (4), .pdf (4), .sol (3), .m4 (3), .sage (3), .include (2), .rlp (2), .LESSER (1), .alltools (1), .yaml (1), .mod (1), .sum (1), .920751759Z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .Clefsign (1), .html (1), .blocks (1), .prv (1), .ac (1), .in (1), .am (1), .bin (1)</t>
-  </si>
-  <si>
-    <t>.go (997),  (165), .json (97), .h (54), .js (35), .md (33), .c (14), .png (10), .yml (7), .sh (6), .s (6), .proto (4), .txt (4), .nsh (4), .py (4), .java (4), .pdf (4), .sol (3), .m4 (3), .sage (3), .include (2), .rlp (2), .LESSER (1), .alltools (1), .yaml (1), .mod (1), .sum (1), .920751759Z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .Clefsign (1), .html (1), .blocks (1), .prv (1), .ac (1), .in (1), .am (1), .bin (1)</t>
-  </si>
-  <si>
-    <t>.go (972),  (164), .json (99), .h (54), .js (35), .md (33), .c (14), .png (10), .yml (7), .sh (6), .s (6), .proto (4), .txt (4), .nsh (4), .py (4), .java (4), .pdf (4), .sol (3), .m4 (3), .sage (3), .include (2), .rlp (2), .LESSER (1), .alltools (1), .yaml (1), .mod (1), .sum (1), .920751759Z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .Clefsign (1), .html (1), .blocks (1), .prv (1), .ac (1), .in (1), .am (1), .bin (1)</t>
-  </si>
-  <si>
-    <t>.go (988),  (164), .json (99), .h (54), .js (35), .md (33), .c (14), .png (10), .yml (7), .sh (6), .s (6), .proto (4), .txt (4), .nsh (4), .py (4), .java (4), .pdf (4), .sol (3), .m4 (3), .sage (3), .include (2), .rlp (2), .LESSER (1), .alltools (1), .yaml (1), .mod (1), .sum (1), .920751759Z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .Clefsign (1), .html (1), .blocks (1), .prv (1), .ac (1), .in (1), .am (1), .bin (1)</t>
-  </si>
-  <si>
-    <t>.go (998),  (164), .json (100), .h (54), .js (35), .md (34), .c (14), .png (10), .txt (8), .yml (7), .sh (6), .s (6), .proto (4), .nsh (4), .py (4), .java (4), .pdf (4), .sol (3), .m4 (3), .sage (3), .include (2), .rlp (2), .LESSER (1), .alltools (1), .yaml (1), .mod (1), .sum (1), .920751759Z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .Clefsign (1), .gz (1), .html (1), .blocks (1), .prv (1), .ac (1), .in (1), .am (1), .bin (1)</t>
-  </si>
-  <si>
-    <t>.go (1004),  (164), .json (100), .h (54), .js (35), .md (34), .c (14), .png (10), .txt (8), .yml (7), .sh (7), .s (6), .proto (4), .nsh (4), .py (4), .java (4), .pdf (4), .sol (3), .m4 (3), .sage (3), .gz (2), .include (2), .rlp (2), .LESSER (1), .alltools (1), .mod (1), .sum (1), .920751759Z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .Clefsign (1), .html (1), .blocks (1), .prv (1), .ac (1), .in (1), .am (1), .bin (1)</t>
-  </si>
-  <si>
-    <t>.go (1020),  (164), .json (103), .h (54), .md (36), .js (35), .c (14), .zip (10), .png (10), .txt (8), .yml (7), .sh (7), .s (6), .proto (4), .nsh (4), .py (4), .rlp (4), .java (4), .pdf (4), .sol (3), .m4 (3), .sage (3), .pub (2), .sec (2), .1 (2), .2 (2), .3 (2), .include (2), .LESSER (1), .alltools (1), .mod (1), .sum (1), .920751759Z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .pom (1), .settings (1), .nsi (1), .dll (1), .podspec (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .Clefsign (1), .html (1), .blocks (1), .prv (1), .sig (1), .ac (1), .in (1), .am (1), .bin (1)</t>
-  </si>
-  <si>
-    <t>.go (1055),  (170), .json (106), .h (54), .md (38), .js (35), .c (14), .zip (10), .png (10), .txt (8), .yml (7), .sh (7), .s (7), .proto (4), .nsh (4), .py (4), .rlp (4), .java (4), .pdf (4), .sol (3), .m4 (3), .sage (3), .pub (2), .sec (2), .1 (2), .2 (2), .3 (2), .include (2), .LESSER (1), .alltools (1), .mod (1), .sum (1), .920751759Z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .pom (1), .settings (1), .nsi (1), .dll (1), .podspec (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .Clefsign (1), .html (1), .blocks (1), .prv (1), .sig (1), .ac (1), .in (1), .am (1), .dat (1), .bin (1)</t>
-  </si>
-  <si>
-    <t>.go (1061),  (170), .json (106), .h (54), .md (38), .js (35), .c (14), .zip (10), .png (10), .txt (8), .yml (7), .sh (7), .s (7), .proto (4), .nsh (4), .py (4), .rlp (4), .java (4), .pdf (4), .sol (3), .m4 (3), .sage (3), .pub (2), .sec (2), .1 (2), .2 (2), .3 (2), .include (2), .LESSER (1), .alltools (1), .mod (1), .sum (1), .920751759Z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .pom (1), .settings (1), .nsi (1), .dll (1), .podspec (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .Clefsign (1), .html (1), .blocks (1), .prv (1), .sig (1), .ac (1), .in (1), .am (1), .dat (1), .bin (1)</t>
-  </si>
-  <si>
-    <t>.go (1075),  (170), .json (106), .h (54), .md (38), .js (35), .c (14), .zip (10), .png (10), .txt (8), .yml (7), .sh (7), .s (7), .proto (4), .nsh (4), .py (4), .rlp (4), .java (4), .pdf (4), .sol (3), .m4 (3), .sage (3), .pub (2), .sec (2), .1 (2), .2 (2), .3 (2), .include (2), .LESSER (1), .alltools (1), .mod (1), .sum (1), .920751759Z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .pom (1), .settings (1), .nsi (1), .dll (1), .podspec (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .Clefsign (1), .html (1), .blocks (1), .prv (1), .sig (1), .ac (1), .in (1), .am (1), .dat (1), .bin (1)</t>
-  </si>
-  <si>
-    <t>.go (1088),  (170), .json (119), .h (54), .md (41), .js (35), .c (14), .zip (10), .png (10), .txt (8), .yml (7), .sh (7), .s (7), .proto (4), .nsh (4), .py (4), .rlp (4), .java (4), .pdf (4), .sol (3), .m4 (3), .sage (3), .pub (2), .sec (2), .1 (2), .2 (2), .3 (2), .include (2), .LESSER (1), .alltools (1), .mod (1), .sum (1), .920751759Z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .pom (1), .settings (1), .nsi (1), .dll (1), .podspec (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .Clefsign (1), .html (1), .blocks (1), .prv (1), .sig (1), .ac (1), .in (1), .am (1), .dat (1), .bin (1)</t>
-  </si>
-  <si>
-    <t>.go (1092),  (170), .json (119), .h (54), .md (41), .js (35), .c (14), .zip (10), .png (10), .txt (8), .yml (7), .sh (7), .s (7), .proto (4), .nsh (4), .py (4), .rlp (4), .java (4), .pdf (4), .sol (3), .m4 (3), .sage (3), .pub (2), .sec (2), .1 (2), .2 (2), .3 (2), .include (2), .LESSER (1), .alltools (1), .mod (1), .sum (1), .920751759Z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .pom (1), .settings (1), .nsi (1), .dll (1), .podspec (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .Clefsign (1), .html (1), .blocks (1), .prv (1), .sig (1), .ac (1), .in (1), .am (1), .dat (1), .bin (1)</t>
-  </si>
-  <si>
-    <t>.go (1092),  (170), .json (122), .h (54), .md (42), .js (35), .c (14), .zip (10), .png (10), .txt (8), .yml (7), .sh (7), .s (7), .proto (4), .nsh (4), .py (4), .rlp (4), .java (4), .pdf (4), .sol (3), .m4 (3), .sage (3), .pub (2), .sec (2), .1 (2), .2 (2), .3 (2), .include (2), .LESSER (1), .alltools (1), .mod (1), .sum (1), .920751759Z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .pom (1), .settings (1), .nsi (1), .dll (1), .podspec (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .Clefsign (1), .html (1), .blocks (1), .prv (1), .sig (1), .ac (1), .in (1), .am (1), .dat (1), .bin (1)</t>
-  </si>
-  <si>
-    <t>.go (1093),  (170), .json (125), .h (54), .md (43), .js (35), .c (14), .zip (10), .png (10), .txt (8), .yml (7), .sh (7), .s (7), .proto (4), .nsh (4), .py (4), .rlp (4), .java (4), .pdf (4), .sol (3), .m4 (3), .sage (3), .pub (2), .sec (2), .1 (2), .2 (2), .3 (2), .include (2), .LESSER (1), .alltools (1), .mod (1), .sum (1), .920751759Z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .pom (1), .settings (1), .nsi (1), .dll (1), .podspec (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .Clefsign (1), .html (1), .blocks (1), .prv (1), .sig (1), .ac (1), .in (1), .am (1), .dat (1), .bin (1)</t>
-  </si>
-  <si>
-    <t>.go (1091),  (170), .json (125), .h (54), .md (43), .js (35), .c (14), .zip (10), .png (10), .txt (8), .yml (7), .sh (7), .s (7), .proto (4), .nsh (4), .py (4), .rlp (4), .java (4), .pdf (4), .sol (3), .m4 (3), .sage (3), .pub (2), .sec (2), .1 (2), .2 (2), .3 (2), .include (2), .LESSER (1), .alltools (1), .mod (1), .sum (1), .920751759Z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .pom (1), .settings (1), .nsi (1), .dll (1), .podspec (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .Clefsign (1), .html (1), .blocks (1), .prv (1), .sig (1), .ac (1), .in (1), .am (1), .dat (1), .bin (1)</t>
-  </si>
-  <si>
-    <t>.go (1113),  (170), .json (153), .h (54), .md (45), .js (37), .c (14), .zip (10), .png (10), .txt (8), .yml (7), .sh (7), .rlp (7), .s (7), .proto (4), .nsh (4), .py (4), .java (4), .pdf (4), .sol (3), .m4 (3), .sage (3), .pub (2), .sec (2), .1 (2), .2 (2), .3 (2), .bin (2), .include (2), .LESSER (1), .alltools (1), .mod (1), .sum (1), .920751759Z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .pom (1), .settings (1), .nsi (1), .dll (1), .podspec (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .Clefsign (1), .html (1), .blocks (1), .prv (1), .sig (1), .ac (1), .in (1), .am (1), .dat (1)</t>
-  </si>
-  <si>
-    <t>.go (1113),  (170), .json (155), .h (54), .md (45), .js (36), .c (14), .zip (10), .png (10), .txt (8), .rlp (8), .yml (7), .sh (7), .s (7), .proto (4), .nsh (4), .py (4), .java (4), .pdf (4), .sol (3), .m4 (3), .sage (3), .pub (2), .sec (2), .1 (2), .2 (2), .3 (2), .bin (2), .include (2), .LESSER (1), .alltools (1), .mod (1), .sum (1), .920751759Z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .pom (1), .settings (1), .nsi (1), .dll (1), .podspec (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .Clefsign (1), .html (1), .blocks (1), .prv (1), .sig (1), .ac (1), .in (1), .am (1), .dat (1)</t>
-  </si>
-  <si>
-    <t>.go (1115),  (170), .json (156), .h (54), .md (45), .js (36), .c (14), .zip (10), .png (10), .txt (9), .rlp (9), .yml (7), .sh (7), .s (7), .proto (4), .nsh (4), .py (4), .java (4), .pdf (4), .sol (3), .m4 (3), .sage (3), .pub (2), .sec (2), .1 (2), .2 (2), .3 (2), .bin (2), .include (2), .LESSER (1), .alltools (1), .mod (1), .sum (1), .920751759Z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .pom (1), .settings (1), .nsi (1), .dll (1), .podspec (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .Clefsign (1), .html (1), .blocks (1), .prv (1), .sig (1), .ac (1), .in (1), .am (1), .dat (1)</t>
-  </si>
-  <si>
-    <t>.go (1121),  (170), .json (162), .h (54), .md (47), .js (36), .c (14), .zip (10), .png (10), .rlp (10), .txt (9), .yml (7), .sh (7), .s (7), .proto (4), .nsh (4), .py (4), .java (4), .pdf (4), .sol (3), .m4 (3), .sage (3), .pub (2), .sec (2), .1 (2), .2 (2), .3 (2), .bin (2), .include (2), .LESSER (1), .alltools (1), .mod (1), .sum (1), .920751759Z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .pom (1), .settings (1), .nsi (1), .dll (1), .podspec (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .Clefsign (1), .html (1), .blocks (1), .prv (1), .sig (1), .ac (1), .in (1), .am (1), .dat (1)</t>
-  </si>
-  <si>
-    <t>.go (1127), .json (178),  (170), .h (54), .md (51), .js (35), .c (14), .rlp (13), .zip (10), .png (10), .txt (9), .yml (7), .sh (7), .s (7), .proto (4), .nsh (4), .py (4), .java (4), .pdf (4), .sol (3), .m4 (3), .sage (3), .pub (2), .sec (2), .1 (2), .2 (2), .3 (2), .bin (2), .include (2), .LESSER (1), .alltools (1), .mod (1), .sum (1), .920751759Z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .pom (1), .settings (1), .nsi (1), .dll (1), .podspec (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .Clefsign (1), .html (1), .blocks (1), .prv (1), .sig (1), .ac (1), .in (1), .am (1), .dat (1)</t>
-  </si>
-  <si>
-    <t>.go (1141), .json (178),  (170), .h (54), .md (51), .js (35), .c (14), .rlp (13), .zip (10), .png (10), .txt (9), .yml (7), .sh (7), .s (7), .proto (4), .nsh (4), .py (4), .java (4), .pdf (4), .sol (3), .m4 (3), .sage (3), .pub (2), .sec (2), .1 (2), .2 (2), .3 (2), .bin (2), .include (2), .LESSER (1), .alltools (1), .mod (1), .sum (1), .920751759Z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .pom (1), .settings (1), .nsi (1), .dll (1), .podspec (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .Clefsign (1), .html (1), .blocks (1), .prv (1), .sig (1), .ac (1), .in (1), .am (1), .dat (1)</t>
-  </si>
-  <si>
-    <t>.go (1147), .json (178),  (170), .h (54), .md (51), .js (34), .c (14), .rlp (13), .zip (10), .png (10), .txt (9), .yml (7), .sh (7), .s (7), .proto (4), .nsh (4), .py (4), .java (4), .pdf (4), .sol (3), .m4 (3), .sage (3), .pub (2), .sec (2), .1 (2), .2 (2), .3 (2), .bin (2), .include (2), .LESSER (1), .alltools (1), .mod (1), .sum (1), .920751759Z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .pom (1), .settings (1), .nsi (1), .dll (1), .podspec (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .Clefsign (1), .html (1), .blocks (1), .prv (1), .sig (1), .ac (1), .in (1), .am (1), .dat (1)</t>
-  </si>
-  <si>
     <t>Ethereum Version</t>
   </si>
   <si>
@@ -649,11 +400,260 @@
     <t>go-ethereum-1.10.16</t>
   </si>
   <si>
+    <t>Num code files (cpp, py, c, h, sh, sol, go, c, js, java)</t>
+  </si>
+  <si>
+    <t>.go (1005), .json (779),  (120), .h (68), .yml (32), .md (32), .s (21), .c (19), .pl (9), .markdown (8), .sh (7), .txt (7), .js (3), .include (3), .py (3), .in (2), .lesser (1), .920751759z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .ac (1), .am (1), .java (1), .deflate (1), .cpp (1), .mkd (1), .sol (1), .ini (1)</t>
+  </si>
+  <si>
+    <t>.go (1006), .json (779),  (120), .h (68), .yml (32), .md (32), .s (21), .c (19), .pl (9), .markdown (8), .sh (7), .txt (7), .js (3), .include (3), .py (3), .in (2), .lesser (1), .920751759z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .ac (1), .am (1), .java (1), .deflate (1), .cpp (1), .mkd (1), .sol (1), .ini (1)</t>
+  </si>
+  <si>
+    <t>.go (1008), .json (783),  (115), .h (68), .md (31), .s (22), .yml (19), .c (19), .pl (9), .markdown (8), .txt (7), .sh (5), .js (3), .include (3), .in (2), .py (2), .lesser (1), .920751759z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .ac (1), .am (1), .java (1), .deflate (1), .cpp (1), .mkd (1), .sol (1)</t>
+  </si>
+  <si>
+    <t>.go (1010), .json (783),  (115), .h (68), .md (31), .s (22), .yml (19), .c (19), .pl (9), .markdown (8), .txt (7), .sh (5), .js (3), .include (3), .in (2), .py (2), .lesser (1), .920751759z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .ac (1), .am (1), .java (1), .deflate (1), .cpp (1), .mkd (1), .sol (1)</t>
+  </si>
+  <si>
+    <t>.go (1012), .json (805),  (115), .h (68), .md (31), .s (22), .yml (19), .c (19), .pl (9), .markdown (8), .txt (7), .sh (5), .js (3), .include (3), .in (2), .py (2), .lesser (1), .920751759z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .ac (1), .am (1), .java (1), .deflate (1), .cpp (1), .mkd (1), .sol (1)</t>
+  </si>
+  <si>
+    <t>.go (1014), .json (848),  (120), .h (68), .md (39), .yml (32), .s (22), .c (19), .pl (9), .markdown (8), .sh (7), .txt (7), .js (3), .include (3), .py (3), .in (2), .lesser (1), .920751759z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .ac (1), .am (1), .java (1), .deflate (1), .cpp (1), .mkd (1), .sol (1), .ini (1)</t>
+  </si>
+  <si>
+    <t>.go (1207), .json (846),  (141), .h (62), .md (56), .yml (40), .s (26), .c (19), .sh (10), .pl (10), .txt (7), .markdown (7), .cfg (5), .nsh (3), .js (3), .sol (3), .include (3), .py (3), .in (2), .lock (2), .yaml (2), .lesser (1), .conf (1), .920751759z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .ac (1), .am (1), .java (1), .deflate (1), .css (1), .html (1), .png (1), .ini (1), .awk (1), .cpp (1), .mkd (1)</t>
+  </si>
+  <si>
+    <t>.go (1207), .json (846),  (142), .h (62), .md (56), .yml (40), .s (26), .c (19), .sh (10), .pl (10), .txt (7), .markdown (7), .cfg (5), .nsh (3), .js (3), .sol (3), .include (3), .py (3), .in (2), .lock (2), .yaml (2), .lesser (1), .conf (1), .920751759z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .ac (1), .am (1), .java (1), .deflate (1), .css (1), .html (1), .png (1), .ini (1), .awk (1), .cpp (1), .mkd (1)</t>
+  </si>
+  <si>
+    <t>.go (1206), .json (846),  (142), .h (62), .md (56), .yml (40), .s (26), .c (19), .sh (10), .pl (10), .txt (7), .markdown (7), .cfg (5), .nsh (3), .js (3), .sol (3), .include (3), .py (3), .in (2), .lock (2), .yaml (2), .lesser (1), .conf (1), .920751759z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .ac (1), .am (1), .java (1), .deflate (1), .css (1), .html (1), .png (1), .ini (1), .awk (1), .cpp (1), .mkd (1)</t>
+  </si>
+  <si>
+    <t>.go (1210), .json (846),  (142), .h (62), .md (56), .yml (40), .s (26), .c (18), .sh (10), .pl (10), .txt (7), .markdown (7), .cfg (5), .nsh (4), .js (3), .sol (3), .include (3), .py (3), .in (2), .lock (2), .yaml (2), .lesser (1), .conf (1), .920751759z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .ac (1), .am (1), .java (1), .deflate (1), .css (1), .html (1), .png (1), .ini (1), .awk (1), .cpp (1), .mkd (1)</t>
+  </si>
+  <si>
+    <t>.go (1196), .json (846),  (142), .h (62), .md (56), .yml (40), .s (26), .c (18), .sh (10), .pl (10), .txt (7), .markdown (7), .cfg (5), .nsh (4), .js (3), .sol (3), .include (3), .py (3), .in (2), .lock (2), .yaml (2), .lesser (1), .conf (1), .920751759z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .ac (1), .am (1), .java (1), .deflate (1), .css (1), .html (1), .png (1), .ini (1), .awk (1), .cpp (1), .mkd (1)</t>
+  </si>
+  <si>
+    <t>.go (1210), .json (847),  (143), .h (62), .md (57), .yml (43), .s (28), .c (22), .sh (10), .pl (10), .txt (7), .markdown (7), .js (5), .cfg (5), .nsh (4), .java (4), .py (4), .sol (3), .m4 (3), .sage (3), .in (2), .include (2), .lock (2), .yaml (2), .lesser (1), .conf (1), .920751759z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .ac (1), .am (1), .deflate (1), .css (1), .html (1), .png (1), .ini (1), .awk (1), .cpp (1), .mkd (1)</t>
+  </si>
+  <si>
+    <t>.go (1215), .json (847),  (143), .h (62), .md (57), .yml (43), .s (28), .c (22), .sh (10), .pl (10), .txt (7), .markdown (7), .js (5), .cfg (5), .nsh (4), .java (4), .py (4), .sol (3), .m4 (3), .sage (3), .in (2), .include (2), .lock (2), .yaml (2), .lesser (1), .conf (1), .920751759z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .ac (1), .am (1), .deflate (1), .css (1), .html (1), .png (1), .ini (1), .awk (1), .cpp (1), .mkd (1)</t>
+  </si>
+  <si>
+    <t>.go (1246), .json (847),  (148), .h (82), .md (58), .yml (45), .c (44), .s (28), .sh (10), .pl (10), .txt (7), .markdown (7), .js (5), .cfg (5), .nsh (4), .java (4), .py (4), .cpp (4), .sol (3), .m4 (3), .sage (3), .in (2), .include (2), .lock (2), .yaml (2), .lesser (1), .conf (1), .920751759z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .ac (1), .am (1), .deflate (1), .css (1), .html (1), .png (1), .ini (1), .awk (1), .mkd (1)</t>
+  </si>
+  <si>
+    <t>.go (1443), .json (848),  (138), .h (84), .md (71), .c (46), .s (33), .yml (26), .txt (12), .sh (10), .pl (10), .markdown (7), .js (5), .cfg (5), .nsh (4), .java (4), .cpp (4), .sol (3), .m4 (3), .sage (3), .py (3), .lock (3), .yaml (3), .html (2), .include (2), .csv (2), .lesser (1), .920751759z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .ac (1), .in (1), .am (1), .deflate (1), .css (1), .png (1), .ini (1), .iml (1), .awk (1), .mkd (1), .peg (1)</t>
+  </si>
+  <si>
+    <t>.go (1446), .json (848),  (138), .h (84), .md (71), .c (46), .s (33), .yml (26), .txt (12), .sh (10), .pl (10), .markdown (7), .js (5), .cfg (5), .nsh (4), .java (4), .cpp (4), .sol (3), .m4 (3), .sage (3), .py (3), .lock (3), .yaml (3), .html (2), .include (2), .csv (2), .lesser (1), .920751759z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .ac (1), .in (1), .am (1), .deflate (1), .css (1), .png (1), .ini (1), .iml (1), .awk (1), .mkd (1), .peg (1)</t>
+  </si>
+  <si>
+    <t>.go (1464), .json (848),  (139), .h (84), .md (71), .c (46), .s (33), .yml (26), .sh (13), .txt (12), .pl (10), .markdown (7), .js (5), .cfg (5), .nsh (4), .java (4), .cpp (4), .sol (3), .m4 (3), .sage (3), .py (3), .lock (3), .yaml (3), .html (2), .include (2), .csv (2), .lesser (1), .920751759z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .ac (1), .in (1), .am (1), .deflate (1), .css (1), .png (1), .ini (1), .iml (1), .awk (1), .mkd (1), .peg (1)</t>
+  </si>
+  <si>
+    <t>.go (1464), .json (848),  (144), .h (84), .md (72), .c (46), .s (33), .yml (26), .sh (18), .txt (12), .pl (10), .markdown (7), .js (5), .cfg (5), .nsh (4), .java (4), .cpp (4), .sol (3), .m4 (3), .sage (3), .py (3), .lock (3), .yaml (3), .html (2), .include (2), .csv (2), .lesser (1), .920751759z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .ac (1), .in (1), .am (1), .deflate (1), .css (1), .png (1), .ini (1), .iml (1), .awk (1), .mkd (1), .peg (1)</t>
+  </si>
+  <si>
+    <t>.go (1477), .json (848),  (146), .h (84), .md (73), .c (46), .s (33), .yml (26), .sh (18), .txt (12), .pl (10), .markdown (7), .js (5), .cfg (5), .nsh (4), .java (4), .cpp (4), .sol (3), .m4 (3), .sage (3), .py (3), .lock (3), .yaml (3), .html (2), .include (2), .csv (2), .lesser (1), .920751759z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .ac (1), .in (1), .am (1), .deflate (1), .css (1), .png (1), .ini (1), .iml (1), .awk (1), .mkd (1), .peg (1)</t>
+  </si>
+  <si>
+    <t>.go (1487),  (142), .h (84), .md (64), .c (46), .s (33), .sh (16), .yml (13), .txt (12), .pl (10), .markdown (7), .json (6), .js (5), .cfg (5), .nsh (4), .java (4), .cpp (4), .sol (3), .m4 (3), .sage (3), .lock (3), .yaml (3), .html (2), .include (2), .py (2), .csv (2), .lesser (1), .920751759z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .ac (1), .in (1), .am (1), .deflate (1), .css (1), .png (1), .iml (1), .awk (1), .mkd (1), .peg (1)</t>
+  </si>
+  <si>
+    <t>.go (1525),  (147), .h (84), .md (64), .c (46), .s (33), .sh (16), .yml (13), .txt (12), .pl (10), .markdown (7), .json (6), .js (5), .cfg (5), .nsh (4), .java (4), .cpp (4), .sol (3), .m4 (3), .sage (3), .lock (3), .yaml (3), .proto (2), .html (2), .include (2), .py (2), .csv (2), .lesser (1), .920751759z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .ac (1), .in (1), .am (1), .deflate (1), .css (1), .png (1), .iml (1), .awk (1), .mkd (1), .peg (1)</t>
+  </si>
+  <si>
+    <t>.go (1545),  (148), .h (84), .md (67), .c (46), .s (33), .sh (17), .yml (13), .txt (12), .pl (10), .markdown (7), .json (6), .js (5), .cfg (5), .nsh (4), .java (4), .cpp (4), .sol (3), .m4 (3), .sage (3), .lock (3), .yaml (3), .proto (2), .html (2), .include (2), .py (2), .csv (2), .lesser (1), .920751759z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .ac (1), .in (1), .am (1), .deflate (1), .css (1), .png (1), .iml (1), .awk (1), .mkd (1), .peg (1)</t>
+  </si>
+  <si>
+    <t>.go (1546),  (148), .h (84), .md (67), .c (46), .s (33), .sh (17), .yml (13), .txt (12), .pl (10), .markdown (7), .json (6), .js (5), .cfg (5), .nsh (4), .java (4), .cpp (4), .sol (3), .m4 (3), .sage (3), .lock (3), .yaml (3), .proto (2), .html (2), .include (2), .py (2), .csv (2), .lesser (1), .920751759z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .ac (1), .in (1), .am (1), .deflate (1), .css (1), .png (1), .iml (1), .awk (1), .mkd (1), .peg (1)</t>
+  </si>
+  <si>
+    <t>.go (1622),  (152), .h (84), .md (69), .c (46), .s (36), .sh (17), .yml (13), .txt (12), .pl (9), .json (7), .jsx (7), .markdown (7), .js (6), .cfg (5), .nsh (4), .java (4), .cpp (4), .tmpl (4), .html (3), .sol (3), .m4 (3), .sage (3), .lock (3), .yaml (3), .proto (2), .include (2), .py (2), .csv (2), .lesser (1), .alltools (1), .920751759z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .ac (1), .in (1), .am (1), .deflate (1), .css (1), .png (1), .iml (1), .awk (1), .mkd (1), .peg (1)</t>
+  </si>
+  <si>
+    <t>.go (1732),  (159), .h (94), .md (78), .c (55), .s (36), .yml (17), .json (17), .sh (17), .js (13), .txt (12), .jsx (11), .pl (9), .sol (7), .markdown (7), .cfg (5), .nsh (4), .java (4), .lock (4), .cpp (4), .tmpl (4), .html (3), .m4 (3), .sage (3), .yaml (3), .proto (2), .include (2), .py (2), .csv (2), .lesser (1), .alltools (1), .920751759z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .ac (1), .in (1), .am (1), .deflate (1), .css (1), .png (1), .iml (1), .awk (1), .mkd (1), .peg (1), .toml (1)</t>
+  </si>
+  <si>
+    <t>.go (1730),  (159), .h (94), .md (78), .c (55), .s (36), .yml (17), .json (17), .sh (17), .js (13), .txt (12), .jsx (11), .pl (9), .sol (7), .markdown (7), .cfg (5), .nsh (4), .java (4), .lock (4), .cpp (4), .tmpl (4), .html (3), .m4 (3), .sage (3), .yaml (3), .proto (2), .include (2), .py (2), .csv (2), .lesser (1), .alltools (1), .920751759z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .ac (1), .in (1), .am (1), .deflate (1), .css (1), .png (1), .iml (1), .awk (1), .mkd (1), .peg (1), .toml (1)</t>
+  </si>
+  <si>
+    <t>.go (1769),  (161), .h (97), .md (82), .c (55), .s (37), .yml (18), .json (17), .sh (17), .js (13), .txt (12), .jsx (11), .pl (9), .sol (7), .markdown (7), .cfg (5), .nsh (4), .java (4), .lock (4), .cpp (4), .tmpl (4), .html (3), .m4 (3), .sage (3), .yaml (3), .proto (2), .include (2), .py (2), .csv (2), .lesser (1), .alltools (1), .920751759z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .ac (1), .in (1), .am (1), .deflate (1), .css (1), .png (1), .iml (1), .awk (1), .mkd (1), .peg (1), .toml (1)</t>
+  </si>
+  <si>
+    <t>.go (1771),  (159), .h (97), .md (82), .c (55), .s (38), .yml (19), .json (16), .sh (14), .js (13), .txt (12), .jsx (11), .pl (9), .sol (7), .markdown (7), .lock (5), .cfg (5), .nsh (4), .java (4), .cpp (4), .tmpl (4), .html (3), .m4 (3), .sage (3), .yaml (3), .proto (2), .include (2), .py (2), .csv (2), .lesser (1), .alltools (1), .920751759z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .ac (1), .in (1), .am (1), .deflate (1), .css (1), .png (1), .iml (1), .awk (1), .mkd (1), .peg (1), .toml (1)</t>
+  </si>
+  <si>
+    <t>.go (1789),  (159), .h (97), .md (87), .c (55), .s (38), .yml (19), .json (17), .sh (14), .js (14), .txt (12), .jsx (11), .pl (9), .sol (7), .markdown (7), .lock (5), .cfg (5), .nsh (4), .java (4), .cpp (4), .tmpl (4), .py (3), .html (3), .m4 (3), .sage (3), .yaml (3), .proto (2), .png (2), .include (2), .csv (2), .lesser (1), .alltools (1), .920751759z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .ac (1), .in (1), .am (1), .deflate (1), .css (1), .iml (1), .awk (1), .mkd (1), .peg (1), .toml (1)</t>
+  </si>
+  <si>
+    <t>.go (1789),  (159), .h (97), .md (87), .c (55), .s (38), .yml (19), .json (17), .sh (15), .js (14), .txt (12), .jsx (11), .pl (9), .sol (7), .markdown (7), .lock (5), .cfg (5), .nsh (4), .java (4), .cpp (4), .tmpl (4), .py (3), .html (3), .m4 (3), .sage (3), .yaml (3), .proto (2), .png (2), .include (2), .csv (2), .lesser (1), .alltools (1), .920751759z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .ac (1), .in (1), .am (1), .deflate (1), .css (1), .iml (1), .awk (1), .mkd (1), .peg (1), .toml (1)</t>
+  </si>
+  <si>
+    <t>.go (1796),  (160), .h (97), .md (88), .c (55), .s (39), .yml (19), .json (17), .sh (15), .js (14), .txt (12), .jsx (11), .pl (9), .png (7), .sol (7), .markdown (7), .lock (5), .cfg (5), .nsh (4), .py (4), .java (4), .cpp (4), .tmpl (4), .html (3), .m4 (3), .sage (3), .yaml (3), .proto (2), .include (2), .csv (2), .lesser (1), .alltools (1), .920751759z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .clefsign (1), .ac (1), .in (1), .am (1), .deflate (1), .css (1), .iml (1), .awk (1), .mkd (1), .peg (1), .toml (1)</t>
+  </si>
+  <si>
+    <t>.go (1802),  (160), .h (97), .md (88), .c (55), .s (39), .yml (19), .json (17), .sh (15), .js (14), .txt (12), .jsx (11), .pl (9), .png (7), .sol (7), .markdown (7), .lock (5), .cfg (5), .nsh (4), .py (4), .java (4), .cpp (4), .tmpl (4), .html (3), .m4 (3), .sage (3), .yaml (3), .proto (2), .include (2), .csv (2), .lesser (1), .alltools (1), .920751759z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .clefsign (1), .ac (1), .in (1), .am (1), .deflate (1), .css (1), .iml (1), .awk (1), .mkd (1), .peg (1), .toml (1)</t>
+  </si>
+  <si>
+    <t>.go (1804),  (160), .h (97), .md (88), .c (55), .s (39), .yml (19), .json (17), .sh (15), .js (14), .txt (12), .jsx (11), .pl (9), .png (7), .sol (7), .markdown (7), .lock (5), .cfg (5), .nsh (4), .py (4), .java (4), .cpp (4), .tmpl (4), .html (3), .m4 (3), .sage (3), .yaml (3), .proto (2), .include (2), .csv (2), .lesser (1), .alltools (1), .920751759z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .clefsign (1), .ac (1), .in (1), .am (1), .deflate (1), .css (1), .iml (1), .awk (1), .mkd (1), .peg (1), .toml (1)</t>
+  </si>
+  <si>
+    <t>.go (1831),  (160), .h (97), .md (88), .c (55), .s (39), .yml (19), .json (17), .sh (15), .js (14), .txt (12), .jsx (11), .pl (9), .png (7), .sol (7), .markdown (7), .lock (5), .cfg (5), .nsh (4), .py (4), .java (4), .cpp (4), .tmpl (4), .html (3), .m4 (3), .sage (3), .yaml (3), .proto (2), .include (2), .csv (2), .lesser (1), .alltools (1), .920751759z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .clefsign (1), .ac (1), .in (1), .am (1), .deflate (1), .css (1), .iml (1), .awk (1), .mkd (1), .peg (1), .toml (1)</t>
+  </si>
+  <si>
+    <t>.go (1907),  (162), .h (97), .md (92), .c (55), .s (39), .json (33), .yml (19), .js (17), .sh (16), .txt (13), .jsx (11), .pl (10), .png (7), .sol (7), .markdown (7), .lock (5), .cfg (5), .nsh (4), .py (4), .java (4), .cpp (4), .tmpl (4), .html (3), .m4 (3), .sage (3), .yaml (3), .proto (2), .include (2), .csv (2), .lesser (1), .alltools (1), .920751759z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .clefsign (1), .ac (1), .in (1), .am (1), .deflate (1), .css (1), .iml (1), .awk (1), .mkd (1), .peg (1), .toml (1)</t>
+  </si>
+  <si>
+    <t>.go (2063),  (171), .md (101), .h (97), .c (55), .s (39), .json (33), .yml (19), .sh (17), .js (17), .txt (13), .jsx (12), .pl (10), .png (7), .sol (7), .markdown (7), .lock (6), .cfg (5), .nsh (4), .py (4), .java (4), .cpp (4), .tmpl (4), .html (3), .m4 (3), .sage (3), .yaml (3), .proto (2), .changelog (2), .control (2), .copyright (2), .docs (2), .install (2), .rules (2), .include (2), .csv (2), .toml (2), .lesser (1), .alltools (1), .920751759z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .clefsign (1), .ac (1), .in (1), .am (1), .deflate (1), .css (1), .iml (1), .awk (1), .mkd (1), .peg (1)</t>
+  </si>
+  <si>
+    <t>.go (2092),  (173), .md (101), .h (97), .c (56), .s (40), .json (33), .yml (19), .sh (17), .js (17), .txt (13), .jsx (12), .pl (10), .png (7), .sol (7), .markdown (7), .lock (6), .cfg (5), .nsh (4), .py (4), .java (4), .cpp (4), .tmpl (4), .html (3), .m4 (3), .sage (3), .yaml (3), .proto (2), .changelog (2), .control (2), .copyright (2), .docs (2), .install (2), .rules (2), .include (2), .csv (2), .toml (2), .lesser (1), .alltools (1), .920751759z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .clefsign (1), .ac (1), .in (1), .am (1), .deflate (1), .css (1), .iml (1), .awk (1), .mkd (1), .peg (1)</t>
+  </si>
+  <si>
+    <t>.go (2091),  (172), .md (100), .h (97), .c (56), .s (40), .json (33), .yml (19), .sh (17), .js (17), .txt (13), .jsx (12), .pl (10), .png (7), .sol (7), .markdown (7), .lock (6), .cfg (5), .nsh (4), .py (4), .java (4), .cpp (4), .tmpl (4), .html (3), .m4 (3), .sage (3), .yaml (3), .proto (2), .changelog (2), .control (2), .copyright (2), .docs (2), .install (2), .rules (2), .include (2), .csv (2), .toml (2), .lesser (1), .alltools (1), .920751759z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .clefsign (1), .ac (1), .in (1), .am (1), .deflate (1), .css (1), .iml (1), .awk (1), .mkd (1), .peg (1)</t>
+  </si>
+  <si>
+    <t>.go (2085),  (171), .md (100), .h (97), .c (56), .s (40), .json (34), .yml (19), .sh (17), .js (17), .txt (12), .jsx (12), .pl (10), .png (7), .sol (7), .markdown (7), .lock (6), .cfg (5), .nsh (4), .py (4), .java (4), .cpp (4), .tmpl (4), .html (3), .m4 (3), .sage (3), .yaml (3), .proto (2), .changelog (2), .control (2), .copyright (2), .docs (2), .install (2), .rules (2), .include (2), .csv (2), .toml (2), .lesser (1), .alltools (1), .920751759z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .clefsign (1), .types (1), .ac (1), .in (1), .am (1), .deflate (1), .css (1), .iml (1), .awk (1), .mkd (1), .peg (1)</t>
+  </si>
+  <si>
+    <t>.go (2096),  (171), .md (100), .h (97), .c (56), .s (40), .json (34), .yml (19), .sh (17), .js (17), .txt (12), .jsx (12), .pl (10), .png (7), .sol (7), .markdown (7), .lock (6), .cfg (5), .nsh (4), .py (4), .java (4), .cpp (4), .tmpl (4), .html (3), .m4 (3), .sage (3), .yaml (3), .proto (2), .changelog (2), .control (2), .copyright (2), .docs (2), .install (2), .rules (2), .include (2), .csv (2), .toml (2), .lesser (1), .alltools (1), .920751759z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .clefsign (1), .types (1), .ac (1), .in (1), .am (1), .deflate (1), .css (1), .iml (1), .awk (1), .mkd (1), .peg (1)</t>
+  </si>
+  <si>
+    <t>.go (2125),  (172), .md (101), .h (97), .c (56), .s (40), .json (34), .yml (19), .sh (17), .js (17), .txt (12), .jsx (12), .pl (10), .png (7), .sol (7), .markdown (7), .lock (6), .cfg (5), .nsh (4), .py (4), .java (4), .cpp (4), .tmpl (4), .html (3), .m4 (3), .sage (3), .yaml (3), .proto (2), .changelog (2), .control (2), .copyright (2), .docs (2), .install (2), .rules (2), .include (2), .csv (2), .toml (2), .lesser (1), .alltools (1), .920751759z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .clefsign (1), .types (1), .ac (1), .in (1), .am (1), .deflate (1), .css (1), .iml (1), .awk (1), .mkd (1), .peg (1)</t>
+  </si>
+  <si>
+    <t>.go (2126),  (172), .md (101), .h (97), .c (56), .s (40), .json (35), .yml (19), .sh (17), .js (17), .txt (12), .jsx (12), .pl (10), .png (7), .sol (7), .markdown (7), .lock (6), .cfg (5), .nsh (4), .py (4), .java (4), .cpp (4), .tmpl (4), .html (3), .m4 (3), .sage (3), .yaml (3), .proto (2), .changelog (2), .control (2), .copyright (2), .docs (2), .install (2), .rules (2), .include (2), .csv (2), .toml (2), .lesser (1), .alltools (1), .920751759z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .clefsign (1), .types (1), .ac (1), .in (1), .am (1), .deflate (1), .css (1), .iml (1), .awk (1), .mkd (1), .peg (1)</t>
+  </si>
+  <si>
+    <t>.go (2149),  (171), .md (101), .h (97), .c (56), .s (46), .json (35), .yml (19), .sh (19), .js (17), .txt (12), .jsx (12), .pl (10), .png (7), .sol (7), .markdown (7), .lock (6), .cfg (5), .nsh (4), .py (4), .java (4), .cpp (4), .tmpl (4), .html (3), .m4 (3), .sage (3), .yaml (3), .proto (2), .changelog (2), .control (2), .copyright (2), .docs (2), .install (2), .rules (2), .include (2), .csv (2), .toml (2), .lesser (1), .alltools (1), .920751759z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .clefsign (1), .types (1), .ac (1), .in (1), .am (1), .css (1), .iml (1), .awk (1), .mkd (1), .peg (1)</t>
+  </si>
+  <si>
+    <t>.go (2226),  (171), .md (101), .h (97), .c (56), .s (54), .json (36), .yml (19), .sh (19), .js (17), .txt (12), .jsx (12), .png (7), .sol (7), .markdown (7), .lock (6), .cfg (5), .nsh (4), .py (4), .java (4), .cpp (4), .tmpl (4), .html (3), .m4 (3), .sage (3), .pl (3), .yaml (3), .proto (2), .changelog (2), .control (2), .copyright (2), .docs (2), .install (2), .rules (2), .include (2), .csv (2), .toml (2), .lesser (1), .alltools (1), .920751759z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .clefsign (1), .types (1), .ac (1), .in (1), .am (1), .css (1), .iml (1), .awk (1), .mkd (1), .peg (1)</t>
+  </si>
+  <si>
+    <t>.go (2228),  (171), .md (101), .h (97), .c (56), .s (54), .json (36), .yml (19), .sh (19), .js (17), .txt (12), .jsx (12), .png (7), .sol (7), .markdown (7), .lock (6), .cfg (5), .nsh (4), .py (4), .java (4), .cpp (4), .tmpl (4), .html (3), .m4 (3), .sage (3), .pl (3), .yaml (3), .proto (2), .changelog (2), .control (2), .copyright (2), .docs (2), .install (2), .rules (2), .include (2), .csv (2), .toml (2), .lesser (1), .alltools (1), .920751759z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .clefsign (1), .types (1), .ac (1), .in (1), .am (1), .css (1), .iml (1), .awk (1), .mkd (1), .peg (1)</t>
+  </si>
+  <si>
+    <t>.go (1924),  (149), .h (98), .md (92), .json (56), .s (56), .c (56), .js (34), .yml (17), .txt (14), .jsx (13), .sh (12), .png (11), .markdown (7), .proto (5), .lock (5), .nsh (4), .py (4), .java (4), .cpp (4), .tmpl (4), .m4 (3), .sage (3), .mod (3), .toml (3), .html (2), .include (2), .pdf (2), .pl (2), .cfg (2), .lesser (1), .alltools (1), .920751759z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .clefsign (1), .sol (1), .ac (1), .in (1), .am (1), .awk (1), .yaml (1), .alpine (1), .ubuntu (1), .mkd (1), .peg (1), .sum (1)</t>
+  </si>
+  <si>
+    <t>.go (1984),  (152), .h (98), .md (94), .json (57), .s (56), .c (56), .js (34), .yml (17), .txt (14), .jsx (13), .sh (12), .png (11), .markdown (7), .proto (5), .lock (5), .nsh (4), .py (4), .java (4), .cpp (4), .mod (4), .tmpl (4), .m4 (3), .sage (3), .toml (3), .html (2), .include (2), .pdf (2), .sum (2), .pl (2), .cfg (2), .lesser (1), .alltools (1), .920751759z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .clefsign (1), .sol (1), .ac (1), .in (1), .am (1), .awk (1), .yaml (1), .alpine (1), .ubuntu (1), .mkd (1), .peg (1)</t>
+  </si>
+  <si>
+    <t>.go (1987),  (152), .h (98), .md (94), .json (57), .s (56), .c (56), .js (34), .yml (17), .txt (14), .jsx (13), .sh (12), .png (11), .markdown (7), .proto (5), .lock (5), .nsh (4), .py (4), .java (4), .cpp (4), .mod (4), .tmpl (4), .m4 (3), .sage (3), .toml (3), .html (2), .include (2), .pdf (2), .sum (2), .pl (2), .cfg (2), .lesser (1), .alltools (1), .920751759z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .clefsign (1), .sol (1), .ac (1), .in (1), .am (1), .awk (1), .yaml (1), .alpine (1), .ubuntu (1), .mkd (1), .peg (1)</t>
+  </si>
+  <si>
+    <t>.go (2000),  (152), .h (98), .md (94), .s (58), .json (57), .c (56), .js (34), .yml (17), .txt (14), .jsx (13), .sh (12), .png (11), .markdown (7), .proto (5), .lock (5), .nsh (4), .py (4), .java (4), .cpp (4), .mod (4), .tmpl (4), .m4 (3), .sage (3), .toml (3), .html (2), .include (2), .pdf (2), .sum (2), .pl (2), .cfg (2), .lesser (1), .alltools (1), .920751759z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .clefsign (1), .sol (1), .ac (1), .in (1), .am (1), .awk (1), .yaml (1), .alpine (1), .ubuntu (1), .mkd (1), .peg (1)</t>
+  </si>
+  <si>
+    <t>.go (2002),  (152), .h (98), .md (94), .s (58), .json (57), .c (56), .js (34), .yml (17), .txt (14), .jsx (13), .sh (12), .png (11), .markdown (7), .proto (5), .lock (5), .nsh (4), .py (4), .java (4), .cpp (4), .mod (4), .tmpl (4), .m4 (3), .sage (3), .toml (3), .html (2), .include (2), .pdf (2), .sum (2), .pl (2), .cfg (2), .lesser (1), .alltools (1), .920751759z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .clefsign (1), .sol (1), .ac (1), .in (1), .am (1), .awk (1), .yaml (1), .alpine (1), .ubuntu (1), .mkd (1), .peg (1)</t>
+  </si>
+  <si>
+    <t>.go (2054),  (155), .h (98), .md (96), .json (58), .s (58), .c (56), .js (39), .yml (17), .txt (14), .jsx (13), .sh (12), .png (11), .markdown (7), .proto (5), .lock (5), .mod (5), .nsh (4), .py (4), .java (4), .cpp (4), .tmpl (4), .sol (3), .m4 (3), .sage (3), .sum (3), .toml (3), .html (2), .include (2), .pdf (2), .pl (2), .cfg (2), .lesser (1), .alltools (1), .920751759z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .clefsign (1), .ac (1), .in (1), .am (1), .awk (1), .yaml (1), .alpine (1), .ubuntu (1), .mkd (1), .peg (1)</t>
+  </si>
+  <si>
+    <t>.go (2062),  (155), .h (98), .md (96), .json (58), .s (58), .c (56), .js (39), .yml (17), .txt (14), .jsx (13), .sh (12), .png (11), .markdown (7), .proto (5), .lock (5), .mod (5), .nsh (4), .py (4), .java (4), .cpp (4), .tmpl (4), .sol (3), .m4 (3), .sage (3), .sum (3), .toml (3), .html (2), .include (2), .pdf (2), .pl (2), .cfg (2), .lesser (1), .alltools (1), .920751759z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .clefsign (1), .ac (1), .in (1), .am (1), .awk (1), .yaml (1), .alpine (1), .ubuntu (1), .mkd (1), .peg (1)</t>
+  </si>
+  <si>
+    <t>.go (892), .h (54), .json (52),  (47), .js (35), .md (25), .c (14), .png (10), .yml (7), .sh (6), .s (5), .proto (4), .nsh (4), .py (4), .java (4), .txt (3), .sol (3), .m4 (3), .sage (3), .include (2), .pdf (2), .lesser (1), .alltools (1), .mod (1), .sum (1), .920751759z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .clefsign (1), .html (1), .ac (1), .in (1), .am (1)</t>
+  </si>
+  <si>
+    <t>.go (900), .h (54), .json (52),  (50), .js (35), .md (26), .c (14), .png (10), .yml (7), .sh (5), .s (5), .proto (4), .nsh (4), .py (4), .java (4), .txt (3), .sol (3), .m4 (3), .sage (3), .include (2), .pdf (2), .rlp (2), .lesser (1), .alltools (1), .yaml (1), .mod (1), .sum (1), .920751759z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .clefsign (1), .html (1), .ac (1), .in (1), .am (1), .bin (1)</t>
+  </si>
+  <si>
+    <t>.go (903),  (165), .h (54), .json (52), .js (35), .md (26), .c (14), .png (10), .yml (7), .sh (5), .s (5), .proto (4), .nsh (4), .py (4), .java (4), .txt (3), .sol (3), .m4 (3), .sage (3), .include (2), .pdf (2), .rlp (2), .lesser (1), .alltools (1), .yaml (1), .mod (1), .sum (1), .920751759z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .clefsign (1), .html (1), .ac (1), .in (1), .am (1), .bin (1)</t>
+  </si>
+  <si>
+    <t>.go (941),  (165), .h (54), .json (52), .js (35), .md (27), .c (14), .png (10), .yml (7), .sh (5), .s (5), .proto (4), .nsh (4), .py (4), .java (4), .pdf (4), .txt (3), .sol (3), .m4 (3), .sage (3), .include (2), .rlp (2), .lesser (1), .alltools (1), .yaml (1), .mod (1), .sum (1), .920751759z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .clefsign (1), .html (1), .ac (1), .in (1), .am (1), .bin (1)</t>
+  </si>
+  <si>
+    <t>.go (945),  (165), .h (54), .json (52), .js (35), .md (27), .c (14), .png (10), .yml (7), .sh (5), .s (5), .proto (4), .nsh (4), .py (4), .java (4), .pdf (4), .txt (3), .sol (3), .m4 (3), .sage (3), .include (2), .rlp (2), .lesser (1), .alltools (1), .yaml (1), .mod (1), .sum (1), .920751759z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .clefsign (1), .html (1), .ac (1), .in (1), .am (1), .bin (1)</t>
+  </si>
+  <si>
+    <t>.go (981),  (165), .json (77), .h (54), .js (35), .md (27), .c (14), .png (10), .yml (7), .s (6), .sh (5), .proto (4), .nsh (4), .py (4), .java (4), .pdf (4), .txt (3), .sol (3), .m4 (3), .sage (3), .include (2), .rlp (2), .lesser (1), .alltools (1), .yaml (1), .mod (1), .sum (1), .920751759z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .clefsign (1), .html (1), .ac (1), .in (1), .am (1), .bin (1)</t>
+  </si>
+  <si>
+    <t>.go (990),  (165), .json (97), .h (54), .js (35), .md (33), .c (14), .png (10), .yml (7), .sh (6), .s (6), .proto (4), .txt (4), .nsh (4), .py (4), .java (4), .pdf (4), .sol (3), .m4 (3), .sage (3), .include (2), .rlp (2), .lesser (1), .alltools (1), .yaml (1), .mod (1), .sum (1), .920751759z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .clefsign (1), .html (1), .blocks (1), .prv (1), .ac (1), .in (1), .am (1), .bin (1)</t>
+  </si>
+  <si>
+    <t>.go (993),  (165), .json (97), .h (54), .js (35), .md (33), .c (14), .png (10), .yml (7), .sh (6), .s (6), .proto (4), .txt (4), .nsh (4), .py (4), .java (4), .pdf (4), .sol (3), .m4 (3), .sage (3), .include (2), .rlp (2), .lesser (1), .alltools (1), .yaml (1), .mod (1), .sum (1), .920751759z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .clefsign (1), .html (1), .blocks (1), .prv (1), .ac (1), .in (1), .am (1), .bin (1)</t>
+  </si>
+  <si>
+    <t>.go (996),  (165), .json (97), .h (54), .js (35), .md (33), .c (14), .png (10), .yml (7), .sh (6), .s (6), .proto (4), .txt (4), .nsh (4), .py (4), .java (4), .pdf (4), .sol (3), .m4 (3), .sage (3), .include (2), .rlp (2), .lesser (1), .alltools (1), .yaml (1), .mod (1), .sum (1), .920751759z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .clefsign (1), .html (1), .blocks (1), .prv (1), .ac (1), .in (1), .am (1), .bin (1)</t>
+  </si>
+  <si>
+    <t>.go (994),  (165), .json (97), .h (54), .js (35), .md (33), .c (14), .png (10), .yml (7), .sh (6), .s (6), .proto (4), .txt (4), .nsh (4), .py (4), .java (4), .pdf (4), .sol (3), .m4 (3), .sage (3), .include (2), .rlp (2), .lesser (1), .alltools (1), .yaml (1), .mod (1), .sum (1), .920751759z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .clefsign (1), .html (1), .blocks (1), .prv (1), .ac (1), .in (1), .am (1), .bin (1)</t>
+  </si>
+  <si>
+    <t>.go (997),  (165), .json (97), .h (54), .js (35), .md (33), .c (14), .png (10), .yml (7), .sh (6), .s (6), .proto (4), .txt (4), .nsh (4), .py (4), .java (4), .pdf (4), .sol (3), .m4 (3), .sage (3), .include (2), .rlp (2), .lesser (1), .alltools (1), .yaml (1), .mod (1), .sum (1), .920751759z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .clefsign (1), .html (1), .blocks (1), .prv (1), .ac (1), .in (1), .am (1), .bin (1)</t>
+  </si>
+  <si>
+    <t>.go (972),  (164), .json (99), .h (54), .js (35), .md (33), .c (14), .png (10), .yml (7), .sh (6), .s (6), .proto (4), .txt (4), .nsh (4), .py (4), .java (4), .pdf (4), .sol (3), .m4 (3), .sage (3), .include (2), .rlp (2), .lesser (1), .alltools (1), .yaml (1), .mod (1), .sum (1), .920751759z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .clefsign (1), .html (1), .blocks (1), .prv (1), .ac (1), .in (1), .am (1), .bin (1)</t>
+  </si>
+  <si>
+    <t>.go (988),  (164), .json (99), .h (54), .js (35), .md (33), .c (14), .png (10), .yml (7), .sh (6), .s (6), .proto (4), .txt (4), .nsh (4), .py (4), .java (4), .pdf (4), .sol (3), .m4 (3), .sage (3), .include (2), .rlp (2), .lesser (1), .alltools (1), .yaml (1), .mod (1), .sum (1), .920751759z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .clefsign (1), .html (1), .blocks (1), .prv (1), .ac (1), .in (1), .am (1), .bin (1)</t>
+  </si>
+  <si>
+    <t>.go (998),  (164), .json (100), .h (54), .js (35), .md (34), .c (14), .png (10), .txt (8), .yml (7), .sh (6), .s (6), .proto (4), .nsh (4), .py (4), .java (4), .pdf (4), .sol (3), .m4 (3), .sage (3), .include (2), .rlp (2), .lesser (1), .alltools (1), .yaml (1), .mod (1), .sum (1), .920751759z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .clefsign (1), .gz (1), .html (1), .blocks (1), .prv (1), .ac (1), .in (1), .am (1), .bin (1)</t>
+  </si>
+  <si>
+    <t>.go (1004),  (164), .json (100), .h (54), .js (35), .md (34), .c (14), .png (10), .txt (8), .yml (7), .sh (7), .s (6), .proto (4), .nsh (4), .py (4), .java (4), .pdf (4), .sol (3), .m4 (3), .sage (3), .gz (2), .include (2), .rlp (2), .lesser (1), .alltools (1), .mod (1), .sum (1), .920751759z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .pom (1), .settings (1), .nsi (1), .dll (1), .zip (1), .podspec (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .clefsign (1), .html (1), .blocks (1), .prv (1), .ac (1), .in (1), .am (1), .bin (1)</t>
+  </si>
+  <si>
+    <t>.go (1020),  (164), .json (103), .h (54), .md (36), .js (35), .c (14), .zip (10), .png (10), .txt (8), .yml (7), .sh (7), .s (6), .proto (4), .nsh (4), .py (4), .rlp (4), .java (4), .pdf (4), .sol (3), .m4 (3), .sage (3), .pub (2), .sec (2), .1 (2), .2 (2), .3 (2), .include (2), .lesser (1), .alltools (1), .mod (1), .sum (1), .920751759z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .pom (1), .settings (1), .nsi (1), .dll (1), .podspec (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .clefsign (1), .html (1), .blocks (1), .prv (1), .sig (1), .ac (1), .in (1), .am (1), .bin (1)</t>
+  </si>
+  <si>
+    <t>.go (1055),  (170), .json (106), .h (54), .md (38), .js (35), .c (14), .zip (10), .png (10), .txt (8), .yml (7), .sh (7), .s (7), .proto (4), .nsh (4), .py (4), .rlp (4), .java (4), .pdf (4), .sol (3), .m4 (3), .sage (3), .pub (2), .sec (2), .1 (2), .2 (2), .3 (2), .include (2), .lesser (1), .alltools (1), .mod (1), .sum (1), .920751759z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .pom (1), .settings (1), .nsi (1), .dll (1), .podspec (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .clefsign (1), .html (1), .blocks (1), .prv (1), .sig (1), .ac (1), .in (1), .am (1), .dat (1), .bin (1)</t>
+  </si>
+  <si>
+    <t>.go (1061),  (170), .json (106), .h (54), .md (38), .js (35), .c (14), .zip (10), .png (10), .txt (8), .yml (7), .sh (7), .s (7), .proto (4), .nsh (4), .py (4), .rlp (4), .java (4), .pdf (4), .sol (3), .m4 (3), .sage (3), .pub (2), .sec (2), .1 (2), .2 (2), .3 (2), .include (2), .lesser (1), .alltools (1), .mod (1), .sum (1), .920751759z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .pom (1), .settings (1), .nsi (1), .dll (1), .podspec (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .clefsign (1), .html (1), .blocks (1), .prv (1), .sig (1), .ac (1), .in (1), .am (1), .dat (1), .bin (1)</t>
+  </si>
+  <si>
+    <t>.go (1075),  (170), .json (106), .h (54), .md (38), .js (35), .c (14), .zip (10), .png (10), .txt (8), .yml (7), .sh (7), .s (7), .proto (4), .nsh (4), .py (4), .rlp (4), .java (4), .pdf (4), .sol (3), .m4 (3), .sage (3), .pub (2), .sec (2), .1 (2), .2 (2), .3 (2), .include (2), .lesser (1), .alltools (1), .mod (1), .sum (1), .920751759z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .pom (1), .settings (1), .nsi (1), .dll (1), .podspec (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .clefsign (1), .html (1), .blocks (1), .prv (1), .sig (1), .ac (1), .in (1), .am (1), .dat (1), .bin (1)</t>
+  </si>
+  <si>
+    <t>.go (1088),  (170), .json (119), .h (54), .md (41), .js (35), .c (14), .zip (10), .png (10), .txt (8), .yml (7), .sh (7), .s (7), .proto (4), .nsh (4), .py (4), .rlp (4), .java (4), .pdf (4), .sol (3), .m4 (3), .sage (3), .pub (2), .sec (2), .1 (2), .2 (2), .3 (2), .include (2), .lesser (1), .alltools (1), .mod (1), .sum (1), .920751759z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .pom (1), .settings (1), .nsi (1), .dll (1), .podspec (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .clefsign (1), .html (1), .blocks (1), .prv (1), .sig (1), .ac (1), .in (1), .am (1), .dat (1), .bin (1)</t>
+  </si>
+  <si>
+    <t>.go (1092),  (170), .json (119), .h (54), .md (41), .js (35), .c (14), .zip (10), .png (10), .txt (8), .yml (7), .sh (7), .s (7), .proto (4), .nsh (4), .py (4), .rlp (4), .java (4), .pdf (4), .sol (3), .m4 (3), .sage (3), .pub (2), .sec (2), .1 (2), .2 (2), .3 (2), .include (2), .lesser (1), .alltools (1), .mod (1), .sum (1), .920751759z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .pom (1), .settings (1), .nsi (1), .dll (1), .podspec (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .clefsign (1), .html (1), .blocks (1), .prv (1), .sig (1), .ac (1), .in (1), .am (1), .dat (1), .bin (1)</t>
+  </si>
+  <si>
+    <t>.go (1092),  (170), .json (122), .h (54), .md (42), .js (35), .c (14), .zip (10), .png (10), .txt (8), .yml (7), .sh (7), .s (7), .proto (4), .nsh (4), .py (4), .rlp (4), .java (4), .pdf (4), .sol (3), .m4 (3), .sage (3), .pub (2), .sec (2), .1 (2), .2 (2), .3 (2), .include (2), .lesser (1), .alltools (1), .mod (1), .sum (1), .920751759z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .pom (1), .settings (1), .nsi (1), .dll (1), .podspec (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .clefsign (1), .html (1), .blocks (1), .prv (1), .sig (1), .ac (1), .in (1), .am (1), .dat (1), .bin (1)</t>
+  </si>
+  <si>
+    <t>.go (1093),  (170), .json (125), .h (54), .md (43), .js (35), .c (14), .zip (10), .png (10), .txt (8), .yml (7), .sh (7), .s (7), .proto (4), .nsh (4), .py (4), .rlp (4), .java (4), .pdf (4), .sol (3), .m4 (3), .sage (3), .pub (2), .sec (2), .1 (2), .2 (2), .3 (2), .include (2), .lesser (1), .alltools (1), .mod (1), .sum (1), .920751759z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .pom (1), .settings (1), .nsi (1), .dll (1), .podspec (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .clefsign (1), .html (1), .blocks (1), .prv (1), .sig (1), .ac (1), .in (1), .am (1), .dat (1), .bin (1)</t>
+  </si>
+  <si>
+    <t>.go (1091),  (170), .json (125), .h (54), .md (43), .js (35), .c (14), .zip (10), .png (10), .txt (8), .yml (7), .sh (7), .s (7), .proto (4), .nsh (4), .py (4), .rlp (4), .java (4), .pdf (4), .sol (3), .m4 (3), .sage (3), .pub (2), .sec (2), .1 (2), .2 (2), .3 (2), .include (2), .lesser (1), .alltools (1), .mod (1), .sum (1), .920751759z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .pom (1), .settings (1), .nsi (1), .dll (1), .podspec (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .clefsign (1), .html (1), .blocks (1), .prv (1), .sig (1), .ac (1), .in (1), .am (1), .dat (1), .bin (1)</t>
+  </si>
+  <si>
+    <t>.go (1113),  (170), .json (153), .h (54), .md (45), .js (37), .c (14), .zip (10), .png (10), .txt (8), .yml (7), .sh (7), .rlp (7), .s (7), .proto (4), .nsh (4), .py (4), .java (4), .pdf (4), .sol (3), .m4 (3), .sage (3), .pub (2), .sec (2), .1 (2), .2 (2), .3 (2), .bin (2), .include (2), .lesser (1), .alltools (1), .mod (1), .sum (1), .920751759z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .pom (1), .settings (1), .nsi (1), .dll (1), .podspec (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .clefsign (1), .html (1), .blocks (1), .prv (1), .sig (1), .ac (1), .in (1), .am (1), .dat (1)</t>
+  </si>
+  <si>
+    <t>.go (1113),  (170), .json (155), .h (54), .md (45), .js (36), .c (14), .zip (10), .png (10), .txt (8), .rlp (8), .yml (7), .sh (7), .s (7), .proto (4), .nsh (4), .py (4), .java (4), .pdf (4), .sol (3), .m4 (3), .sage (3), .pub (2), .sec (2), .1 (2), .2 (2), .3 (2), .bin (2), .include (2), .lesser (1), .alltools (1), .mod (1), .sum (1), .920751759z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .pom (1), .settings (1), .nsi (1), .dll (1), .podspec (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .clefsign (1), .html (1), .blocks (1), .prv (1), .sig (1), .ac (1), .in (1), .am (1), .dat (1)</t>
+  </si>
+  <si>
+    <t>.go (1115),  (170), .json (156), .h (54), .md (45), .js (36), .c (14), .zip (10), .png (10), .txt (9), .rlp (9), .yml (7), .sh (7), .s (7), .proto (4), .nsh (4), .py (4), .java (4), .pdf (4), .sol (3), .m4 (3), .sage (3), .pub (2), .sec (2), .1 (2), .2 (2), .3 (2), .bin (2), .include (2), .lesser (1), .alltools (1), .mod (1), .sum (1), .920751759z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .pom (1), .settings (1), .nsi (1), .dll (1), .podspec (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .clefsign (1), .html (1), .blocks (1), .prv (1), .sig (1), .ac (1), .in (1), .am (1), .dat (1)</t>
+  </si>
+  <si>
+    <t>.go (1121),  (170), .json (162), .h (54), .md (47), .js (36), .c (14), .zip (10), .png (10), .rlp (10), .txt (9), .yml (7), .sh (7), .s (7), .proto (4), .nsh (4), .py (4), .java (4), .pdf (4), .sol (3), .m4 (3), .sage (3), .pub (2), .sec (2), .1 (2), .2 (2), .3 (2), .bin (2), .include (2), .lesser (1), .alltools (1), .mod (1), .sum (1), .920751759z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .pom (1), .settings (1), .nsi (1), .dll (1), .podspec (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .clefsign (1), .html (1), .blocks (1), .prv (1), .sig (1), .ac (1), .in (1), .am (1), .dat (1)</t>
+  </si>
+  <si>
+    <t>.go (1127), .json (178),  (170), .h (54), .md (51), .js (35), .c (14), .rlp (13), .zip (10), .png (10), .txt (9), .yml (7), .sh (7), .s (7), .proto (4), .nsh (4), .py (4), .java (4), .pdf (4), .sol (3), .m4 (3), .sage (3), .pub (2), .sec (2), .1 (2), .2 (2), .3 (2), .bin (2), .include (2), .lesser (1), .alltools (1), .mod (1), .sum (1), .920751759z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .pom (1), .settings (1), .nsi (1), .dll (1), .podspec (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .clefsign (1), .html (1), .blocks (1), .prv (1), .sig (1), .ac (1), .in (1), .am (1), .dat (1)</t>
+  </si>
+  <si>
+    <t>.go (1141), .json (178),  (170), .h (54), .md (51), .js (35), .c (14), .rlp (13), .zip (10), .png (10), .txt (9), .yml (7), .sh (7), .s (7), .proto (4), .nsh (4), .py (4), .java (4), .pdf (4), .sol (3), .m4 (3), .sage (3), .pub (2), .sec (2), .1 (2), .2 (2), .3 (2), .bin (2), .include (2), .lesser (1), .alltools (1), .mod (1), .sum (1), .920751759z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .pom (1), .settings (1), .nsi (1), .dll (1), .podspec (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .clefsign (1), .html (1), .blocks (1), .prv (1), .sig (1), .ac (1), .in (1), .am (1), .dat (1)</t>
+  </si>
+  <si>
+    <t>.go (1147), .json (178),  (170), .h (54), .md (51), .js (34), .c (14), .rlp (13), .zip (10), .png (10), .txt (9), .yml (7), .sh (7), .s (7), .proto (4), .nsh (4), .py (4), .java (4), .pdf (4), .sol (3), .m4 (3), .sage (3), .pub (2), .sec (2), .1 (2), .2 (2), .3 (2), .bin (2), .include (2), .lesser (1), .alltools (1), .mod (1), .sum (1), .920751759z--7ef5a6135f1fd6a02593eedc869c6d41d934aef8 (1), .pom (1), .settings (1), .nsi (1), .dll (1), .podspec (1), .changelog (1), .control (1), .copyright (1), .docs (1), .install (1), .rules (1), .clefsign (1), .html (1), .blocks (1), .prv (1), .sig (1), .ac (1), .in (1), .am (1), .dat (1)</t>
+  </si>
+  <si>
     <t>Comparison across code files
-(.sol, .go, .c, .js, .java, .h, .cpp, .sh, .s, .py)</t>
-  </si>
-  <si>
-    <t>Num code files (sol, go, c, js, java, h, cpp, sh, s, py)</t>
+(cpp, py, c, h, sh, sol, go, c, js, java)</t>
   </si>
 </sst>
 </file>
@@ -1561,8 +1561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="96" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M111" sqref="M111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1590,7 +1590,7 @@
   <sheetData>
     <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>108</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1599,7 +1599,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>210</v>
+        <v>126</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -1655,7 +1655,7 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>109</v>
+        <v>26</v>
       </c>
       <c r="B2" s="7">
         <v>2134</v>
@@ -1664,10 +1664,10 @@
         <v>346155045</v>
       </c>
       <c r="D2" s="7">
-        <v>522</v>
+        <v>1979</v>
       </c>
       <c r="E2" s="4">
-        <v>3497782</v>
+        <v>345812929</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>3</v>
@@ -1715,12 +1715,12 @@
         <v>3</v>
       </c>
       <c r="U2" t="s">
-        <v>25</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="B3" s="7">
         <v>2134</v>
@@ -1729,10 +1729,10 @@
         <v>346154196</v>
       </c>
       <c r="D3" s="7">
-        <v>522</v>
+        <v>1979</v>
       </c>
       <c r="E3" s="4">
-        <v>3497782</v>
+        <v>345812072</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>3</v>
@@ -1747,45 +1747,45 @@
         <v>26</v>
       </c>
       <c r="J3" s="3">
-        <v>1.21836925960637E-2</v>
+        <v>1.2183693000000001E-2</v>
       </c>
       <c r="K3" s="4">
         <v>314398</v>
       </c>
       <c r="L3" s="3">
-        <v>9.0825997094081095E-4</v>
+        <v>9.0826000000000004E-4</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N3" s="6">
-        <v>0</v>
+        <v>578</v>
       </c>
       <c r="O3" s="6">
-        <v>0</v>
+        <v>473</v>
       </c>
       <c r="P3" s="7">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Q3" s="3">
-        <v>0</v>
+        <v>1.1116726E-2</v>
       </c>
       <c r="R3" s="4">
-        <v>0</v>
+        <v>295326</v>
       </c>
       <c r="S3" s="3">
-        <v>0</v>
+        <v>8.5400700000000005E-4</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U3" t="s">
-        <v>25</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>111</v>
+        <v>28</v>
       </c>
       <c r="B4" s="7">
         <v>2135</v>
@@ -1794,10 +1794,10 @@
         <v>346161611</v>
       </c>
       <c r="D4" s="7">
-        <v>522</v>
+        <v>1980</v>
       </c>
       <c r="E4" s="4">
-        <v>3497786</v>
+        <v>345818550</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>3</v>
@@ -1812,45 +1812,45 @@
         <v>30</v>
       </c>
       <c r="J4" s="3">
-        <v>1.4051522248243501E-2</v>
+        <v>1.4051522E-2</v>
       </c>
       <c r="K4" s="4">
         <v>220002</v>
       </c>
       <c r="L4" s="3">
-        <v>6.3554707688253699E-4</v>
+        <v>6.3554699999999998E-4</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N4" s="6">
-        <v>2</v>
+        <v>424</v>
       </c>
       <c r="O4" s="6">
-        <v>2</v>
+        <v>207</v>
       </c>
       <c r="P4" s="7">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="Q4" s="3">
-        <v>3.83141762452107E-3</v>
+        <v>1.2121211999999999E-2</v>
       </c>
       <c r="R4" s="4">
-        <v>815</v>
+        <v>193506</v>
       </c>
       <c r="S4" s="3">
-        <v>2.3300453486862799E-4</v>
+        <v>5.5955899999999995E-4</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U4" t="s">
-        <v>26</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>112</v>
+        <v>29</v>
       </c>
       <c r="B5" s="7">
         <v>2119</v>
@@ -1859,10 +1859,10 @@
         <v>327539628</v>
       </c>
       <c r="D5" s="7">
-        <v>519</v>
+        <v>1983</v>
       </c>
       <c r="E5" s="4">
-        <v>3469576</v>
+        <v>327199193</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>3</v>
@@ -1877,45 +1877,45 @@
         <v>783</v>
       </c>
       <c r="J5" s="3">
-        <v>0.36951392166115998</v>
+        <v>0.36951392199999999</v>
       </c>
       <c r="K5" s="4">
         <v>221728559</v>
       </c>
       <c r="L5" s="3">
-        <v>0.67695185573087302</v>
+        <v>0.67695185599999996</v>
       </c>
       <c r="M5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N5" s="6">
-        <v>0</v>
+        <v>189170</v>
       </c>
       <c r="O5" s="6">
-        <v>0</v>
+        <v>64613</v>
       </c>
       <c r="P5" s="7">
-        <v>0</v>
+        <v>756</v>
       </c>
       <c r="Q5" s="3">
-        <v>0</v>
+        <v>0.38124054499999999</v>
       </c>
       <c r="R5" s="4">
-        <v>0</v>
+        <v>221694602</v>
       </c>
       <c r="S5" s="3">
-        <v>0</v>
+        <v>0.67755241099999997</v>
       </c>
       <c r="T5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U5" t="s">
-        <v>27</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>113</v>
+        <v>30</v>
       </c>
       <c r="B6" s="7">
         <v>2121</v>
@@ -1924,10 +1924,10 @@
         <v>327561568</v>
       </c>
       <c r="D6" s="7">
-        <v>519</v>
+        <v>1985</v>
       </c>
       <c r="E6" s="4">
-        <v>3469576</v>
+        <v>327221133</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>3</v>
@@ -1942,45 +1942,45 @@
         <v>15</v>
       </c>
       <c r="J6" s="3">
-        <v>7.07213578500707E-3</v>
+        <v>7.0721359999999997E-3</v>
       </c>
       <c r="K6" s="4">
         <v>228906</v>
       </c>
       <c r="L6" s="3">
-        <v>6.9881824475818803E-4</v>
+        <v>6.9881800000000003E-4</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N6" s="6">
-        <v>0</v>
+        <v>1157</v>
       </c>
       <c r="O6" s="6">
-        <v>0</v>
+        <v>562</v>
       </c>
       <c r="P6" s="7">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Q6" s="3">
-        <v>0</v>
+        <v>7.0528969999999998E-3</v>
       </c>
       <c r="R6" s="4">
-        <v>0</v>
+        <v>228899</v>
       </c>
       <c r="S6" s="3">
-        <v>0</v>
+        <v>6.9952399999999998E-4</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U6" t="s">
-        <v>28</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>114</v>
+        <v>31</v>
       </c>
       <c r="B7" s="7">
         <v>2145</v>
@@ -1989,10 +1989,10 @@
         <v>332191370</v>
       </c>
       <c r="D7" s="7">
-        <v>519</v>
+        <v>2009</v>
       </c>
       <c r="E7" s="4">
-        <v>3469576</v>
+        <v>331850933</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>3</v>
@@ -2007,45 +2007,45 @@
         <v>64</v>
       </c>
       <c r="J7" s="3">
-        <v>2.9836829836829799E-2</v>
+        <v>2.9836830000000002E-2</v>
       </c>
       <c r="K7" s="4">
         <v>5117847</v>
       </c>
       <c r="L7" s="3">
-        <v>1.54063213622918E-2</v>
+        <v>1.5406321000000001E-2</v>
       </c>
       <c r="M7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N7" s="6">
-        <v>0</v>
+        <v>77641</v>
       </c>
       <c r="O7" s="6">
-        <v>0</v>
+        <v>229</v>
       </c>
       <c r="P7" s="7">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="Q7" s="3">
-        <v>0</v>
+        <v>3.0861125E-2</v>
       </c>
       <c r="R7" s="4">
-        <v>0</v>
+        <v>5099425</v>
       </c>
       <c r="S7" s="3">
-        <v>0</v>
+        <v>1.5366612999999999E-2</v>
       </c>
       <c r="T7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U7" t="s">
-        <v>29</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>115</v>
+        <v>32</v>
       </c>
       <c r="B8" s="7">
         <v>2220</v>
@@ -2054,63 +2054,63 @@
         <v>338853747</v>
       </c>
       <c r="D8" s="7">
-        <v>522</v>
+        <v>2057</v>
       </c>
       <c r="E8" s="4">
-        <v>3497786</v>
+        <v>338494439</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G8" s="6">
-        <v>141177</v>
+        <v>149252</v>
       </c>
       <c r="H8" s="6">
-        <v>58289</v>
+        <v>66364</v>
       </c>
       <c r="I8" s="7">
         <v>178</v>
       </c>
       <c r="J8" s="3">
-        <v>8.0180180180180097E-2</v>
+        <v>8.0180180000000004E-2</v>
       </c>
       <c r="K8" s="4">
         <v>25900176</v>
       </c>
       <c r="L8" s="3">
-        <v>7.6434674927764595E-2</v>
+        <v>7.6434674999999994E-2</v>
       </c>
       <c r="M8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N8" s="6">
-        <v>791</v>
+        <v>148700</v>
       </c>
       <c r="O8" s="6">
-        <v>0</v>
+        <v>66300</v>
       </c>
       <c r="P8" s="7">
-        <v>3</v>
+        <v>148</v>
       </c>
       <c r="Q8" s="3">
-        <v>5.7471264367815996E-3</v>
+        <v>7.1949441000000003E-2</v>
       </c>
       <c r="R8" s="4">
-        <v>28210</v>
+        <v>25862883</v>
       </c>
       <c r="S8" s="3">
-        <v>8.0651017529374293E-3</v>
+        <v>7.6405635999999999E-2</v>
       </c>
       <c r="T8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U8" t="s">
-        <v>30</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>116</v>
+        <v>33</v>
       </c>
       <c r="B9" s="7">
         <v>2483</v>
@@ -2119,63 +2119,63 @@
         <v>337370219</v>
       </c>
       <c r="D9" s="7">
-        <v>524</v>
+        <v>2281</v>
       </c>
       <c r="E9" s="4">
-        <v>2929322</v>
+        <v>336817625</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G9" s="6">
-        <v>104754</v>
+        <v>104788</v>
       </c>
       <c r="H9" s="6">
-        <v>92650</v>
+        <v>92684</v>
       </c>
       <c r="I9" s="7">
         <v>1364</v>
       </c>
       <c r="J9" s="3">
-        <v>0.54933548127265397</v>
+        <v>0.54933548099999996</v>
       </c>
       <c r="K9" s="4">
         <v>15796690</v>
       </c>
       <c r="L9" s="3">
-        <v>4.6823012555236798E-2</v>
+        <v>4.6823012999999997E-2</v>
       </c>
       <c r="M9" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N9" s="6">
-        <v>175</v>
+        <v>98128</v>
       </c>
       <c r="O9" s="6">
-        <v>4</v>
+        <v>8938</v>
       </c>
       <c r="P9" s="7">
-        <v>37</v>
+        <v>1012</v>
       </c>
       <c r="Q9" s="3">
-        <v>7.0610687022900701E-2</v>
+        <v>0.44366505899999997</v>
       </c>
       <c r="R9" s="4">
-        <v>140615</v>
+        <v>15111754</v>
       </c>
       <c r="S9" s="3">
-        <v>4.8002575339959198E-2</v>
+        <v>4.4866280000000001E-2</v>
       </c>
       <c r="T9" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U9" t="s">
-        <v>31</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>117</v>
+        <v>34</v>
       </c>
       <c r="B10" s="7">
         <v>2484</v>
@@ -2184,10 +2184,10 @@
         <v>337367173</v>
       </c>
       <c r="D10" s="7">
-        <v>524</v>
+        <v>2281</v>
       </c>
       <c r="E10" s="4">
-        <v>2929366</v>
+        <v>336816755</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>3</v>
@@ -2202,45 +2202,45 @@
         <v>13</v>
       </c>
       <c r="J10" s="3">
-        <v>5.2334943639291403E-3</v>
+        <v>5.233494E-3</v>
       </c>
       <c r="K10" s="4">
         <v>81440</v>
       </c>
       <c r="L10" s="3">
-        <v>2.4139870893722E-4</v>
+        <v>2.41399E-4</v>
       </c>
       <c r="M10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N10" s="6">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="O10" s="6">
-        <v>1</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Q10" s="3">
-        <v>1.90839694656488E-3</v>
+        <v>3.0688289999999999E-3</v>
       </c>
       <c r="R10" s="4">
-        <v>690</v>
+        <v>59975</v>
       </c>
       <c r="S10" s="3">
-        <v>2.35545848487351E-4</v>
+        <v>1.7806399999999999E-4</v>
       </c>
       <c r="T10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U10" t="s">
-        <v>32</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>118</v>
+        <v>35</v>
       </c>
       <c r="B11" s="7">
         <v>2484</v>
@@ -2249,10 +2249,10 @@
         <v>337367623</v>
       </c>
       <c r="D11" s="7">
-        <v>524</v>
+        <v>2281</v>
       </c>
       <c r="E11" s="4">
-        <v>2929366</v>
+        <v>336816749</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>3</v>
@@ -2267,45 +2267,45 @@
         <v>7</v>
       </c>
       <c r="J11" s="3">
-        <v>2.8180354267310702E-3</v>
+        <v>2.818035E-3</v>
       </c>
       <c r="K11" s="4">
         <v>64635</v>
       </c>
       <c r="L11" s="3">
-        <v>1.91586256633761E-4</v>
+        <v>1.9158599999999999E-4</v>
       </c>
       <c r="M11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N11" s="6">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O11" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P11" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q11" s="3">
-        <v>0</v>
+        <v>1.315213E-3</v>
       </c>
       <c r="R11" s="4">
-        <v>0</v>
+        <v>43447</v>
       </c>
       <c r="S11" s="3">
-        <v>0</v>
+        <v>1.2899299999999999E-4</v>
       </c>
       <c r="T11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U11" t="s">
-        <v>32</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>119</v>
+        <v>36</v>
       </c>
       <c r="B12" s="7">
         <v>2484</v>
@@ -2314,10 +2314,10 @@
         <v>337416024</v>
       </c>
       <c r="D12" s="7">
-        <v>524</v>
+        <v>2281</v>
       </c>
       <c r="E12" s="4">
-        <v>2929366</v>
+        <v>336865257</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>3</v>
@@ -2332,45 +2332,45 @@
         <v>66</v>
       </c>
       <c r="J12" s="3">
-        <v>2.6570048309178699E-2</v>
+        <v>2.6570047999999999E-2</v>
       </c>
       <c r="K12" s="4">
         <v>4770061</v>
       </c>
       <c r="L12" s="3">
-        <v>1.41370316188658E-2</v>
+        <v>1.4137032000000001E-2</v>
       </c>
       <c r="M12" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N12" s="6">
-        <v>0</v>
+        <v>2088</v>
       </c>
       <c r="O12" s="6">
-        <v>0</v>
+        <v>1231</v>
       </c>
       <c r="P12" s="7">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="Q12" s="3">
-        <v>0</v>
+        <v>2.7181060999999999E-2</v>
       </c>
       <c r="R12" s="4">
-        <v>0</v>
+        <v>4751419</v>
       </c>
       <c r="S12" s="3">
-        <v>0</v>
+        <v>1.4104805999999999E-2</v>
       </c>
       <c r="T12" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U12" t="s">
-        <v>32</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>120</v>
+        <v>37</v>
       </c>
       <c r="B13" s="7">
         <v>2483</v>
@@ -2379,10 +2379,10 @@
         <v>337410933</v>
       </c>
       <c r="D13" s="7">
-        <v>524</v>
+        <v>2280</v>
       </c>
       <c r="E13" s="4">
-        <v>2929366</v>
+        <v>336860300</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>3</v>
@@ -2397,45 +2397,45 @@
         <v>78</v>
       </c>
       <c r="J13" s="3">
-        <v>3.1413612565444997E-2</v>
+        <v>3.1413613E-2</v>
       </c>
       <c r="K13" s="4">
         <v>809131</v>
       </c>
       <c r="L13" s="3">
-        <v>2.3980580380304302E-3</v>
+        <v>2.3980579999999998E-3</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N13" s="6">
-        <v>0</v>
+        <v>2820</v>
       </c>
       <c r="O13" s="6">
-        <v>0</v>
+        <v>685</v>
       </c>
       <c r="P13" s="7">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="Q13" s="3">
-        <v>0</v>
+        <v>2.8947368000000001E-2</v>
       </c>
       <c r="R13" s="4">
-        <v>0</v>
+        <v>803773</v>
       </c>
       <c r="S13" s="3">
-        <v>0</v>
+        <v>2.3860719999999999E-3</v>
       </c>
       <c r="T13" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U13" t="s">
-        <v>33</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>121</v>
+        <v>38</v>
       </c>
       <c r="B14" s="7">
         <v>2487</v>
@@ -2444,10 +2444,10 @@
         <v>337478159</v>
       </c>
       <c r="D14" s="7">
-        <v>523</v>
+        <v>2283</v>
       </c>
       <c r="E14" s="4">
-        <v>2928445</v>
+        <v>336923350</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>3</v>
@@ -2462,45 +2462,45 @@
         <v>138</v>
       </c>
       <c r="J14" s="3">
-        <v>5.5488540410132597E-2</v>
+        <v>5.5488540000000003E-2</v>
       </c>
       <c r="K14" s="4">
         <v>1294048</v>
       </c>
       <c r="L14" s="3">
-        <v>3.8344644401121001E-3</v>
+        <v>3.8344640000000001E-3</v>
       </c>
       <c r="M14" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N14" s="6">
-        <v>0</v>
+        <v>5254</v>
       </c>
       <c r="O14" s="6">
-        <v>0</v>
+        <v>2929</v>
       </c>
       <c r="P14" s="7">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="Q14" s="3">
-        <v>0</v>
+        <v>5.3876477999999998E-2</v>
       </c>
       <c r="R14" s="4">
-        <v>0</v>
+        <v>1258656</v>
       </c>
       <c r="S14" s="3">
-        <v>0</v>
+        <v>3.7357340000000001E-3</v>
       </c>
       <c r="T14" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U14" t="s">
-        <v>34</v>
+        <v>136</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>122</v>
+        <v>39</v>
       </c>
       <c r="B15" s="7">
         <v>2473</v>
@@ -2509,10 +2509,10 @@
         <v>337432491</v>
       </c>
       <c r="D15" s="7">
-        <v>523</v>
+        <v>2269</v>
       </c>
       <c r="E15" s="4">
-        <v>2928447</v>
+        <v>336877680</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>3</v>
@@ -2527,45 +2527,45 @@
         <v>262</v>
       </c>
       <c r="J15" s="3">
-        <v>0.10594419733117599</v>
+        <v>0.105944197</v>
       </c>
       <c r="K15" s="4">
         <v>3944022</v>
       </c>
       <c r="L15" s="3">
-        <v>1.16883290886176E-2</v>
+        <v>1.1688329000000001E-2</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N15" s="6">
-        <v>2</v>
+        <v>3883</v>
       </c>
       <c r="O15" s="6">
-        <v>2</v>
+        <v>3043</v>
       </c>
       <c r="P15" s="7">
-        <v>1</v>
+        <v>241</v>
       </c>
       <c r="Q15" s="3">
-        <v>1.9120458891013299E-3</v>
+        <v>0.106214191</v>
       </c>
       <c r="R15" s="4">
-        <v>8299</v>
+        <v>3940640</v>
       </c>
       <c r="S15" s="3">
-        <v>2.83392528531334E-3</v>
+        <v>1.1697539999999999E-2</v>
       </c>
       <c r="T15" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U15" t="s">
-        <v>35</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>123</v>
+        <v>40</v>
       </c>
       <c r="B16" s="7">
         <v>2510</v>
@@ -2574,10 +2574,10 @@
         <v>338462932</v>
       </c>
       <c r="D16" s="7">
-        <v>535</v>
+        <v>2297</v>
       </c>
       <c r="E16" s="4">
-        <v>3145461</v>
+        <v>337819262</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>3</v>
@@ -2592,45 +2592,45 @@
         <v>271</v>
       </c>
       <c r="J16" s="3">
-        <v>0.10796812749003901</v>
+        <v>0.107968127</v>
       </c>
       <c r="K16" s="4">
         <v>4869237</v>
       </c>
       <c r="L16" s="3">
-        <v>1.4386322813039899E-2</v>
+        <v>1.4386322999999999E-2</v>
       </c>
       <c r="M16" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N16" s="6">
-        <v>5090</v>
+        <v>20007</v>
       </c>
       <c r="O16" s="6">
-        <v>655</v>
+        <v>2396</v>
       </c>
       <c r="P16" s="7">
-        <v>51</v>
+        <v>223</v>
       </c>
       <c r="Q16" s="3">
-        <v>9.5327102803738295E-2</v>
+        <v>9.7083152000000006E-2</v>
       </c>
       <c r="R16" s="4">
-        <v>622207</v>
+        <v>4678723</v>
       </c>
       <c r="S16" s="3">
-        <v>0.19781106807555299</v>
+        <v>1.3849782E-2</v>
       </c>
       <c r="T16" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U16" t="s">
-        <v>36</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>124</v>
+        <v>41</v>
       </c>
       <c r="B17" s="7">
         <v>2515</v>
@@ -2639,10 +2639,10 @@
         <v>338499846</v>
       </c>
       <c r="D17" s="7">
-        <v>535</v>
+        <v>2302</v>
       </c>
       <c r="E17" s="4">
-        <v>3145461</v>
+        <v>337856042</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>3</v>
@@ -2657,45 +2657,45 @@
         <v>77</v>
       </c>
       <c r="J17" s="3">
-        <v>3.0616302186878702E-2</v>
+        <v>3.0616302000000001E-2</v>
       </c>
       <c r="K17" s="4">
         <v>911042</v>
       </c>
       <c r="L17" s="3">
-        <v>2.6914103825027998E-3</v>
+        <v>2.69141E-3</v>
       </c>
       <c r="M17" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N17" s="6">
-        <v>0</v>
+        <v>1576</v>
       </c>
       <c r="O17" s="6">
-        <v>0</v>
+        <v>417</v>
       </c>
       <c r="P17" s="7">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="Q17" s="3">
-        <v>0</v>
+        <v>3.0842745000000001E-2</v>
       </c>
       <c r="R17" s="4">
-        <v>0</v>
+        <v>905111</v>
       </c>
       <c r="S17" s="3">
-        <v>0</v>
+        <v>2.6789840000000001E-3</v>
       </c>
       <c r="T17" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U17" t="s">
-        <v>37</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>125</v>
+        <v>42</v>
       </c>
       <c r="B18" s="7">
         <v>2599</v>
@@ -2704,10 +2704,10 @@
         <v>339706076</v>
       </c>
       <c r="D18" s="7">
-        <v>597</v>
+        <v>2385</v>
       </c>
       <c r="E18" s="4">
-        <v>4201568</v>
+        <v>339061472</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>3</v>
@@ -2722,45 +2722,45 @@
         <v>170</v>
       </c>
       <c r="J18" s="3">
-        <v>6.5409772989611301E-2</v>
+        <v>6.5409773000000004E-2</v>
       </c>
       <c r="K18" s="4">
         <v>2243321</v>
       </c>
       <c r="L18" s="3">
-        <v>6.6037117334339299E-3</v>
+        <v>6.6037120000000003E-3</v>
       </c>
       <c r="M18" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N18" s="6">
-        <v>30374</v>
+        <v>37574</v>
       </c>
       <c r="O18" s="6">
-        <v>0</v>
+        <v>728</v>
       </c>
       <c r="P18" s="7">
-        <v>46</v>
+        <v>141</v>
       </c>
       <c r="Q18" s="3">
-        <v>7.7051926298157394E-2</v>
+        <v>5.9119497E-2</v>
       </c>
       <c r="R18" s="4">
-        <v>977566</v>
+        <v>2187408</v>
       </c>
       <c r="S18" s="3">
-        <v>0.23266694719685599</v>
+        <v>6.4513610000000001E-3</v>
       </c>
       <c r="T18" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U18" t="s">
-        <v>38</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>126</v>
+        <v>43</v>
       </c>
       <c r="B19" s="7">
         <v>2799</v>
@@ -2769,10 +2769,10 @@
         <v>343618363</v>
       </c>
       <c r="D19" s="7">
-        <v>668</v>
+        <v>2586</v>
       </c>
       <c r="E19" s="4">
-        <v>6084123</v>
+        <v>342950511</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>3</v>
@@ -2787,45 +2787,45 @@
         <v>939</v>
       </c>
       <c r="J19" s="3">
-        <v>0.33547695605573402</v>
+        <v>0.33547695599999999</v>
       </c>
       <c r="K19" s="4">
         <v>12351472</v>
       </c>
       <c r="L19" s="3">
-        <v>3.5945319953695203E-2</v>
+        <v>3.5945320000000003E-2</v>
       </c>
       <c r="M19" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N19" s="6">
-        <v>4127</v>
+        <v>74657</v>
       </c>
       <c r="O19" s="6">
-        <v>31</v>
+        <v>12867</v>
       </c>
       <c r="P19" s="7">
-        <v>57</v>
+        <v>772</v>
       </c>
       <c r="Q19" s="3">
-        <v>8.5329341317365207E-2</v>
+        <v>0.29853054899999998</v>
       </c>
       <c r="R19" s="4">
-        <v>1114387</v>
+        <v>12067886</v>
       </c>
       <c r="S19" s="3">
-        <v>0.18316312803012</v>
+        <v>3.5188417999999999E-2</v>
       </c>
       <c r="T19" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U19" t="s">
-        <v>39</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>127</v>
+        <v>44</v>
       </c>
       <c r="B20" s="7">
         <v>2802</v>
@@ -2834,10 +2834,10 @@
         <v>343665952</v>
       </c>
       <c r="D20" s="7">
-        <v>668</v>
+        <v>2589</v>
       </c>
       <c r="E20" s="4">
-        <v>6084923</v>
+        <v>342998440</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>3</v>
@@ -2852,45 +2852,45 @@
         <v>112</v>
       </c>
       <c r="J20" s="3">
-        <v>3.99714489650249E-2</v>
+        <v>3.9971448999999999E-2</v>
       </c>
       <c r="K20" s="4">
         <v>2145353</v>
       </c>
       <c r="L20" s="3">
-        <v>6.2425532337867396E-3</v>
+        <v>6.2425529999999996E-3</v>
       </c>
       <c r="M20" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N20" s="6">
-        <v>14</v>
+        <v>2548</v>
       </c>
       <c r="O20" s="6">
-        <v>7</v>
+        <v>1211</v>
       </c>
       <c r="P20" s="7">
-        <v>1</v>
+        <v>109</v>
       </c>
       <c r="Q20" s="3">
-        <v>1.49700598802395E-3</v>
+        <v>4.2101197E-2</v>
       </c>
       <c r="R20" s="4">
-        <v>6840</v>
+        <v>2127561</v>
       </c>
       <c r="S20" s="3">
-        <v>1.1240898200355199E-3</v>
+        <v>6.2028300000000003E-3</v>
       </c>
       <c r="T20" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U20" t="s">
-        <v>40</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>128</v>
+        <v>45</v>
       </c>
       <c r="B21" s="7">
         <v>2824</v>
@@ -2899,10 +2899,10 @@
         <v>343800533</v>
       </c>
       <c r="D21" s="7">
-        <v>671</v>
+        <v>2610</v>
       </c>
       <c r="E21" s="4">
-        <v>6086011</v>
+        <v>343132560</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>3</v>
@@ -2917,45 +2917,45 @@
         <v>116</v>
       </c>
       <c r="J21" s="3">
-        <v>4.1076487252124601E-2</v>
+        <v>4.1076487000000002E-2</v>
       </c>
       <c r="K21" s="4">
         <v>1099593</v>
       </c>
       <c r="L21" s="3">
-        <v>3.19834582688096E-3</v>
+        <v>3.1983459999999999E-3</v>
       </c>
       <c r="M21" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N21" s="6">
-        <v>33</v>
+        <v>6057</v>
       </c>
       <c r="O21" s="6">
-        <v>0</v>
+        <v>1080</v>
       </c>
       <c r="P21" s="7">
-        <v>3</v>
+        <v>108</v>
       </c>
       <c r="Q21" s="3">
-        <v>4.4709388971684002E-3</v>
+        <v>4.1379310000000002E-2</v>
       </c>
       <c r="R21" s="4">
-        <v>1088</v>
+        <v>1072659</v>
       </c>
       <c r="S21" s="3">
-        <v>1.78770626605834E-4</v>
+        <v>3.126078E-3</v>
       </c>
       <c r="T21" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U21" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>129</v>
+        <v>46</v>
       </c>
       <c r="B22" s="7">
         <v>2824</v>
@@ -2964,10 +2964,10 @@
         <v>343802117</v>
       </c>
       <c r="D22" s="7">
-        <v>671</v>
+        <v>2610</v>
       </c>
       <c r="E22" s="4">
-        <v>6086011</v>
+        <v>343134144</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>3</v>
@@ -2982,45 +2982,45 @@
         <v>10</v>
       </c>
       <c r="J22" s="3">
-        <v>3.5410764872521199E-3</v>
+        <v>3.5410760000000002E-3</v>
       </c>
       <c r="K22" s="4">
         <v>122958</v>
       </c>
       <c r="L22" s="3">
-        <v>3.5764177682477699E-4</v>
+        <v>3.5764199999999998E-4</v>
       </c>
       <c r="M22" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N22" s="6">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="O22" s="6">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="P22" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q22" s="3">
-        <v>0</v>
+        <v>3.0651340000000002E-3</v>
       </c>
       <c r="R22" s="4">
-        <v>0</v>
+        <v>122531</v>
       </c>
       <c r="S22" s="3">
-        <v>0</v>
+        <v>3.5709400000000002E-4</v>
       </c>
       <c r="T22" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U22" t="s">
-        <v>41</v>
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>130</v>
+        <v>47</v>
       </c>
       <c r="B23" s="7">
         <v>2835</v>
@@ -3029,10 +3029,10 @@
         <v>343818905</v>
       </c>
       <c r="D23" s="7">
-        <v>676</v>
+        <v>2615</v>
       </c>
       <c r="E23" s="4">
-        <v>6100096</v>
+        <v>343148267</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>3</v>
@@ -3047,45 +3047,45 @@
         <v>14</v>
       </c>
       <c r="J23" s="3">
-        <v>4.9382716049382698E-3</v>
+        <v>4.9382719999999996E-3</v>
       </c>
       <c r="K23" s="4">
         <v>71533</v>
       </c>
       <c r="L23" s="3">
-        <v>2.0805429532736101E-4</v>
+        <v>2.08054E-4</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N23" s="6">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="O23" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P23" s="7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q23" s="3">
-        <v>7.3964497041420097E-3</v>
+        <v>2.6768640000000002E-3</v>
       </c>
       <c r="R23" s="4">
-        <v>14085</v>
+        <v>68862</v>
       </c>
       <c r="S23" s="3">
-        <v>2.3089800553958398E-3</v>
+        <v>2.0067699999999999E-4</v>
       </c>
       <c r="T23" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U23" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>131</v>
+        <v>48</v>
       </c>
       <c r="B24" s="7">
         <v>2835</v>
@@ -3094,10 +3094,10 @@
         <v>343818658</v>
       </c>
       <c r="D24" s="7">
-        <v>676</v>
+        <v>2615</v>
       </c>
       <c r="E24" s="4">
-        <v>6100096</v>
+        <v>343148020</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>3</v>
@@ -3112,45 +3112,45 @@
         <v>3</v>
       </c>
       <c r="J24" s="3">
-        <v>1.05820105820105E-3</v>
+        <v>1.0582009999999999E-3</v>
       </c>
       <c r="K24" s="4">
         <v>3475</v>
       </c>
       <c r="L24" s="3">
-        <v>1.0107072199671001E-5</v>
+        <v>1.01E-5</v>
       </c>
       <c r="M24" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N24" s="6">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="O24" s="6">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="P24" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q24" s="3">
-        <v>0</v>
+        <v>7.6481800000000001E-4</v>
       </c>
       <c r="R24" s="4">
-        <v>0</v>
+        <v>3469</v>
       </c>
       <c r="S24" s="3">
-        <v>0</v>
+        <v>1.01E-5</v>
       </c>
       <c r="T24" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U24" t="s">
-        <v>42</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>132</v>
+        <v>49</v>
       </c>
       <c r="B25" s="7">
         <v>2851</v>
@@ -3159,10 +3159,10 @@
         <v>343884460</v>
       </c>
       <c r="D25" s="7">
-        <v>684</v>
+        <v>2631</v>
       </c>
       <c r="E25" s="4">
-        <v>6114655</v>
+        <v>343213383</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>3</v>
@@ -3177,45 +3177,45 @@
         <v>103</v>
       </c>
       <c r="J25" s="3">
-        <v>3.6127674500175302E-2</v>
+        <v>3.6127674999999998E-2</v>
       </c>
       <c r="K25" s="4">
         <v>1133560</v>
       </c>
       <c r="L25" s="3">
-        <v>3.29633970665612E-3</v>
+        <v>3.29634E-3</v>
       </c>
       <c r="M25" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N25" s="6">
-        <v>0</v>
+        <v>3564</v>
       </c>
       <c r="O25" s="6">
-        <v>0</v>
+        <v>1901</v>
       </c>
       <c r="P25" s="7">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="Q25" s="3">
-        <v>0</v>
+        <v>3.6488026999999999E-2</v>
       </c>
       <c r="R25" s="4">
-        <v>0</v>
+        <v>1096264</v>
       </c>
       <c r="S25" s="3">
-        <v>0</v>
+        <v>3.1941180000000001E-3</v>
       </c>
       <c r="T25" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U25" t="s">
-        <v>43</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>133</v>
+        <v>50</v>
       </c>
       <c r="B26" s="7">
         <v>1989</v>
@@ -3224,10 +3224,10 @@
         <v>24966288</v>
       </c>
       <c r="D26" s="7">
-        <v>681</v>
+        <v>1796</v>
       </c>
       <c r="E26" s="4">
-        <v>6086409</v>
+        <v>24312425</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>3</v>
@@ -3242,45 +3242,45 @@
         <v>1036</v>
       </c>
       <c r="J26" s="3">
-        <v>0.52086475615887295</v>
+        <v>0.52086475600000004</v>
       </c>
       <c r="K26" s="4">
         <v>1593111</v>
       </c>
       <c r="L26" s="3">
-        <v>6.3810487165733204E-2</v>
+        <v>6.3810486999999999E-2</v>
       </c>
       <c r="M26" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N26" s="6">
-        <v>1</v>
+        <v>6848</v>
       </c>
       <c r="O26" s="6">
-        <v>1</v>
+        <v>5493</v>
       </c>
       <c r="P26" s="7">
-        <v>1</v>
+        <v>144</v>
       </c>
       <c r="Q26" s="3">
-        <v>1.46842878120411E-3</v>
+        <v>8.0178174000000005E-2</v>
       </c>
       <c r="R26" s="4">
-        <v>7586</v>
+        <v>1565249</v>
       </c>
       <c r="S26" s="3">
-        <v>1.24638354077092E-3</v>
+        <v>6.438062E-2</v>
       </c>
       <c r="T26" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U26" t="s">
-        <v>44</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>134</v>
+        <v>51</v>
       </c>
       <c r="B27" s="7">
         <v>2034</v>
@@ -3289,10 +3289,10 @@
         <v>25779016</v>
       </c>
       <c r="D27" s="7">
-        <v>704</v>
+        <v>1839</v>
       </c>
       <c r="E27" s="4">
-        <v>6424027</v>
+        <v>25084805</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>3</v>
@@ -3307,45 +3307,45 @@
         <v>311</v>
       </c>
       <c r="J27" s="3">
-        <v>0.15290068829891801</v>
+        <v>0.15290068800000001</v>
       </c>
       <c r="K27" s="4">
         <v>4048063</v>
       </c>
       <c r="L27" s="3">
-        <v>0.157029383898904</v>
+        <v>0.15702938399999999</v>
       </c>
       <c r="M27" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N27" s="6">
-        <v>1</v>
+        <v>26434</v>
       </c>
       <c r="O27" s="6">
-        <v>1</v>
+        <v>4124</v>
       </c>
       <c r="P27" s="7">
-        <v>1</v>
+        <v>285</v>
       </c>
       <c r="Q27" s="3">
-        <v>1.4204545454545401E-3</v>
+        <v>0.15497553</v>
       </c>
       <c r="R27" s="4">
-        <v>696</v>
+        <v>3903710</v>
       </c>
       <c r="S27" s="3">
-        <v>1.08343255717947E-4</v>
+        <v>0.15562050399999999</v>
       </c>
       <c r="T27" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U27" t="s">
-        <v>45</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>135</v>
+        <v>52</v>
       </c>
       <c r="B28" s="7">
         <v>2059</v>
@@ -3354,10 +3354,10 @@
         <v>26001699</v>
       </c>
       <c r="D28" s="7">
-        <v>710</v>
+        <v>1862</v>
       </c>
       <c r="E28" s="4">
-        <v>6473837</v>
+        <v>25300061</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>3</v>
@@ -3372,45 +3372,45 @@
         <v>91</v>
       </c>
       <c r="J28" s="3">
-        <v>4.4196211753278203E-2</v>
+        <v>4.4196211999999999E-2</v>
       </c>
       <c r="K28" s="4">
         <v>980315</v>
       </c>
       <c r="L28" s="3">
-        <v>3.7701959398883898E-2</v>
+        <v>3.7701959E-2</v>
       </c>
       <c r="M28" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N28" s="6">
-        <v>40</v>
+        <v>7731</v>
       </c>
       <c r="O28" s="6">
-        <v>0</v>
+        <v>627</v>
       </c>
       <c r="P28" s="7">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="Q28" s="3">
-        <v>1.40845070422535E-3</v>
+        <v>4.4038668000000003E-2</v>
       </c>
       <c r="R28" s="4">
-        <v>753</v>
+        <v>946921</v>
       </c>
       <c r="S28" s="3">
-        <v>1.16314327963462E-4</v>
+        <v>3.7427617000000003E-2</v>
       </c>
       <c r="T28" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U28" t="s">
-        <v>46</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>136</v>
+        <v>53</v>
       </c>
       <c r="B29" s="7">
         <v>2060</v>
@@ -3419,10 +3419,10 @@
         <v>25870902</v>
       </c>
       <c r="D29" s="7">
-        <v>710</v>
+        <v>1863</v>
       </c>
       <c r="E29" s="4">
-        <v>6475347</v>
+        <v>25169264</v>
       </c>
       <c r="F29" s="1" t="s">
         <v>3</v>
@@ -3437,45 +3437,45 @@
         <v>49</v>
       </c>
       <c r="J29" s="3">
-        <v>2.37864077669902E-2</v>
+        <v>2.3786407999999998E-2</v>
       </c>
       <c r="K29" s="4">
         <v>1340144</v>
       </c>
       <c r="L29" s="3">
-        <v>5.1801208941226702E-2</v>
+        <v>5.1801209000000001E-2</v>
       </c>
       <c r="M29" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N29" s="6">
-        <v>0</v>
+        <v>1851</v>
       </c>
       <c r="O29" s="6">
-        <v>0</v>
+        <v>3272</v>
       </c>
       <c r="P29" s="7">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="Q29" s="3">
-        <v>0</v>
+        <v>2.5764894999999999E-2</v>
       </c>
       <c r="R29" s="4">
-        <v>0</v>
+        <v>1340138</v>
       </c>
       <c r="S29" s="3">
-        <v>0</v>
+        <v>5.3245020999999997E-2</v>
       </c>
       <c r="T29" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U29" t="s">
-        <v>47</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>137</v>
+        <v>54</v>
       </c>
       <c r="B30" s="7">
         <v>2159</v>
@@ -3484,10 +3484,10 @@
         <v>29790540</v>
       </c>
       <c r="D30" s="7">
-        <v>731</v>
+        <v>1955</v>
       </c>
       <c r="E30" s="4">
-        <v>6660598</v>
+        <v>29074859</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>3</v>
@@ -3502,45 +3502,45 @@
         <v>436</v>
       </c>
       <c r="J30" s="3">
-        <v>0.20194534506716</v>
+        <v>0.201945345</v>
       </c>
       <c r="K30" s="4">
         <v>10046778</v>
       </c>
       <c r="L30" s="3">
-        <v>0.33724726037191599</v>
+        <v>0.33724725999999999</v>
       </c>
       <c r="M30" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N30" s="6">
-        <v>244</v>
+        <v>67358</v>
       </c>
       <c r="O30" s="6">
-        <v>153</v>
+        <v>27279</v>
       </c>
       <c r="P30" s="7">
-        <v>6</v>
+        <v>392</v>
       </c>
       <c r="Q30" s="3">
-        <v>8.2079343365253007E-3</v>
+        <v>0.200511509</v>
       </c>
       <c r="R30" s="4">
-        <v>34239</v>
+        <v>9954450</v>
       </c>
       <c r="S30" s="3">
-        <v>5.1405294239345997E-3</v>
+        <v>0.34237311300000001</v>
       </c>
       <c r="T30" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U30" t="s">
-        <v>48</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>138</v>
+        <v>55</v>
       </c>
       <c r="B31" s="7">
         <v>2335</v>
@@ -3549,10 +3549,10 @@
         <v>34927024</v>
       </c>
       <c r="D31" s="7">
-        <v>840</v>
+        <v>2123</v>
       </c>
       <c r="E31" s="4">
-        <v>10713815</v>
+        <v>34196994</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>3</v>
@@ -3567,45 +3567,45 @@
         <v>599</v>
       </c>
       <c r="J31" s="3">
-        <v>0.25653104925053499</v>
+        <v>0.25653104900000001</v>
       </c>
       <c r="K31" s="4">
         <v>14740283</v>
       </c>
       <c r="L31" s="3">
-        <v>0.42203088931939903</v>
+        <v>0.42203088900000002</v>
       </c>
       <c r="M31" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N31" s="6">
-        <v>103074</v>
+        <v>182859</v>
       </c>
       <c r="O31" s="6">
-        <v>18</v>
+        <v>7632</v>
       </c>
       <c r="P31" s="7">
-        <v>23</v>
+        <v>541</v>
       </c>
       <c r="Q31" s="3">
-        <v>2.7380952380952301E-2</v>
+        <v>0.25482807299999999</v>
       </c>
       <c r="R31" s="4">
-        <v>3812492</v>
+        <v>14605389</v>
       </c>
       <c r="S31" s="3">
-        <v>0.35584822026514301</v>
+        <v>0.427095697</v>
       </c>
       <c r="T31" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U31" t="s">
-        <v>49</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>139</v>
+        <v>56</v>
       </c>
       <c r="B32" s="7">
         <v>2333</v>
@@ -3614,10 +3614,10 @@
         <v>34988600</v>
       </c>
       <c r="D32" s="7">
-        <v>838</v>
+        <v>2121</v>
       </c>
       <c r="E32" s="4">
-        <v>10713248</v>
+        <v>34258570</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>3</v>
@@ -3632,45 +3632,45 @@
         <v>21</v>
       </c>
       <c r="J32" s="3">
-        <v>9.0012858979854199E-3</v>
+        <v>9.0012860000000007E-3</v>
       </c>
       <c r="K32" s="4">
         <v>336562</v>
       </c>
       <c r="L32" s="3">
-        <v>9.6191902505387405E-3</v>
+        <v>9.6191899999999997E-3</v>
       </c>
       <c r="M32" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N32" s="6">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="O32" s="6">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="P32" s="7">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Q32" s="3">
-        <v>0</v>
+        <v>8.4865630000000008E-3</v>
       </c>
       <c r="R32" s="4">
-        <v>0</v>
+        <v>336556</v>
       </c>
       <c r="S32" s="3">
-        <v>0</v>
+        <v>9.8239940000000008E-3</v>
       </c>
       <c r="T32" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U32" t="s">
-        <v>50</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>140</v>
+        <v>57</v>
       </c>
       <c r="B33" s="7">
         <v>2383</v>
@@ -3679,10 +3679,10 @@
         <v>35276702</v>
       </c>
       <c r="D33" s="7">
-        <v>830</v>
+        <v>2163</v>
       </c>
       <c r="E33" s="4">
-        <v>10738854</v>
+        <v>34531075</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>3</v>
@@ -3697,45 +3697,45 @@
         <v>247</v>
       </c>
       <c r="J33" s="3">
-        <v>0.103650860260176</v>
+        <v>0.10365086</v>
       </c>
       <c r="K33" s="4">
         <v>2955707</v>
       </c>
       <c r="L33" s="3">
-        <v>8.3786375495078794E-2</v>
+        <v>8.3786374999999996E-2</v>
       </c>
       <c r="M33" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N33" s="6">
-        <v>326</v>
+        <v>14345</v>
       </c>
       <c r="O33" s="6">
-        <v>1</v>
+        <v>1232</v>
       </c>
       <c r="P33" s="7">
-        <v>4</v>
+        <v>210</v>
       </c>
       <c r="Q33" s="3">
-        <v>4.8192771084337302E-3</v>
+        <v>9.7087379000000001E-2</v>
       </c>
       <c r="R33" s="4">
-        <v>6021</v>
+        <v>2899368</v>
       </c>
       <c r="S33" s="3">
-        <v>5.6067435128552795E-4</v>
+        <v>8.3964023999999998E-2</v>
       </c>
       <c r="T33" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U33" t="s">
-        <v>51</v>
+        <v>153</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>141</v>
+        <v>58</v>
       </c>
       <c r="B34" s="7">
         <v>2382</v>
@@ -3744,63 +3744,63 @@
         <v>35198752</v>
       </c>
       <c r="D34" s="7">
-        <v>828</v>
+        <v>2161</v>
       </c>
       <c r="E34" s="4">
-        <v>10741181</v>
+        <v>34219734</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G34" s="6">
-        <v>10671</v>
+        <v>10763</v>
       </c>
       <c r="H34" s="6">
-        <v>11115</v>
+        <v>11207</v>
       </c>
       <c r="I34" s="7">
         <v>120</v>
       </c>
       <c r="J34" s="3">
-        <v>5.0377833753148603E-2</v>
+        <v>5.0377834000000003E-2</v>
       </c>
       <c r="K34" s="4">
         <v>3964919</v>
       </c>
       <c r="L34" s="3">
-        <v>0.112643738050712</v>
+        <v>0.11264373799999999</v>
       </c>
       <c r="M34" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N34" s="6">
-        <v>134</v>
+        <v>4021</v>
       </c>
       <c r="O34" s="6">
-        <v>1</v>
+        <v>2946</v>
       </c>
       <c r="P34" s="7">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="Q34" s="3">
-        <v>6.0386473429951603E-3</v>
+        <v>4.3961129000000002E-2</v>
       </c>
       <c r="R34" s="4">
-        <v>9040</v>
+        <v>3712010</v>
       </c>
       <c r="S34" s="3">
-        <v>8.4162067467255205E-4</v>
+        <v>0.108475712</v>
       </c>
       <c r="T34" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U34" t="s">
-        <v>52</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>142</v>
+        <v>59</v>
       </c>
       <c r="B35" s="7">
         <v>2409</v>
@@ -3809,10 +3809,10 @@
         <v>35717250</v>
       </c>
       <c r="D35" s="7">
-        <v>829</v>
+        <v>2182</v>
       </c>
       <c r="E35" s="4">
-        <v>10746366</v>
+        <v>34653626</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>3</v>
@@ -3827,45 +3827,45 @@
         <v>102</v>
       </c>
       <c r="J35" s="3">
-        <v>4.23412204234122E-2</v>
+        <v>4.2341219999999999E-2</v>
       </c>
       <c r="K35" s="4">
         <v>1603777</v>
       </c>
       <c r="L35" s="3">
-        <v>4.4902029131581998E-2</v>
+        <v>4.4902029000000003E-2</v>
       </c>
       <c r="M35" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N35" s="6">
-        <v>179</v>
+        <v>5706</v>
       </c>
       <c r="O35" s="6">
-        <v>0</v>
+        <v>614</v>
       </c>
       <c r="P35" s="7">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="Q35" s="3">
-        <v>1.2062726176115799E-3</v>
+        <v>3.9871677000000001E-2</v>
       </c>
       <c r="R35" s="4">
-        <v>5185</v>
+        <v>1491386</v>
       </c>
       <c r="S35" s="3">
-        <v>4.8248868501221703E-4</v>
+        <v>4.3036939000000003E-2</v>
       </c>
       <c r="T35" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U35" t="s">
-        <v>53</v>
+        <v>155</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>143</v>
+        <v>60</v>
       </c>
       <c r="B36" s="7">
         <v>2410</v>
@@ -3874,10 +3874,10 @@
         <v>35717221</v>
       </c>
       <c r="D36" s="7">
-        <v>830</v>
+        <v>2183</v>
       </c>
       <c r="E36" s="4">
-        <v>10748998</v>
+        <v>34653536</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>3</v>
@@ -3892,45 +3892,45 @@
         <v>66</v>
       </c>
       <c r="J36" s="3">
-        <v>2.73858921161825E-2</v>
+        <v>2.7385891999999998E-2</v>
       </c>
       <c r="K36" s="4">
         <v>1699313</v>
       </c>
       <c r="L36" s="3">
-        <v>4.7576853753543702E-2</v>
+        <v>4.7576854000000002E-2</v>
       </c>
       <c r="M36" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N36" s="6">
-        <v>18</v>
+        <v>246</v>
       </c>
       <c r="O36" s="6">
-        <v>0</v>
+        <v>208</v>
       </c>
       <c r="P36" s="7">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="Q36" s="3">
-        <v>1.2048192771084299E-3</v>
+        <v>2.8401282999999999E-2</v>
       </c>
       <c r="R36" s="4">
-        <v>403</v>
+        <v>1687908</v>
       </c>
       <c r="S36" s="3">
-        <v>3.7491866683759703E-5</v>
+        <v>4.8708103000000003E-2</v>
       </c>
       <c r="T36" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U36" t="s">
-        <v>54</v>
+        <v>156</v>
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>144</v>
+        <v>61</v>
       </c>
       <c r="B37" s="7">
         <v>2410</v>
@@ -3939,10 +3939,10 @@
         <v>35716939</v>
       </c>
       <c r="D37" s="7">
-        <v>830</v>
+        <v>2183</v>
       </c>
       <c r="E37" s="4">
-        <v>10748998</v>
+        <v>34653512</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>3</v>
@@ -3957,45 +3957,45 @@
         <v>7</v>
       </c>
       <c r="J37" s="3">
-        <v>2.9045643153526898E-3</v>
+        <v>2.9045640000000001E-3</v>
       </c>
       <c r="K37" s="4">
         <v>28938</v>
       </c>
       <c r="L37" s="3">
-        <v>8.1020380833866999E-4</v>
+        <v>8.1020400000000002E-4</v>
       </c>
       <c r="M37" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N37" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="O37" s="6">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="P37" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q37" s="3">
-        <v>0</v>
+        <v>1.8323409999999999E-3</v>
       </c>
       <c r="R37" s="4">
-        <v>0</v>
+        <v>28102</v>
       </c>
       <c r="S37" s="3">
-        <v>0</v>
+        <v>8.1094200000000004E-4</v>
       </c>
       <c r="T37" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U37" t="s">
-        <v>54</v>
+        <v>156</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>145</v>
+        <v>62</v>
       </c>
       <c r="B38" s="7">
         <v>2427</v>
@@ -4004,10 +4004,10 @@
         <v>35867584</v>
       </c>
       <c r="D38" s="7">
-        <v>840</v>
+        <v>2193</v>
       </c>
       <c r="E38" s="4">
-        <v>10769443</v>
+        <v>34674754</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>3</v>
@@ -4022,45 +4022,45 @@
         <v>57</v>
       </c>
       <c r="J38" s="3">
-        <v>2.34857849196538E-2</v>
+        <v>2.3485784999999999E-2</v>
       </c>
       <c r="K38" s="4">
         <v>673937</v>
       </c>
       <c r="L38" s="3">
-        <v>1.8789584489437499E-2</v>
+        <v>1.8789584000000002E-2</v>
       </c>
       <c r="M38" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N38" s="6">
-        <v>23</v>
+        <v>1068</v>
       </c>
       <c r="O38" s="6">
-        <v>0</v>
+        <v>237</v>
       </c>
       <c r="P38" s="7">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="Q38" s="3">
-        <v>1.1904761904761899E-3</v>
+        <v>2.0975832E-2</v>
       </c>
       <c r="R38" s="4">
-        <v>732</v>
+        <v>508157</v>
       </c>
       <c r="S38" s="3">
-        <v>6.7970089075173102E-5</v>
+        <v>1.4654956E-2</v>
       </c>
       <c r="T38" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U38" t="s">
-        <v>55</v>
+        <v>157</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>146</v>
+        <v>63</v>
       </c>
       <c r="B39" s="7">
         <v>2433</v>
@@ -4069,10 +4069,10 @@
         <v>35868642</v>
       </c>
       <c r="D39" s="7">
-        <v>840</v>
+        <v>2199</v>
       </c>
       <c r="E39" s="4">
-        <v>10769443</v>
+        <v>34675812</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>3</v>
@@ -4087,45 +4087,45 @@
         <v>154</v>
       </c>
       <c r="J39" s="3">
-        <v>6.3296341964652697E-2</v>
+        <v>6.3296342000000005E-2</v>
       </c>
       <c r="K39" s="4">
         <v>1862242</v>
       </c>
       <c r="L39" s="3">
-        <v>5.1918385981827797E-2</v>
+        <v>5.1918385999999997E-2</v>
       </c>
       <c r="M39" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N39" s="6">
-        <v>0</v>
+        <v>2373</v>
       </c>
       <c r="O39" s="6">
-        <v>0</v>
+        <v>1536</v>
       </c>
       <c r="P39" s="7">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="Q39" s="3">
-        <v>0</v>
+        <v>6.8212824000000005E-2</v>
       </c>
       <c r="R39" s="4">
-        <v>0</v>
+        <v>1854155</v>
       </c>
       <c r="S39" s="3">
-        <v>0</v>
+        <v>5.3471133999999997E-2</v>
       </c>
       <c r="T39" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U39" t="s">
-        <v>56</v>
+        <v>158</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>147</v>
+        <v>64</v>
       </c>
       <c r="B40" s="7">
         <v>2435</v>
@@ -4134,10 +4134,10 @@
         <v>35890302</v>
       </c>
       <c r="D40" s="7">
-        <v>840</v>
+        <v>2201</v>
       </c>
       <c r="E40" s="4">
-        <v>10771496</v>
+        <v>34697504</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>3</v>
@@ -4152,45 +4152,45 @@
         <v>59</v>
       </c>
       <c r="J40" s="3">
-        <v>2.4229979466119E-2</v>
+        <v>2.4229978999999999E-2</v>
       </c>
       <c r="K40" s="4">
         <v>747429</v>
       </c>
       <c r="L40" s="3">
-        <v>2.0825375055356098E-2</v>
+        <v>2.0825375E-2</v>
       </c>
       <c r="M40" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N40" s="6">
-        <v>0</v>
+        <v>1203</v>
       </c>
       <c r="O40" s="6">
-        <v>0</v>
+        <v>507</v>
       </c>
       <c r="P40" s="7">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="Q40" s="3">
-        <v>0</v>
+        <v>2.4988641999999998E-2</v>
       </c>
       <c r="R40" s="4">
-        <v>0</v>
+        <v>734993</v>
       </c>
       <c r="S40" s="3">
-        <v>0</v>
+        <v>2.1182877999999999E-2</v>
       </c>
       <c r="T40" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U40" t="s">
-        <v>57</v>
+        <v>159</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>148</v>
+        <v>65</v>
       </c>
       <c r="B41" s="7">
         <v>2435</v>
@@ -4199,10 +4199,10 @@
         <v>35889009</v>
       </c>
       <c r="D41" s="7">
-        <v>840</v>
+        <v>2201</v>
       </c>
       <c r="E41" s="4">
-        <v>10771496</v>
+        <v>34696210</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>3</v>
@@ -4217,45 +4217,45 @@
         <v>24</v>
       </c>
       <c r="J41" s="3">
-        <v>9.8562628336755602E-3</v>
+        <v>9.8562630000000005E-3</v>
       </c>
       <c r="K41" s="4">
         <v>285734</v>
       </c>
       <c r="L41" s="3">
-        <v>7.9616018374873403E-3</v>
+        <v>7.9616019999999999E-3</v>
       </c>
       <c r="M41" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N41" s="6">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="O41" s="6">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="P41" s="7">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Q41" s="3">
-        <v>0</v>
+        <v>9.9954569999999993E-3</v>
       </c>
       <c r="R41" s="4">
-        <v>0</v>
+        <v>285727</v>
       </c>
       <c r="S41" s="3">
-        <v>0</v>
+        <v>8.2351070000000002E-3</v>
       </c>
       <c r="T41" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U41" t="s">
-        <v>57</v>
+        <v>159</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>149</v>
+        <v>66</v>
       </c>
       <c r="B42" s="7">
         <v>2462</v>
@@ -4264,10 +4264,10 @@
         <v>37265811</v>
       </c>
       <c r="D42" s="7">
-        <v>840</v>
+        <v>2228</v>
       </c>
       <c r="E42" s="4">
-        <v>10772076</v>
+        <v>36073012</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>3</v>
@@ -4282,45 +4282,45 @@
         <v>111</v>
       </c>
       <c r="J42" s="3">
-        <v>4.5085296506904897E-2</v>
+        <v>4.5085297000000003E-2</v>
       </c>
       <c r="K42" s="4">
         <v>3035138</v>
       </c>
       <c r="L42" s="3">
-        <v>8.1445644641948006E-2</v>
+        <v>8.1445644999999997E-2</v>
       </c>
       <c r="M42" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N42" s="6">
-        <v>0</v>
+        <v>30935</v>
       </c>
       <c r="O42" s="6">
-        <v>0</v>
+        <v>1059</v>
       </c>
       <c r="P42" s="7">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="Q42" s="3">
-        <v>0</v>
+        <v>4.8922801000000002E-2</v>
       </c>
       <c r="R42" s="4">
-        <v>0</v>
+        <v>3031713</v>
       </c>
       <c r="S42" s="3">
-        <v>0</v>
+        <v>8.4043800000000002E-2</v>
       </c>
       <c r="T42" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U42" t="s">
-        <v>58</v>
+        <v>160</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>150</v>
+        <v>67</v>
       </c>
       <c r="B43" s="7">
         <v>2566</v>
@@ -4329,10 +4329,10 @@
         <v>42853377</v>
       </c>
       <c r="D43" s="7">
-        <v>841</v>
+        <v>2324</v>
       </c>
       <c r="E43" s="4">
-        <v>10772347</v>
+        <v>41617417</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>3</v>
@@ -4347,45 +4347,45 @@
         <v>321</v>
       </c>
       <c r="J43" s="3">
-        <v>0.12509742790335099</v>
+        <v>0.12509742800000001</v>
       </c>
       <c r="K43" s="4">
         <v>7899966</v>
       </c>
       <c r="L43" s="3">
-        <v>0.184348738723671</v>
+        <v>0.18434873900000001</v>
       </c>
       <c r="M43" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N43" s="6">
-        <v>14</v>
+        <v>40456</v>
       </c>
       <c r="O43" s="6">
-        <v>11</v>
+        <v>4884</v>
       </c>
       <c r="P43" s="7">
-        <v>2</v>
+        <v>290</v>
       </c>
       <c r="Q43" s="3">
-        <v>2.3781212841854902E-3</v>
+        <v>0.124784854</v>
       </c>
       <c r="R43" s="4">
-        <v>437</v>
+        <v>7847247</v>
       </c>
       <c r="S43" s="3">
-        <v>4.0566832835964097E-5</v>
+        <v>0.188556801</v>
       </c>
       <c r="T43" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U43" t="s">
-        <v>59</v>
+        <v>161</v>
       </c>
     </row>
     <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>151</v>
+        <v>68</v>
       </c>
       <c r="B44" s="7">
         <v>2750</v>
@@ -4394,19 +4394,19 @@
         <v>44210930</v>
       </c>
       <c r="D44" s="7">
-        <v>986</v>
+        <v>2506</v>
       </c>
       <c r="E44" s="4">
-        <v>11776230</v>
+        <v>42974779</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G44" s="6">
-        <v>60866</v>
+        <v>60944</v>
       </c>
       <c r="H44" s="6">
-        <v>22863</v>
+        <v>22941</v>
       </c>
       <c r="I44" s="7">
         <v>506</v>
@@ -4418,39 +4418,39 @@
         <v>7234674</v>
       </c>
       <c r="L44" s="3">
-        <v>0.16363994152577199</v>
+        <v>0.16363994200000001</v>
       </c>
       <c r="M44" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N44" s="6">
-        <v>67</v>
+        <v>58801</v>
       </c>
       <c r="O44" s="6">
-        <v>19</v>
+        <v>13901</v>
       </c>
       <c r="P44" s="7">
-        <v>9</v>
+        <v>421</v>
       </c>
       <c r="Q44" s="3">
-        <v>9.1277890466531404E-3</v>
+        <v>0.167996808</v>
       </c>
       <c r="R44" s="4">
-        <v>9126</v>
+        <v>6878143</v>
       </c>
       <c r="S44" s="3">
-        <v>7.7495089684899096E-4</v>
+        <v>0.160050689</v>
       </c>
       <c r="T44" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U44" t="s">
-        <v>60</v>
+        <v>162</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>152</v>
+        <v>69</v>
       </c>
       <c r="B45" s="7">
         <v>2783</v>
@@ -4459,10 +4459,10 @@
         <v>44375705</v>
       </c>
       <c r="D45" s="7">
-        <v>990</v>
+        <v>2536</v>
       </c>
       <c r="E45" s="4">
-        <v>11778823</v>
+        <v>43129370</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>3</v>
@@ -4477,45 +4477,45 @@
         <v>210</v>
       </c>
       <c r="J45" s="3">
-        <v>7.5458138699245406E-2</v>
+        <v>7.5458138999999994E-2</v>
       </c>
       <c r="K45" s="4">
         <v>2857529</v>
       </c>
       <c r="L45" s="3">
-        <v>6.4393996670024697E-2</v>
+        <v>6.4393996999999994E-2</v>
       </c>
       <c r="M45" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N45" s="6">
-        <v>44</v>
+        <v>8449</v>
       </c>
       <c r="O45" s="6">
-        <v>1</v>
+        <v>2264</v>
       </c>
       <c r="P45" s="7">
-        <v>2</v>
+        <v>197</v>
       </c>
       <c r="Q45" s="3">
-        <v>2.0202020202020202E-3</v>
+        <v>7.7681388000000004E-2</v>
       </c>
       <c r="R45" s="4">
-        <v>1915</v>
+        <v>2814354</v>
       </c>
       <c r="S45" s="3">
-        <v>1.6257991142238899E-4</v>
+        <v>6.5253770000000003E-2</v>
       </c>
       <c r="T45" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U45" t="s">
-        <v>61</v>
+        <v>163</v>
       </c>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>153</v>
+        <v>70</v>
       </c>
       <c r="B46" s="7">
         <v>2783</v>
@@ -4524,10 +4524,10 @@
         <v>44406777</v>
       </c>
       <c r="D46" s="7">
-        <v>988</v>
+        <v>2536</v>
       </c>
       <c r="E46" s="4">
-        <v>11778327</v>
+        <v>43160446</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>3</v>
@@ -4542,45 +4542,45 @@
         <v>89</v>
       </c>
       <c r="J46" s="3">
-        <v>3.1979877829680203E-2</v>
+        <v>3.1979878000000003E-2</v>
       </c>
       <c r="K46" s="4">
         <v>1236598</v>
       </c>
       <c r="L46" s="3">
-        <v>2.78470558671709E-2</v>
+        <v>2.7847055999999999E-2</v>
       </c>
       <c r="M46" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N46" s="6">
-        <v>0</v>
+        <v>1741</v>
       </c>
       <c r="O46" s="6">
-        <v>0</v>
+        <v>837</v>
       </c>
       <c r="P46" s="7">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="Q46" s="3">
-        <v>0</v>
+        <v>3.3911671999999997E-2</v>
       </c>
       <c r="R46" s="4">
-        <v>0</v>
+        <v>1226342</v>
       </c>
       <c r="S46" s="3">
-        <v>0</v>
+        <v>2.8413562E-2</v>
       </c>
       <c r="T46" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U46" t="s">
-        <v>61</v>
+        <v>163</v>
       </c>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>154</v>
+        <v>71</v>
       </c>
       <c r="B47" s="7">
         <v>2780</v>
@@ -4589,10 +4589,10 @@
         <v>44486569</v>
       </c>
       <c r="D47" s="7">
-        <v>988</v>
+        <v>2535</v>
       </c>
       <c r="E47" s="4">
-        <v>11778295</v>
+        <v>43244816</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>3</v>
@@ -4607,45 +4607,45 @@
         <v>204</v>
       </c>
       <c r="J47" s="3">
-        <v>7.3381294964028704E-2</v>
+        <v>7.3381294999999999E-2</v>
       </c>
       <c r="K47" s="4">
         <v>2544248</v>
       </c>
       <c r="L47" s="3">
-        <v>5.7191373872864798E-2</v>
+        <v>5.7191374000000003E-2</v>
       </c>
       <c r="M47" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N47" s="6">
-        <v>0</v>
+        <v>5852</v>
       </c>
       <c r="O47" s="6">
-        <v>2</v>
+        <v>3165</v>
       </c>
       <c r="P47" s="7">
-        <v>1</v>
+        <v>190</v>
       </c>
       <c r="Q47" s="3">
-        <v>1.0121457489878499E-3</v>
+        <v>7.495069E-2</v>
       </c>
       <c r="R47" s="4">
-        <v>18950</v>
+        <v>2514044</v>
       </c>
       <c r="S47" s="3">
-        <v>1.6088916095241201E-3</v>
+        <v>5.8135153000000002E-2</v>
       </c>
       <c r="T47" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U47" t="s">
-        <v>62</v>
+        <v>164</v>
       </c>
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>155</v>
+        <v>72</v>
       </c>
       <c r="B48" s="7">
         <v>2774</v>
@@ -4654,10 +4654,10 @@
         <v>40993165</v>
       </c>
       <c r="D48" s="7">
-        <v>986</v>
+        <v>2530</v>
       </c>
       <c r="E48" s="4">
-        <v>11782937</v>
+        <v>39740937</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>3</v>
@@ -4672,45 +4672,45 @@
         <v>329</v>
       </c>
       <c r="J48" s="3">
-        <v>0.11860129776496001</v>
+        <v>0.11860129799999999</v>
       </c>
       <c r="K48" s="4">
         <v>5415494</v>
       </c>
       <c r="L48" s="3">
-        <v>0.13210724275620001</v>
+        <v>0.13210724300000001</v>
       </c>
       <c r="M48" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N48" s="6">
-        <v>1</v>
+        <v>11280</v>
       </c>
       <c r="O48" s="6">
-        <v>1</v>
+        <v>4600</v>
       </c>
       <c r="P48" s="7">
-        <v>1</v>
+        <v>267</v>
       </c>
       <c r="Q48" s="3">
-        <v>1.01419878296146E-3</v>
+        <v>0.10553359700000001</v>
       </c>
       <c r="R48" s="4">
-        <v>2788</v>
+        <v>5146388</v>
       </c>
       <c r="S48" s="3">
-        <v>2.3661333333106999E-4</v>
+        <v>0.12949840600000001</v>
       </c>
       <c r="T48" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U48" t="s">
-        <v>63</v>
+        <v>165</v>
       </c>
     </row>
     <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>156</v>
+        <v>73</v>
       </c>
       <c r="B49" s="7">
         <v>2785</v>
@@ -4719,10 +4719,10 @@
         <v>41089022</v>
       </c>
       <c r="D49" s="7">
-        <v>986</v>
+        <v>2541</v>
       </c>
       <c r="E49" s="4">
-        <v>11782937</v>
+        <v>39837088</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>3</v>
@@ -4737,45 +4737,45 @@
         <v>196</v>
       </c>
       <c r="J49" s="3">
-        <v>7.0377019748653499E-2</v>
+        <v>7.0377019999999998E-2</v>
       </c>
       <c r="K49" s="4">
         <v>2275417</v>
       </c>
       <c r="L49" s="3">
-        <v>5.5377735688135803E-2</v>
+        <v>5.5377735999999997E-2</v>
       </c>
       <c r="M49" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N49" s="6">
-        <v>0</v>
+        <v>6752</v>
       </c>
       <c r="O49" s="6">
-        <v>0</v>
+        <v>2971</v>
       </c>
       <c r="P49" s="7">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="Q49" s="3">
-        <v>0</v>
+        <v>7.2805982000000005E-2</v>
       </c>
       <c r="R49" s="4">
-        <v>0</v>
+        <v>2227917</v>
       </c>
       <c r="S49" s="3">
-        <v>0</v>
+        <v>5.5925699000000002E-2</v>
       </c>
       <c r="T49" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U49" t="s">
-        <v>64</v>
+        <v>166</v>
       </c>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>157</v>
+        <v>74</v>
       </c>
       <c r="B50" s="7">
         <v>2816</v>
@@ -4784,10 +4784,10 @@
         <v>41264167</v>
       </c>
       <c r="D50" s="7">
-        <v>1003</v>
+        <v>2572</v>
       </c>
       <c r="E50" s="4">
-        <v>11829111</v>
+        <v>40011951</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>3</v>
@@ -4802,45 +4802,45 @@
         <v>149</v>
       </c>
       <c r="J50" s="3">
-        <v>5.2911931818181802E-2</v>
+        <v>5.2911932000000002E-2</v>
       </c>
       <c r="K50" s="4">
         <v>1840966</v>
       </c>
       <c r="L50" s="3">
-        <v>4.4614156393851301E-2</v>
+        <v>4.4614156000000002E-2</v>
       </c>
       <c r="M50" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N50" s="6">
-        <v>0</v>
+        <v>6753</v>
       </c>
       <c r="O50" s="6">
-        <v>0</v>
+        <v>1017</v>
       </c>
       <c r="P50" s="7">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="Q50" s="3">
-        <v>0</v>
+        <v>5.4432347999999998E-2</v>
       </c>
       <c r="R50" s="4">
-        <v>0</v>
+        <v>1794646</v>
       </c>
       <c r="S50" s="3">
-        <v>0</v>
+        <v>4.4852748999999997E-2</v>
       </c>
       <c r="T50" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U50" t="s">
-        <v>65</v>
+        <v>167</v>
       </c>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>158</v>
+        <v>75</v>
       </c>
       <c r="B51" s="7">
         <v>2818</v>
@@ -4849,10 +4849,10 @@
         <v>41185328</v>
       </c>
       <c r="D51" s="7">
-        <v>1003</v>
+        <v>2574</v>
       </c>
       <c r="E51" s="4">
-        <v>11829586</v>
+        <v>39933111</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>3</v>
@@ -4867,45 +4867,45 @@
         <v>106</v>
       </c>
       <c r="J51" s="3">
-        <v>3.7615330021291603E-2</v>
+        <v>3.7615330000000002E-2</v>
       </c>
       <c r="K51" s="4">
         <v>1739691</v>
       </c>
       <c r="L51" s="3">
-        <v>4.2240552266574097E-2</v>
+        <v>4.2240552000000001E-2</v>
       </c>
       <c r="M51" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N51" s="6">
-        <v>0</v>
+        <v>1963</v>
       </c>
       <c r="O51" s="6">
-        <v>0</v>
+        <v>518</v>
       </c>
       <c r="P51" s="7">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="Q51" s="3">
-        <v>0</v>
+        <v>3.9627040000000002E-2</v>
       </c>
       <c r="R51" s="4">
-        <v>0</v>
+        <v>1721075</v>
       </c>
       <c r="S51" s="3">
-        <v>0</v>
+        <v>4.3098945999999999E-2</v>
       </c>
       <c r="T51" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U51" t="s">
-        <v>66</v>
+        <v>168</v>
       </c>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>159</v>
+        <v>76</v>
       </c>
       <c r="B52" s="7">
         <v>2847</v>
@@ -4914,10 +4914,10 @@
         <v>40868223</v>
       </c>
       <c r="D52" s="7">
-        <v>1007</v>
+        <v>2598</v>
       </c>
       <c r="E52" s="4">
-        <v>11831650</v>
+        <v>39561743</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>3</v>
@@ -4932,45 +4932,45 @@
         <v>250</v>
       </c>
       <c r="J52" s="3">
-        <v>8.7811731647347999E-2</v>
+        <v>8.7811732000000003E-2</v>
       </c>
       <c r="K52" s="4">
         <v>2893812</v>
       </c>
       <c r="L52" s="3">
-        <v>7.0808363749997105E-2</v>
+        <v>7.0808363999999999E-2</v>
       </c>
       <c r="M52" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N52" s="6">
-        <v>33</v>
+        <v>8341</v>
       </c>
       <c r="O52" s="6">
-        <v>0</v>
+        <v>3064</v>
       </c>
       <c r="P52" s="7">
-        <v>2</v>
+        <v>230</v>
       </c>
       <c r="Q52" s="3">
-        <v>1.9860973187686101E-3</v>
+        <v>8.8529637999999994E-2</v>
       </c>
       <c r="R52" s="4">
-        <v>1026</v>
+        <v>2809951</v>
       </c>
       <c r="S52" s="3">
-        <v>8.6716561088267402E-5</v>
+        <v>7.1026977000000005E-2</v>
       </c>
       <c r="T52" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U52" t="s">
-        <v>67</v>
+        <v>169</v>
       </c>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="B53" s="7">
         <v>2847</v>
@@ -4979,10 +4979,10 @@
         <v>40883615</v>
       </c>
       <c r="D53" s="7">
-        <v>1007</v>
+        <v>2598</v>
       </c>
       <c r="E53" s="4">
-        <v>11831650</v>
+        <v>39577135</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>3</v>
@@ -4997,45 +4997,45 @@
         <v>23</v>
       </c>
       <c r="J53" s="3">
-        <v>8.0786793115560206E-3</v>
+        <v>8.0786790000000001E-3</v>
       </c>
       <c r="K53" s="4">
         <v>794444</v>
       </c>
       <c r="L53" s="3">
-        <v>1.9431843294679299E-2</v>
+        <v>1.9431843000000001E-2</v>
       </c>
       <c r="M53" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N53" s="6">
-        <v>0</v>
+        <v>904</v>
       </c>
       <c r="O53" s="6">
-        <v>0</v>
+        <v>460</v>
       </c>
       <c r="P53" s="7">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="Q53" s="3">
-        <v>0</v>
+        <v>8.0831410000000003E-3</v>
       </c>
       <c r="R53" s="4">
-        <v>0</v>
+        <v>785012</v>
       </c>
       <c r="S53" s="3">
-        <v>0</v>
+        <v>1.9834988000000001E-2</v>
       </c>
       <c r="T53" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U53" t="s">
-        <v>67</v>
+        <v>169</v>
       </c>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>161</v>
+        <v>78</v>
       </c>
       <c r="B54" s="7">
         <v>2926</v>
@@ -5044,63 +5044,63 @@
         <v>43346923</v>
       </c>
       <c r="D54" s="7">
-        <v>1007</v>
+        <v>2676</v>
       </c>
       <c r="E54" s="4">
-        <v>11835650</v>
+        <v>42014201</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G54" s="6">
-        <v>92421</v>
+        <v>92470</v>
       </c>
       <c r="H54" s="6">
-        <v>16930</v>
+        <v>16979</v>
       </c>
       <c r="I54" s="7">
         <v>394</v>
       </c>
       <c r="J54" s="3">
-        <v>0.134654818865345</v>
+        <v>0.13465481900000001</v>
       </c>
       <c r="K54" s="4">
         <v>9279914</v>
       </c>
       <c r="L54" s="3">
-        <v>0.21408472292254699</v>
+        <v>0.214084723</v>
       </c>
       <c r="M54" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N54" s="6">
-        <v>179</v>
+        <v>90964</v>
       </c>
       <c r="O54" s="6">
-        <v>78</v>
+        <v>16004</v>
       </c>
       <c r="P54" s="7">
-        <v>3</v>
+        <v>359</v>
       </c>
       <c r="Q54" s="3">
-        <v>2.9791459781529201E-3</v>
+        <v>0.13415545600000001</v>
       </c>
       <c r="R54" s="4">
-        <v>24626</v>
+        <v>9201720</v>
       </c>
       <c r="S54" s="3">
-        <v>2.08066308145306E-3</v>
+        <v>0.21901451799999999</v>
       </c>
       <c r="T54" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U54" t="s">
-        <v>68</v>
+        <v>170</v>
       </c>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>162</v>
+        <v>79</v>
       </c>
       <c r="B55" s="7">
         <v>2928</v>
@@ -5109,10 +5109,10 @@
         <v>43358913</v>
       </c>
       <c r="D55" s="7">
-        <v>1007</v>
+        <v>2678</v>
       </c>
       <c r="E55" s="4">
-        <v>11835650</v>
+        <v>42026191</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>3</v>
@@ -5127,45 +5127,45 @@
         <v>43</v>
       </c>
       <c r="J55" s="3">
-        <v>1.46857923497267E-2</v>
+        <v>1.4685792E-2</v>
       </c>
       <c r="K55" s="4">
         <v>751254</v>
       </c>
       <c r="L55" s="3">
-        <v>1.7326402993543599E-2</v>
+        <v>1.7326403000000001E-2</v>
       </c>
       <c r="M55" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N55" s="6">
-        <v>0</v>
+        <v>528</v>
       </c>
       <c r="O55" s="6">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="P55" s="7">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="Q55" s="3">
-        <v>0</v>
+        <v>1.5683346000000001E-2</v>
       </c>
       <c r="R55" s="4">
-        <v>0</v>
+        <v>742378</v>
       </c>
       <c r="S55" s="3">
-        <v>0</v>
+        <v>1.7664651E-2</v>
       </c>
       <c r="T55" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U55" t="s">
-        <v>69</v>
+        <v>171</v>
       </c>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>163</v>
+        <v>80</v>
       </c>
       <c r="B56" s="7">
         <v>2928</v>
@@ -5174,10 +5174,10 @@
         <v>43358969</v>
       </c>
       <c r="D56" s="7">
-        <v>1007</v>
+        <v>2678</v>
       </c>
       <c r="E56" s="4">
-        <v>11835650</v>
+        <v>42026247</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>3</v>
@@ -5192,45 +5192,45 @@
         <v>3</v>
       </c>
       <c r="J56" s="3">
-        <v>1.02459016393442E-3</v>
+        <v>1.0245899999999999E-3</v>
       </c>
       <c r="K56" s="4">
         <v>14865</v>
       </c>
       <c r="L56" s="3">
-        <v>3.42835642609491E-4</v>
+        <v>3.4283600000000001E-4</v>
       </c>
       <c r="M56" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N56" s="6">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O56" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P56" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q56" s="3">
-        <v>0</v>
+        <v>1.1202390000000001E-3</v>
       </c>
       <c r="R56" s="4">
-        <v>0</v>
+        <v>14865</v>
       </c>
       <c r="S56" s="3">
-        <v>0</v>
+        <v>3.53708E-4</v>
       </c>
       <c r="T56" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U56" t="s">
-        <v>69</v>
+        <v>171</v>
       </c>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>164</v>
+        <v>81</v>
       </c>
       <c r="B57" s="7">
         <v>2928</v>
@@ -5239,10 +5239,10 @@
         <v>43360527</v>
       </c>
       <c r="D57" s="7">
-        <v>1007</v>
+        <v>2678</v>
       </c>
       <c r="E57" s="4">
-        <v>11835650</v>
+        <v>42027805</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>3</v>
@@ -5257,45 +5257,45 @@
         <v>6</v>
       </c>
       <c r="J57" s="3">
-        <v>2.04918032786885E-3</v>
+        <v>2.0491799999999998E-3</v>
       </c>
       <c r="K57" s="4">
         <v>89260</v>
       </c>
       <c r="L57" s="3">
-        <v>2.05855431600266E-3</v>
+        <v>2.0585540000000002E-3</v>
       </c>
       <c r="M57" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N57" s="6">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="O57" s="6">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="P57" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q57" s="3">
-        <v>0</v>
+        <v>2.2404780000000002E-3</v>
       </c>
       <c r="R57" s="4">
-        <v>0</v>
+        <v>89260</v>
       </c>
       <c r="S57" s="3">
-        <v>0</v>
+        <v>2.123832E-3</v>
       </c>
       <c r="T57" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U57" t="s">
-        <v>69</v>
+        <v>171</v>
       </c>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>165</v>
+        <v>82</v>
       </c>
       <c r="B58" s="7">
         <v>2928</v>
@@ -5304,10 +5304,10 @@
         <v>43364734</v>
       </c>
       <c r="D58" s="7">
-        <v>1007</v>
+        <v>2678</v>
       </c>
       <c r="E58" s="4">
-        <v>11835650</v>
+        <v>42032012</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>3</v>
@@ -5322,45 +5322,45 @@
         <v>13</v>
       </c>
       <c r="J58" s="3">
-        <v>4.4398907103825099E-3</v>
+        <v>4.4398909999999996E-3</v>
       </c>
       <c r="K58" s="4">
         <v>314859</v>
       </c>
       <c r="L58" s="3">
-        <v>7.2607155851572803E-3</v>
+        <v>7.2607160000000004E-3</v>
       </c>
       <c r="M58" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N58" s="6">
-        <v>0</v>
+        <v>214</v>
       </c>
       <c r="O58" s="6">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="P58" s="7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Q58" s="3">
-        <v>0</v>
+        <v>4.8543689999999999E-3</v>
       </c>
       <c r="R58" s="4">
-        <v>0</v>
+        <v>314859</v>
       </c>
       <c r="S58" s="3">
-        <v>0</v>
+        <v>7.490933E-3</v>
       </c>
       <c r="T58" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U58" t="s">
-        <v>69</v>
+        <v>171</v>
       </c>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>166</v>
+        <v>83</v>
       </c>
       <c r="B59" s="7">
         <v>2618</v>
@@ -5369,63 +5369,63 @@
         <v>56772563</v>
       </c>
       <c r="D59" s="7">
-        <v>962</v>
+        <v>2397</v>
       </c>
       <c r="E59" s="4">
-        <v>11773344</v>
+        <v>54207887</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G59" s="6">
-        <v>159597</v>
+        <v>159774</v>
       </c>
       <c r="H59" s="6">
-        <v>231290</v>
+        <v>231467</v>
       </c>
       <c r="I59" s="7">
         <v>1608</v>
       </c>
       <c r="J59" s="3">
-        <v>0.61420932009167295</v>
+        <v>0.61420931999999995</v>
       </c>
       <c r="K59" s="4">
         <v>34608090</v>
       </c>
       <c r="L59" s="3">
-        <v>0.60959181990779598</v>
+        <v>0.60959182000000001</v>
       </c>
       <c r="M59" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N59" s="6">
-        <v>13810</v>
+        <v>149218</v>
       </c>
       <c r="O59" s="6">
-        <v>2927</v>
+        <v>68800</v>
       </c>
       <c r="P59" s="7">
-        <v>70</v>
+        <v>811</v>
       </c>
       <c r="Q59" s="3">
-        <v>7.27650727650727E-2</v>
+        <v>0.338339591</v>
       </c>
       <c r="R59" s="4">
-        <v>4887536</v>
+        <v>32621963</v>
       </c>
       <c r="S59" s="3">
-        <v>0.41513575072638598</v>
+        <v>0.60179366499999998</v>
       </c>
       <c r="T59" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U59" t="s">
-        <v>70</v>
+        <v>172</v>
       </c>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>167</v>
+        <v>84</v>
       </c>
       <c r="B60" s="7">
         <v>2686</v>
@@ -5434,10 +5434,10 @@
         <v>58611196</v>
       </c>
       <c r="D60" s="7">
-        <v>1005</v>
+        <v>2465</v>
       </c>
       <c r="E60" s="4">
-        <v>12268639</v>
+        <v>56039333</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>3</v>
@@ -5452,45 +5452,45 @@
         <v>267</v>
       </c>
       <c r="J60" s="3">
-        <v>9.9404318689501101E-2</v>
+        <v>9.9404319000000005E-2</v>
       </c>
       <c r="K60" s="4">
         <v>4584976</v>
       </c>
       <c r="L60" s="3">
-        <v>7.8226965373646304E-2</v>
+        <v>7.8226964999999996E-2</v>
       </c>
       <c r="M60" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N60" s="6">
-        <v>0</v>
+        <v>42670</v>
       </c>
       <c r="O60" s="6">
-        <v>0</v>
+        <v>1692</v>
       </c>
       <c r="P60" s="7">
-        <v>0</v>
+        <v>254</v>
       </c>
       <c r="Q60" s="3">
-        <v>0</v>
+        <v>0.103042596</v>
       </c>
       <c r="R60" s="4">
-        <v>0</v>
+        <v>4508259</v>
       </c>
       <c r="S60" s="3">
-        <v>0</v>
+        <v>8.0448119999999998E-2</v>
       </c>
       <c r="T60" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U60" t="s">
-        <v>71</v>
+        <v>173</v>
       </c>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>168</v>
+        <v>85</v>
       </c>
       <c r="B61" s="7">
         <v>2689</v>
@@ -5499,10 +5499,10 @@
         <v>58659704</v>
       </c>
       <c r="D61" s="7">
-        <v>1005</v>
+        <v>2468</v>
       </c>
       <c r="E61" s="4">
-        <v>12268639</v>
+        <v>56087665</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>3</v>
@@ -5517,45 +5517,45 @@
         <v>78</v>
       </c>
       <c r="J61" s="3">
-        <v>2.90070658237262E-2</v>
+        <v>2.9007066000000001E-2</v>
       </c>
       <c r="K61" s="4">
         <v>1130373</v>
       </c>
       <c r="L61" s="3">
-        <v>1.9270008590564901E-2</v>
+        <v>1.9270009000000001E-2</v>
       </c>
       <c r="M61" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N61" s="6">
-        <v>0</v>
+        <v>2824</v>
       </c>
       <c r="O61" s="6">
-        <v>0</v>
+        <v>855</v>
       </c>
       <c r="P61" s="7">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="Q61" s="3">
-        <v>0</v>
+        <v>2.8363046999999999E-2</v>
       </c>
       <c r="R61" s="4">
-        <v>0</v>
+        <v>1071370</v>
       </c>
       <c r="S61" s="3">
-        <v>0</v>
+        <v>1.9101704000000001E-2</v>
       </c>
       <c r="T61" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U61" t="s">
-        <v>72</v>
+        <v>174</v>
       </c>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>169</v>
+        <v>86</v>
       </c>
       <c r="B62" s="7">
         <v>2704</v>
@@ -5564,10 +5564,10 @@
         <v>57285308</v>
       </c>
       <c r="D62" s="7">
-        <v>1005</v>
+        <v>2481</v>
       </c>
       <c r="E62" s="4">
-        <v>12268639</v>
+        <v>54682080</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>3</v>
@@ -5582,45 +5582,45 @@
         <v>104</v>
       </c>
       <c r="J62" s="3">
-        <v>3.8461538461538401E-2</v>
+        <v>3.8461538000000003E-2</v>
       </c>
       <c r="K62" s="4">
         <v>13483426</v>
       </c>
       <c r="L62" s="3">
-        <v>0.23537319551463301</v>
+        <v>0.23537319600000001</v>
       </c>
       <c r="M62" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N62" s="6">
-        <v>0</v>
+        <v>299045</v>
       </c>
       <c r="O62" s="6">
-        <v>0</v>
+        <v>1415</v>
       </c>
       <c r="P62" s="7">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="Q62" s="3">
-        <v>0</v>
+        <v>3.9097137999999997E-2</v>
       </c>
       <c r="R62" s="4">
-        <v>0</v>
+        <v>13399530</v>
       </c>
       <c r="S62" s="3">
-        <v>0</v>
+        <v>0.24504426300000001</v>
       </c>
       <c r="T62" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U62" t="s">
-        <v>73</v>
+        <v>175</v>
       </c>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>170</v>
+        <v>87</v>
       </c>
       <c r="B63" s="7">
         <v>2706</v>
@@ -5629,10 +5629,10 @@
         <v>57309125</v>
       </c>
       <c r="D63" s="7">
-        <v>1005</v>
+        <v>2483</v>
       </c>
       <c r="E63" s="4">
-        <v>12268677</v>
+        <v>54705882</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>3</v>
@@ -5647,45 +5647,45 @@
         <v>62</v>
       </c>
       <c r="J63" s="3">
-        <v>2.29120473022912E-2</v>
+        <v>2.2912047000000001E-2</v>
       </c>
       <c r="K63" s="4">
         <v>1036106</v>
       </c>
       <c r="L63" s="3">
-        <v>1.8079250032171999E-2</v>
+        <v>1.8079250000000002E-2</v>
       </c>
       <c r="M63" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N63" s="6">
-        <v>3</v>
+        <v>1358</v>
       </c>
       <c r="O63" s="6">
-        <v>1</v>
+        <v>648</v>
       </c>
       <c r="P63" s="7">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="Q63" s="3">
-        <v>9.9502487562189005E-4</v>
+        <v>2.2150624000000001E-2</v>
       </c>
       <c r="R63" s="4">
-        <v>25488</v>
+        <v>998596</v>
       </c>
       <c r="S63" s="3">
-        <v>2.0774856164197599E-3</v>
+        <v>1.8253905000000001E-2</v>
       </c>
       <c r="T63" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U63" t="s">
-        <v>74</v>
+        <v>176</v>
       </c>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>171</v>
+        <v>88</v>
       </c>
       <c r="B64" s="7">
         <v>2706</v>
@@ -5694,10 +5694,10 @@
         <v>57309179</v>
       </c>
       <c r="D64" s="7">
-        <v>1005</v>
+        <v>2483</v>
       </c>
       <c r="E64" s="4">
-        <v>12268677</v>
+        <v>54705936</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>3</v>
@@ -5712,45 +5712,45 @@
         <v>2</v>
       </c>
       <c r="J64" s="3">
-        <v>7.3909830007390896E-4</v>
+        <v>7.3909799999999999E-4</v>
       </c>
       <c r="K64" s="4">
         <v>15140</v>
       </c>
       <c r="L64" s="3">
-        <v>2.64181066003405E-4</v>
+        <v>2.64181E-4</v>
       </c>
       <c r="M64" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N64" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O64" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P64" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q64" s="3">
-        <v>0</v>
+        <v>8.0547699999999997E-4</v>
       </c>
       <c r="R64" s="4">
-        <v>0</v>
+        <v>15140</v>
       </c>
       <c r="S64" s="3">
-        <v>0</v>
+        <v>2.7675200000000001E-4</v>
       </c>
       <c r="T64" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U64" t="s">
-        <v>74</v>
+        <v>176</v>
       </c>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>172</v>
+        <v>89</v>
       </c>
       <c r="B65" s="7">
         <v>2773</v>
@@ -5759,10 +5759,10 @@
         <v>57707784</v>
       </c>
       <c r="D65" s="7">
-        <v>1051</v>
+        <v>2548</v>
       </c>
       <c r="E65" s="4">
-        <v>12539233</v>
+        <v>55101759</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>3</v>
@@ -5777,45 +5777,45 @@
         <v>113</v>
       </c>
       <c r="J65" s="3">
-        <v>4.0750090155066698E-2</v>
+        <v>4.0750090000000003E-2</v>
       </c>
       <c r="K65" s="4">
         <v>1064752</v>
       </c>
       <c r="L65" s="3">
-        <v>1.8450751808456199E-2</v>
+        <v>1.8450752000000001E-2</v>
       </c>
       <c r="M65" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N65" s="6">
-        <v>0</v>
+        <v>11954</v>
       </c>
       <c r="O65" s="6">
-        <v>0</v>
+        <v>350</v>
       </c>
       <c r="P65" s="7">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="Q65" s="3">
-        <v>0</v>
+        <v>4.1208791000000002E-2</v>
       </c>
       <c r="R65" s="4">
-        <v>0</v>
+        <v>1050694</v>
       </c>
       <c r="S65" s="3">
-        <v>0</v>
+        <v>1.9068247999999999E-2</v>
       </c>
       <c r="T65" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U65" t="s">
-        <v>75</v>
+        <v>177</v>
       </c>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>173</v>
+        <v>90</v>
       </c>
       <c r="B66" s="7">
         <v>2781</v>
@@ -5824,10 +5824,10 @@
         <v>57807566</v>
       </c>
       <c r="D66" s="7">
-        <v>1051</v>
+        <v>2556</v>
       </c>
       <c r="E66" s="4">
-        <v>12539240</v>
+        <v>55201299</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>3</v>
@@ -5842,45 +5842,45 @@
         <v>101</v>
       </c>
       <c r="J66" s="3">
-        <v>3.6317871269327499E-2</v>
+        <v>3.6317871000000002E-2</v>
       </c>
       <c r="K66" s="4">
         <v>1757656</v>
       </c>
       <c r="L66" s="3">
-        <v>3.0405293314027401E-2</v>
+        <v>3.0405293E-2</v>
       </c>
       <c r="M66" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N66" s="6">
-        <v>1</v>
+        <v>4655</v>
       </c>
       <c r="O66" s="6">
-        <v>1</v>
+        <v>1408</v>
       </c>
       <c r="P66" s="7">
-        <v>1</v>
+        <v>93</v>
       </c>
       <c r="Q66" s="3">
-        <v>9.5147478591817299E-4</v>
+        <v>3.6384976999999999E-2</v>
       </c>
       <c r="R66" s="4">
-        <v>704</v>
+        <v>1713201</v>
       </c>
       <c r="S66" s="3">
-        <v>5.6143753528922E-5</v>
+        <v>3.103552E-2</v>
       </c>
       <c r="T66" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U66" t="s">
-        <v>76</v>
+        <v>178</v>
       </c>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>174</v>
+        <v>91</v>
       </c>
       <c r="B67" s="7">
         <v>1201</v>
@@ -5889,10 +5889,10 @@
         <v>25339242</v>
       </c>
       <c r="D67" s="7">
-        <v>83</v>
+        <v>1070</v>
       </c>
       <c r="E67" s="4">
-        <v>700357</v>
+        <v>23299298</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>3</v>
@@ -5907,45 +5907,45 @@
         <v>1762</v>
       </c>
       <c r="J67" s="3">
-        <v>1.46711074104912</v>
+        <v>1.4671107409999999</v>
       </c>
       <c r="K67" s="4">
         <v>2436702</v>
       </c>
       <c r="L67" s="3">
-        <v>9.6163176467551695E-2</v>
+        <v>9.6163176000000003E-2</v>
       </c>
       <c r="M67" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N67" s="6">
-        <v>0</v>
+        <v>2656</v>
       </c>
       <c r="O67" s="6">
-        <v>0</v>
+        <v>2257</v>
       </c>
       <c r="P67" s="7">
-        <v>0</v>
+        <v>165</v>
       </c>
       <c r="Q67" s="3">
-        <v>0</v>
+        <v>0.15420560699999999</v>
       </c>
       <c r="R67" s="4">
-        <v>0</v>
+        <v>2389823</v>
       </c>
       <c r="S67" s="3">
-        <v>0</v>
+        <v>0.102570601</v>
       </c>
       <c r="T67" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U67" t="s">
-        <v>77</v>
+        <v>179</v>
       </c>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>175</v>
+        <v>92</v>
       </c>
       <c r="B68" s="7">
         <v>1201</v>
@@ -5954,10 +5954,10 @@
         <v>25342879</v>
       </c>
       <c r="D68" s="7">
-        <v>83</v>
+        <v>1070</v>
       </c>
       <c r="E68" s="4">
-        <v>700357</v>
+        <v>23302711</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>3</v>
@@ -5972,45 +5972,45 @@
         <v>48</v>
       </c>
       <c r="J68" s="3">
-        <v>3.99666944213155E-2</v>
+        <v>3.9966693999999997E-2</v>
       </c>
       <c r="K68" s="4">
         <v>1341530</v>
       </c>
       <c r="L68" s="3">
-        <v>5.2935185461762201E-2</v>
+        <v>5.2935185000000003E-2</v>
       </c>
       <c r="M68" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N68" s="6">
-        <v>0</v>
+        <v>710</v>
       </c>
       <c r="O68" s="6">
-        <v>0</v>
+        <v>644</v>
       </c>
       <c r="P68" s="7">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="Q68" s="3">
-        <v>0</v>
+        <v>4.2990654000000003E-2</v>
       </c>
       <c r="R68" s="4">
-        <v>0</v>
+        <v>1315038</v>
       </c>
       <c r="S68" s="3">
-        <v>0</v>
+        <v>5.6432833000000002E-2</v>
       </c>
       <c r="T68" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U68" t="s">
-        <v>77</v>
+        <v>179</v>
       </c>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>176</v>
+        <v>93</v>
       </c>
       <c r="B69" s="7">
         <v>1216</v>
@@ -6019,10 +6019,10 @@
         <v>25445378</v>
       </c>
       <c r="D69" s="7">
-        <v>82</v>
+        <v>1077</v>
       </c>
       <c r="E69" s="4">
-        <v>699711</v>
+        <v>23399816</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>3</v>
@@ -6037,45 +6037,45 @@
         <v>96</v>
       </c>
       <c r="J69" s="3">
-        <v>7.8947368421052599E-2</v>
+        <v>7.8947368000000004E-2</v>
       </c>
       <c r="K69" s="4">
         <v>1947734</v>
       </c>
       <c r="L69" s="3">
-        <v>7.6545689358593905E-2</v>
+        <v>7.6545689E-2</v>
       </c>
       <c r="M69" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N69" s="6">
-        <v>0</v>
+        <v>3814</v>
       </c>
       <c r="O69" s="6">
-        <v>0</v>
+        <v>813</v>
       </c>
       <c r="P69" s="7">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="Q69" s="3">
-        <v>0</v>
+        <v>7.2423398E-2</v>
       </c>
       <c r="R69" s="4">
-        <v>0</v>
+        <v>1875756</v>
       </c>
       <c r="S69" s="3">
-        <v>0</v>
+        <v>8.0161143000000004E-2</v>
       </c>
       <c r="T69" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U69" t="s">
-        <v>78</v>
+        <v>180</v>
       </c>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>177</v>
+        <v>94</v>
       </c>
       <c r="B70" s="7">
         <v>1334</v>
@@ -6084,10 +6084,10 @@
         <v>25596787</v>
       </c>
       <c r="D70" s="7">
-        <v>82</v>
+        <v>1080</v>
       </c>
       <c r="E70" s="4">
-        <v>699711</v>
+        <v>23520885</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>3</v>
@@ -6102,45 +6102,45 @@
         <v>226</v>
       </c>
       <c r="J70" s="3">
-        <v>0.16941529235382299</v>
+        <v>0.169415292</v>
       </c>
       <c r="K70" s="4">
         <v>1625489</v>
       </c>
       <c r="L70" s="3">
-        <v>6.3503634264722303E-2</v>
+        <v>6.3503634000000003E-2</v>
       </c>
       <c r="M70" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N70" s="6">
-        <v>0</v>
+        <v>6606</v>
       </c>
       <c r="O70" s="6">
-        <v>0</v>
+        <v>2477</v>
       </c>
       <c r="P70" s="7">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="Q70" s="3">
-        <v>0</v>
+        <v>9.4444444000000002E-2</v>
       </c>
       <c r="R70" s="4">
-        <v>0</v>
+        <v>1534592</v>
       </c>
       <c r="S70" s="3">
-        <v>0</v>
+        <v>6.5243804000000002E-2</v>
       </c>
       <c r="T70" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U70" t="s">
-        <v>79</v>
+        <v>181</v>
       </c>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>178</v>
+        <v>95</v>
       </c>
       <c r="B71" s="7">
         <v>1334</v>
@@ -6149,63 +6149,63 @@
         <v>25603632</v>
       </c>
       <c r="D71" s="7">
-        <v>82</v>
+        <v>1080</v>
       </c>
       <c r="E71" s="4">
-        <v>699711</v>
+        <v>23527726</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G71" s="6">
-        <v>1331</v>
+        <v>1334</v>
       </c>
       <c r="H71" s="6">
-        <v>1182</v>
+        <v>1185</v>
       </c>
       <c r="I71" s="7">
         <v>49</v>
       </c>
       <c r="J71" s="3">
-        <v>3.67316341829085E-2</v>
+        <v>3.6731633999999999E-2</v>
       </c>
       <c r="K71" s="4">
         <v>908238</v>
       </c>
       <c r="L71" s="3">
-        <v>3.5473014141118697E-2</v>
+        <v>3.5473013999999997E-2</v>
       </c>
       <c r="M71" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N71" s="6">
-        <v>0</v>
+        <v>1319</v>
       </c>
       <c r="O71" s="6">
-        <v>0</v>
+        <v>1169</v>
       </c>
       <c r="P71" s="7">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="Q71" s="3">
-        <v>0</v>
+        <v>4.2592592999999998E-2</v>
       </c>
       <c r="R71" s="4">
-        <v>0</v>
+        <v>864182</v>
       </c>
       <c r="S71" s="3">
-        <v>0</v>
+        <v>3.6730367E-2</v>
       </c>
       <c r="T71" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U71" t="s">
-        <v>79</v>
+        <v>181</v>
       </c>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>179</v>
+        <v>96</v>
       </c>
       <c r="B72" s="7">
         <v>1375</v>
@@ -6214,10 +6214,10 @@
         <v>26423482</v>
       </c>
       <c r="D72" s="7">
-        <v>82</v>
+        <v>1118</v>
       </c>
       <c r="E72" s="4">
-        <v>699711</v>
+        <v>23920452</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>3</v>
@@ -6238,39 +6238,39 @@
         <v>4665121</v>
       </c>
       <c r="L72" s="3">
-        <v>0.17655209105295</v>
+        <v>0.17655209099999999</v>
       </c>
       <c r="M72" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N72" s="6">
-        <v>0</v>
+        <v>14206</v>
       </c>
       <c r="O72" s="6">
-        <v>0</v>
+        <v>2069</v>
       </c>
       <c r="P72" s="7">
-        <v>0</v>
+        <v>226</v>
       </c>
       <c r="Q72" s="3">
-        <v>0</v>
+        <v>0.20214669099999999</v>
       </c>
       <c r="R72" s="4">
-        <v>0</v>
+        <v>4164085</v>
       </c>
       <c r="S72" s="3">
-        <v>0</v>
+        <v>0.17408053200000001</v>
       </c>
       <c r="T72" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U72" t="s">
-        <v>80</v>
+        <v>182</v>
       </c>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>180</v>
+        <v>97</v>
       </c>
       <c r="B73" s="7">
         <v>1379</v>
@@ -6279,10 +6279,10 @@
         <v>26548415</v>
       </c>
       <c r="D73" s="7">
-        <v>82</v>
+        <v>1122</v>
       </c>
       <c r="E73" s="4">
-        <v>699711</v>
+        <v>24046401</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>3</v>
@@ -6297,45 +6297,45 @@
         <v>172</v>
       </c>
       <c r="J73" s="3">
-        <v>0.124728063814358</v>
+        <v>0.124728064</v>
       </c>
       <c r="K73" s="4">
         <v>3067916</v>
       </c>
       <c r="L73" s="3">
-        <v>0.115559290451049</v>
+        <v>0.11555929</v>
       </c>
       <c r="M73" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N73" s="6">
-        <v>0</v>
+        <v>6695</v>
       </c>
       <c r="O73" s="6">
-        <v>0</v>
+        <v>2855</v>
       </c>
       <c r="P73" s="7">
-        <v>0</v>
+        <v>166</v>
       </c>
       <c r="Q73" s="3">
-        <v>0</v>
+        <v>0.14795008900000001</v>
       </c>
       <c r="R73" s="4">
-        <v>0</v>
+        <v>3035603</v>
       </c>
       <c r="S73" s="3">
-        <v>0</v>
+        <v>0.12623939000000001</v>
       </c>
       <c r="T73" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U73" t="s">
-        <v>81</v>
+        <v>183</v>
       </c>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>181</v>
+        <v>98</v>
       </c>
       <c r="B74" s="7">
         <v>1441</v>
@@ -6344,10 +6344,10 @@
         <v>29395169</v>
       </c>
       <c r="D74" s="7">
-        <v>82</v>
+        <v>1183</v>
       </c>
       <c r="E74" s="4">
-        <v>699711</v>
+        <v>26862342</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>3</v>
@@ -6362,45 +6362,45 @@
         <v>218</v>
       </c>
       <c r="J74" s="3">
-        <v>0.15128383067314299</v>
+        <v>0.15128383100000001</v>
       </c>
       <c r="K74" s="4">
         <v>7209083</v>
       </c>
       <c r="L74" s="3">
-        <v>0.24524720371568501</v>
+        <v>0.245247204</v>
       </c>
       <c r="M74" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N74" s="6">
-        <v>0</v>
+        <v>19151</v>
       </c>
       <c r="O74" s="6">
-        <v>0</v>
+        <v>2722</v>
       </c>
       <c r="P74" s="7">
-        <v>0</v>
+        <v>207</v>
       </c>
       <c r="Q74" s="3">
-        <v>0</v>
+        <v>0.17497886700000001</v>
       </c>
       <c r="R74" s="4">
-        <v>0</v>
+        <v>7085216</v>
       </c>
       <c r="S74" s="3">
-        <v>0</v>
+        <v>0.26376017400000001</v>
       </c>
       <c r="T74" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U74" t="s">
-        <v>82</v>
+        <v>184</v>
       </c>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>182</v>
+        <v>99</v>
       </c>
       <c r="B75" s="7">
         <v>1480</v>
@@ -6409,10 +6409,10 @@
         <v>29518451</v>
       </c>
       <c r="D75" s="7">
-        <v>83</v>
+        <v>1213</v>
       </c>
       <c r="E75" s="4">
-        <v>706178</v>
+        <v>26949800</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>3</v>
@@ -6427,45 +6427,45 @@
         <v>151</v>
       </c>
       <c r="J75" s="3">
-        <v>0.102027027027027</v>
+        <v>0.10202702700000001</v>
       </c>
       <c r="K75" s="4">
         <v>1802973</v>
       </c>
       <c r="L75" s="3">
-        <v>6.1079526158062898E-2</v>
+        <v>6.1079526000000002E-2</v>
       </c>
       <c r="M75" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N75" s="6">
-        <v>191</v>
+        <v>4144</v>
       </c>
       <c r="O75" s="6">
-        <v>0</v>
+        <v>1103</v>
       </c>
       <c r="P75" s="7">
-        <v>1</v>
+        <v>134</v>
       </c>
       <c r="Q75" s="3">
-        <v>1.20481927710843E-2</v>
+        <v>0.11046990900000001</v>
       </c>
       <c r="R75" s="4">
-        <v>6467</v>
+        <v>1688102</v>
       </c>
       <c r="S75" s="3">
-        <v>9.1577477633118E-3</v>
+        <v>6.2638758000000003E-2</v>
       </c>
       <c r="T75" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U75" t="s">
-        <v>83</v>
+        <v>185</v>
       </c>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>183</v>
+        <v>100</v>
       </c>
       <c r="B76" s="7">
         <v>1483</v>
@@ -6474,10 +6474,10 @@
         <v>29555857</v>
       </c>
       <c r="D76" s="7">
-        <v>83</v>
+        <v>1216</v>
       </c>
       <c r="E76" s="4">
-        <v>706178</v>
+        <v>26987238</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>3</v>
@@ -6492,45 +6492,45 @@
         <v>85</v>
       </c>
       <c r="J76" s="3">
-        <v>5.7316250842886003E-2</v>
+        <v>5.7316250999999999E-2</v>
       </c>
       <c r="K76" s="4">
         <v>1555916</v>
       </c>
       <c r="L76" s="3">
-        <v>5.2643237514648902E-2</v>
+        <v>5.2643238000000002E-2</v>
       </c>
       <c r="M76" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N76" s="6">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="O76" s="6">
-        <v>0</v>
+        <v>588</v>
       </c>
       <c r="P76" s="7">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="Q76" s="3">
-        <v>0</v>
+        <v>6.7434210999999994E-2</v>
       </c>
       <c r="R76" s="4">
-        <v>0</v>
+        <v>1503501</v>
       </c>
       <c r="S76" s="3">
-        <v>0</v>
+        <v>5.5711555000000003E-2</v>
       </c>
       <c r="T76" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U76" t="s">
-        <v>84</v>
+        <v>186</v>
       </c>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>184</v>
+        <v>101</v>
       </c>
       <c r="B77" s="7">
         <v>1486</v>
@@ -6539,10 +6539,10 @@
         <v>29580640</v>
       </c>
       <c r="D77" s="7">
-        <v>83</v>
+        <v>1219</v>
       </c>
       <c r="E77" s="4">
-        <v>706178</v>
+        <v>27012021</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>3</v>
@@ -6557,45 +6557,45 @@
         <v>31</v>
       </c>
       <c r="J77" s="3">
-        <v>2.0861372812920501E-2</v>
+        <v>2.0861372999999999E-2</v>
       </c>
       <c r="K77" s="4">
         <v>725732</v>
       </c>
       <c r="L77" s="3">
-        <v>2.4534019547920501E-2</v>
+        <v>2.453402E-2</v>
       </c>
       <c r="M77" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N77" s="6">
-        <v>0</v>
+        <v>1427</v>
       </c>
       <c r="O77" s="6">
-        <v>0</v>
+        <v>678</v>
       </c>
       <c r="P77" s="7">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="Q77" s="3">
-        <v>0</v>
+        <v>2.3789991999999999E-2</v>
       </c>
       <c r="R77" s="4">
-        <v>0</v>
+        <v>698364</v>
       </c>
       <c r="S77" s="3">
-        <v>0</v>
+        <v>2.5853823000000001E-2</v>
       </c>
       <c r="T77" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U77" t="s">
-        <v>85</v>
+        <v>187</v>
       </c>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>185</v>
+        <v>102</v>
       </c>
       <c r="B78" s="7">
         <v>1484</v>
@@ -6604,10 +6604,10 @@
         <v>29593287</v>
       </c>
       <c r="D78" s="7">
-        <v>83</v>
+        <v>1217</v>
       </c>
       <c r="E78" s="4">
-        <v>706179</v>
+        <v>27024675</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>3</v>
@@ -6622,45 +6622,45 @@
         <v>119</v>
       </c>
       <c r="J78" s="3">
-        <v>8.0188679245283001E-2</v>
+        <v>8.0188678999999999E-2</v>
       </c>
       <c r="K78" s="4">
         <v>1882614</v>
       </c>
       <c r="L78" s="3">
-        <v>6.3616251888477193E-2</v>
+        <v>6.3616251999999998E-2</v>
       </c>
       <c r="M78" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N78" s="6">
-        <v>1</v>
+        <v>4712</v>
       </c>
       <c r="O78" s="6">
-        <v>1</v>
+        <v>3314</v>
       </c>
       <c r="P78" s="7">
-        <v>1</v>
+        <v>113</v>
       </c>
       <c r="Q78" s="3">
-        <v>1.20481927710843E-2</v>
+        <v>9.2851273999999998E-2</v>
       </c>
       <c r="R78" s="4">
-        <v>11271</v>
+        <v>1875995</v>
       </c>
       <c r="S78" s="3">
-        <v>1.5960542581979899E-2</v>
+        <v>6.9417856E-2</v>
       </c>
       <c r="T78" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U78" t="s">
-        <v>86</v>
+        <v>188</v>
       </c>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>186</v>
+        <v>103</v>
       </c>
       <c r="B79" s="7">
         <v>1487</v>
@@ -6669,10 +6669,10 @@
         <v>29727456</v>
       </c>
       <c r="D79" s="7">
-        <v>83</v>
+        <v>1220</v>
       </c>
       <c r="E79" s="4">
-        <v>706313</v>
+        <v>27158308</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>3</v>
@@ -6687,45 +6687,45 @@
         <v>80</v>
       </c>
       <c r="J79" s="3">
-        <v>5.3799596503026202E-2</v>
+        <v>5.3799596999999998E-2</v>
       </c>
       <c r="K79" s="4">
         <v>1620185</v>
       </c>
       <c r="L79" s="3">
-        <v>5.4501300077611697E-2</v>
+        <v>5.4501300000000003E-2</v>
       </c>
       <c r="M79" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N79" s="6">
-        <v>2</v>
+        <v>4870</v>
       </c>
       <c r="O79" s="6">
-        <v>2</v>
+        <v>636</v>
       </c>
       <c r="P79" s="7">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="Q79" s="3">
-        <v>1.20481927710843E-2</v>
+        <v>6.0655738000000001E-2</v>
       </c>
       <c r="R79" s="4">
-        <v>6601</v>
+        <v>1594329</v>
       </c>
       <c r="S79" s="3">
-        <v>9.3457150017060408E-3</v>
+        <v>5.8705018999999997E-2</v>
       </c>
       <c r="T79" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U79" t="s">
-        <v>87</v>
+        <v>189</v>
       </c>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>187</v>
+        <v>104</v>
       </c>
       <c r="B80" s="7">
         <v>1463</v>
@@ -6734,10 +6734,10 @@
         <v>29536259</v>
       </c>
       <c r="D80" s="7">
-        <v>83</v>
+        <v>1197</v>
       </c>
       <c r="E80" s="4">
-        <v>706313</v>
+        <v>26963634</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>3</v>
@@ -6752,45 +6752,45 @@
         <v>72</v>
       </c>
       <c r="J80" s="3">
-        <v>4.9213943950786002E-2</v>
+        <v>4.9213944000000003E-2</v>
       </c>
       <c r="K80" s="4">
         <v>883355</v>
       </c>
       <c r="L80" s="3">
-        <v>2.9907477450004698E-2</v>
+        <v>2.9907476999999998E-2</v>
       </c>
       <c r="M80" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N80" s="6">
-        <v>0</v>
+        <v>1030</v>
       </c>
       <c r="O80" s="6">
-        <v>0</v>
+        <v>458</v>
       </c>
       <c r="P80" s="7">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="Q80" s="3">
-        <v>0</v>
+        <v>3.5923140999999999E-2</v>
       </c>
       <c r="R80" s="4">
-        <v>0</v>
+        <v>851407</v>
       </c>
       <c r="S80" s="3">
-        <v>0</v>
+        <v>3.1576121999999998E-2</v>
       </c>
       <c r="T80" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U80" t="s">
-        <v>88</v>
+        <v>190</v>
       </c>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>188</v>
+        <v>105</v>
       </c>
       <c r="B81" s="7">
         <v>1479</v>
@@ -6799,10 +6799,10 @@
         <v>29670131</v>
       </c>
       <c r="D81" s="7">
-        <v>83</v>
+        <v>1213</v>
       </c>
       <c r="E81" s="4">
-        <v>706313</v>
+        <v>27091635</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>3</v>
@@ -6817,45 +6817,45 @@
         <v>126</v>
       </c>
       <c r="J81" s="3">
-        <v>8.5192697768762607E-2</v>
+        <v>8.5192697999999997E-2</v>
       </c>
       <c r="K81" s="4">
         <v>4358075</v>
       </c>
       <c r="L81" s="3">
-        <v>0.14688425204458899</v>
+        <v>0.14688425199999999</v>
       </c>
       <c r="M81" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N81" s="6">
-        <v>0</v>
+        <v>7588</v>
       </c>
       <c r="O81" s="6">
-        <v>0</v>
+        <v>2561</v>
       </c>
       <c r="P81" s="7">
-        <v>0</v>
+        <v>119</v>
       </c>
       <c r="Q81" s="3">
-        <v>0</v>
+        <v>9.8103874999999993E-2</v>
       </c>
       <c r="R81" s="4">
-        <v>0</v>
+        <v>4288012</v>
       </c>
       <c r="S81" s="3">
-        <v>0</v>
+        <v>0.15827808099999999</v>
       </c>
       <c r="T81" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U81" t="s">
-        <v>89</v>
+        <v>191</v>
       </c>
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>189</v>
+        <v>106</v>
       </c>
       <c r="B82" s="7">
         <v>1496</v>
@@ -6864,10 +6864,10 @@
         <v>30051827</v>
       </c>
       <c r="D82" s="7">
-        <v>83</v>
+        <v>1224</v>
       </c>
       <c r="E82" s="4">
-        <v>706313</v>
+        <v>27216753</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>3</v>
@@ -6882,45 +6882,45 @@
         <v>115</v>
       </c>
       <c r="J82" s="3">
-        <v>7.6871657754010697E-2</v>
+        <v>7.6871657999999995E-2</v>
       </c>
       <c r="K82" s="4">
         <v>2021766</v>
       </c>
       <c r="L82" s="3">
-        <v>6.7275976265935497E-2</v>
+        <v>6.7275976000000001E-2</v>
       </c>
       <c r="M82" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N82" s="6">
-        <v>0</v>
+        <v>5904</v>
       </c>
       <c r="O82" s="6">
-        <v>0</v>
+        <v>1038</v>
       </c>
       <c r="P82" s="7">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="Q82" s="3">
-        <v>0</v>
+        <v>8.4967319999999999E-2</v>
       </c>
       <c r="R82" s="4">
-        <v>0</v>
+        <v>1754408</v>
       </c>
       <c r="S82" s="3">
-        <v>0</v>
+        <v>6.4460591999999997E-2</v>
       </c>
       <c r="T82" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U82" t="s">
-        <v>90</v>
+        <v>192</v>
       </c>
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>190</v>
+        <v>107</v>
       </c>
       <c r="B83" s="7">
         <v>1503</v>
@@ -6929,10 +6929,10 @@
         <v>30310445</v>
       </c>
       <c r="D83" s="7">
-        <v>84</v>
+        <v>1231</v>
       </c>
       <c r="E83" s="4">
-        <v>708629</v>
+        <v>27344246</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>3</v>
@@ -6947,45 +6947,45 @@
         <v>98</v>
       </c>
       <c r="J83" s="3">
-        <v>6.5202927478376499E-2</v>
+        <v>6.5202926999999994E-2</v>
       </c>
       <c r="K83" s="4">
         <v>1883613</v>
       </c>
       <c r="L83" s="3">
-        <v>6.2144023289661302E-2</v>
+        <v>6.2144023E-2</v>
       </c>
       <c r="M83" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N83" s="6">
-        <v>56</v>
+        <v>4685</v>
       </c>
       <c r="O83" s="6">
-        <v>0</v>
+        <v>970</v>
       </c>
       <c r="P83" s="7">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="Q83" s="3">
-        <v>1.1904761904761901E-2</v>
+        <v>7.3111291999999994E-2</v>
       </c>
       <c r="R83" s="4">
-        <v>2316</v>
+        <v>1487899</v>
       </c>
       <c r="S83" s="3">
-        <v>3.2682828391160899E-3</v>
+        <v>5.4413604999999997E-2</v>
       </c>
       <c r="T83" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U83" t="s">
-        <v>91</v>
+        <v>193</v>
       </c>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>191</v>
+        <v>108</v>
       </c>
       <c r="B84" s="7">
         <v>1544</v>
@@ -6994,10 +6994,10 @@
         <v>34353436</v>
       </c>
       <c r="D84" s="7">
-        <v>84</v>
+        <v>1257</v>
       </c>
       <c r="E84" s="4">
-        <v>709479</v>
+        <v>27444239</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>3</v>
@@ -7012,45 +7012,45 @@
         <v>227</v>
       </c>
       <c r="J84" s="3">
-        <v>0.147020725388601</v>
+        <v>0.14702072499999999</v>
       </c>
       <c r="K84" s="4">
         <v>7350778</v>
       </c>
       <c r="L84" s="3">
-        <v>0.21397504459233699</v>
+        <v>0.213975045</v>
       </c>
       <c r="M84" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N84" s="6">
-        <v>18</v>
+        <v>4108</v>
       </c>
       <c r="O84" s="6">
-        <v>1</v>
+        <v>1136</v>
       </c>
       <c r="P84" s="7">
-        <v>1</v>
+        <v>194</v>
       </c>
       <c r="Q84" s="3">
-        <v>1.1904761904761901E-2</v>
+        <v>0.15433572000000001</v>
       </c>
       <c r="R84" s="4">
-        <v>3166</v>
+        <v>2980880</v>
       </c>
       <c r="S84" s="3">
-        <v>4.4624294728948903E-3</v>
+        <v>0.108615874</v>
       </c>
       <c r="T84" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U84" t="s">
-        <v>92</v>
+        <v>194</v>
       </c>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>192</v>
+        <v>109</v>
       </c>
       <c r="B85" s="7">
         <v>1592</v>
@@ -7059,10 +7059,10 @@
         <v>34902059</v>
       </c>
       <c r="D85" s="7">
-        <v>84</v>
+        <v>1295</v>
       </c>
       <c r="E85" s="4">
-        <v>710677</v>
+        <v>27835355</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>3</v>
@@ -7077,45 +7077,45 @@
         <v>404</v>
       </c>
       <c r="J85" s="3">
-        <v>0.25376884422110502</v>
+        <v>0.25376884399999999</v>
       </c>
       <c r="K85" s="4">
         <v>6220161</v>
       </c>
       <c r="L85" s="3">
-        <v>0.17821759455509401</v>
+        <v>0.17821759500000001</v>
       </c>
       <c r="M85" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N85" s="6">
-        <v>68</v>
+        <v>26372</v>
       </c>
       <c r="O85" s="6">
-        <v>24</v>
+        <v>7878</v>
       </c>
       <c r="P85" s="7">
-        <v>2</v>
+        <v>358</v>
       </c>
       <c r="Q85" s="3">
-        <v>2.3809523809523801E-2</v>
+        <v>0.27644787599999998</v>
       </c>
       <c r="R85" s="4">
-        <v>15635</v>
+        <v>5965274</v>
       </c>
       <c r="S85" s="3">
-        <v>2.20001491535535E-2</v>
+        <v>0.21430565600000001</v>
       </c>
       <c r="T85" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U85" t="s">
-        <v>93</v>
+        <v>195</v>
       </c>
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>193</v>
+        <v>110</v>
       </c>
       <c r="B86" s="7">
         <v>1592</v>
@@ -7124,10 +7124,10 @@
         <v>34892598</v>
       </c>
       <c r="D86" s="7">
-        <v>84</v>
+        <v>1295</v>
       </c>
       <c r="E86" s="4">
-        <v>710677</v>
+        <v>27825894</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>3</v>
@@ -7142,45 +7142,45 @@
         <v>19</v>
       </c>
       <c r="J86" s="3">
-        <v>1.1934673366834099E-2</v>
+        <v>1.1934673E-2</v>
       </c>
       <c r="K86" s="4">
         <v>296169</v>
       </c>
       <c r="L86" s="3">
-        <v>8.4880180031306294E-3</v>
+        <v>8.488018E-3</v>
       </c>
       <c r="M86" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N86" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O86" s="6">
-        <v>0</v>
+        <v>465</v>
       </c>
       <c r="P86" s="7">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="Q86" s="3">
-        <v>0</v>
+        <v>1.4671815E-2</v>
       </c>
       <c r="R86" s="4">
-        <v>0</v>
+        <v>296169</v>
       </c>
       <c r="S86" s="3">
-        <v>0</v>
+        <v>1.0643646999999999E-2</v>
       </c>
       <c r="T86" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U86" t="s">
-        <v>93</v>
+        <v>195</v>
       </c>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>194</v>
+        <v>111</v>
       </c>
       <c r="B87" s="7">
         <v>1598</v>
@@ -7189,10 +7189,10 @@
         <v>34964870</v>
       </c>
       <c r="D87" s="7">
-        <v>84</v>
+        <v>1301</v>
       </c>
       <c r="E87" s="4">
-        <v>710747</v>
+        <v>27895224</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>3</v>
@@ -7207,45 +7207,45 @@
         <v>161</v>
       </c>
       <c r="J87" s="3">
-        <v>0.10075093867334101</v>
+        <v>0.100750939</v>
       </c>
       <c r="K87" s="4">
         <v>3365549</v>
       </c>
       <c r="L87" s="3">
-        <v>9.6255155531823802E-2</v>
+        <v>9.6255155999999994E-2</v>
       </c>
       <c r="M87" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N87" s="6">
-        <v>1</v>
+        <v>5718</v>
       </c>
       <c r="O87" s="6">
-        <v>0</v>
+        <v>2771</v>
       </c>
       <c r="P87" s="7">
-        <v>1</v>
+        <v>155</v>
       </c>
       <c r="Q87" s="3">
-        <v>1.1904761904761901E-2</v>
+        <v>0.119139124</v>
       </c>
       <c r="R87" s="4">
-        <v>4429</v>
+        <v>3240051</v>
       </c>
       <c r="S87" s="3">
-        <v>6.2314719583761802E-3</v>
+        <v>0.116150743</v>
       </c>
       <c r="T87" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U87" t="s">
-        <v>94</v>
+        <v>196</v>
       </c>
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>195</v>
+        <v>112</v>
       </c>
       <c r="B88" s="7">
         <v>1612</v>
@@ -7254,10 +7254,10 @@
         <v>35103170</v>
       </c>
       <c r="D88" s="7">
-        <v>84</v>
+        <v>1315</v>
       </c>
       <c r="E88" s="4">
-        <v>711049</v>
+        <v>28042130</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>3</v>
@@ -7272,45 +7272,45 @@
         <v>157</v>
       </c>
       <c r="J88" s="3">
-        <v>9.7394540942928001E-2</v>
+        <v>9.7394541000000001E-2</v>
       </c>
       <c r="K88" s="4">
         <v>2619296</v>
       </c>
       <c r="L88" s="3">
-        <v>7.4617078742461096E-2</v>
+        <v>7.4617079000000003E-2</v>
       </c>
       <c r="M88" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N88" s="6">
-        <v>5</v>
+        <v>6897</v>
       </c>
       <c r="O88" s="6">
-        <v>0</v>
+        <v>2326</v>
       </c>
       <c r="P88" s="7">
-        <v>1</v>
+        <v>144</v>
       </c>
       <c r="Q88" s="3">
-        <v>1.1904761904761901E-2</v>
+        <v>0.109505703</v>
       </c>
       <c r="R88" s="4">
-        <v>4731</v>
+        <v>2490969</v>
       </c>
       <c r="S88" s="3">
-        <v>6.6535498959987196E-3</v>
+        <v>8.8829521999999994E-2</v>
       </c>
       <c r="T88" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U88" t="s">
-        <v>95</v>
+        <v>197</v>
       </c>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>196</v>
+        <v>113</v>
       </c>
       <c r="B89" s="7">
         <v>1641</v>
@@ -7319,10 +7319,10 @@
         <v>35276538</v>
       </c>
       <c r="D89" s="7">
-        <v>84</v>
+        <v>1341</v>
       </c>
       <c r="E89" s="4">
-        <v>711108</v>
+        <v>28206443</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>3</v>
@@ -7337,45 +7337,45 @@
         <v>262</v>
       </c>
       <c r="J89" s="3">
-        <v>0.15965874466788499</v>
+        <v>0.15965874499999999</v>
       </c>
       <c r="K89" s="4">
         <v>5731458</v>
       </c>
       <c r="L89" s="3">
-        <v>0.16247223579592701</v>
+        <v>0.16247223599999999</v>
       </c>
       <c r="M89" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N89" s="6">
-        <v>1</v>
+        <v>9298</v>
       </c>
       <c r="O89" s="6">
-        <v>0</v>
+        <v>3410</v>
       </c>
       <c r="P89" s="7">
-        <v>1</v>
+        <v>249</v>
       </c>
       <c r="Q89" s="3">
-        <v>1.1904761904761901E-2</v>
+        <v>0.18568232700000001</v>
       </c>
       <c r="R89" s="4">
-        <v>4790</v>
+        <v>5645484</v>
       </c>
       <c r="S89" s="3">
-        <v>6.7359669698554897E-3</v>
+        <v>0.20014873899999999</v>
       </c>
       <c r="T89" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U89" t="s">
-        <v>96</v>
+        <v>198</v>
       </c>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>197</v>
+        <v>114</v>
       </c>
       <c r="B90" s="7">
         <v>1645</v>
@@ -7384,10 +7384,10 @@
         <v>35321777</v>
       </c>
       <c r="D90" s="7">
-        <v>84</v>
+        <v>1345</v>
       </c>
       <c r="E90" s="4">
-        <v>711108</v>
+        <v>28250579</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>3</v>
@@ -7402,45 +7402,45 @@
         <v>98</v>
       </c>
       <c r="J90" s="3">
-        <v>5.9574468085106302E-2</v>
+        <v>5.9574467999999998E-2</v>
       </c>
       <c r="K90" s="4">
         <v>1994569</v>
       </c>
       <c r="L90" s="3">
-        <v>5.6468534977727698E-2</v>
+        <v>5.6468535E-2</v>
       </c>
       <c r="M90" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N90" s="6">
-        <v>1</v>
+        <v>2003</v>
       </c>
       <c r="O90" s="6">
-        <v>1</v>
+        <v>783</v>
       </c>
       <c r="P90" s="7">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="Q90" s="3">
-        <v>1.1904761904761901E-2</v>
+        <v>6.8401486999999997E-2</v>
       </c>
       <c r="R90" s="4">
-        <v>4790</v>
+        <v>1898190</v>
       </c>
       <c r="S90" s="3">
-        <v>6.7359669698554897E-3</v>
+        <v>6.7191188999999998E-2</v>
       </c>
       <c r="T90" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U90" t="s">
-        <v>97</v>
+        <v>199</v>
       </c>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>198</v>
+        <v>115</v>
       </c>
       <c r="B91" s="7">
         <v>1649</v>
@@ -7449,10 +7449,10 @@
         <v>35334065</v>
       </c>
       <c r="D91" s="7">
-        <v>84</v>
+        <v>1348</v>
       </c>
       <c r="E91" s="4">
-        <v>711108</v>
+        <v>28260465</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>3</v>
@@ -7467,45 +7467,45 @@
         <v>14</v>
       </c>
       <c r="J91" s="3">
-        <v>8.4899939357186097E-3</v>
+        <v>8.4899940000000007E-3</v>
       </c>
       <c r="K91" s="4">
         <v>110483</v>
       </c>
       <c r="L91" s="3">
-        <v>3.1268126098709498E-3</v>
+        <v>3.126813E-3</v>
       </c>
       <c r="M91" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N91" s="6">
-        <v>0</v>
+        <v>370</v>
       </c>
       <c r="O91" s="6">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="P91" s="7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Q91" s="3">
-        <v>0</v>
+        <v>9.6439170000000001E-3</v>
       </c>
       <c r="R91" s="4">
-        <v>0</v>
+        <v>108081</v>
       </c>
       <c r="S91" s="3">
-        <v>0</v>
+        <v>3.8244590000000001E-3</v>
       </c>
       <c r="T91" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U91" t="s">
-        <v>98</v>
+        <v>200</v>
       </c>
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>199</v>
+        <v>116</v>
       </c>
       <c r="B92" s="7">
         <v>1654</v>
@@ -7514,10 +7514,10 @@
         <v>35359372</v>
       </c>
       <c r="D92" s="7">
-        <v>84</v>
+        <v>1352</v>
       </c>
       <c r="E92" s="4">
-        <v>712816</v>
+        <v>28280739</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>3</v>
@@ -7532,45 +7532,45 @@
         <v>89</v>
       </c>
       <c r="J92" s="3">
-        <v>5.3808948004836703E-2</v>
+        <v>5.3808948000000002E-2</v>
       </c>
       <c r="K92" s="4">
         <v>1555243</v>
       </c>
       <c r="L92" s="3">
-        <v>4.3983897677820703E-2</v>
+        <v>4.3983898E-2</v>
       </c>
       <c r="M92" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N92" s="6">
-        <v>30</v>
+        <v>856</v>
       </c>
       <c r="O92" s="6">
-        <v>7</v>
+        <v>363</v>
       </c>
       <c r="P92" s="7">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="Q92" s="3">
-        <v>1.1904761904761901E-2</v>
+        <v>6.1390532999999997E-2</v>
       </c>
       <c r="R92" s="4">
-        <v>8309</v>
+        <v>1442756</v>
       </c>
       <c r="S92" s="3">
-        <v>1.16565845884491E-2</v>
+        <v>5.1015498999999999E-2</v>
       </c>
       <c r="T92" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U92" t="s">
-        <v>99</v>
+        <v>201</v>
       </c>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>200</v>
+        <v>117</v>
       </c>
       <c r="B93" s="7">
         <v>1652</v>
@@ -7579,10 +7579,10 @@
         <v>35372577</v>
       </c>
       <c r="D93" s="7">
-        <v>84</v>
+        <v>1350</v>
       </c>
       <c r="E93" s="4">
-        <v>712816</v>
+        <v>28288953</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>3</v>
@@ -7597,45 +7597,45 @@
         <v>49</v>
       </c>
       <c r="J93" s="3">
-        <v>2.9661016949152502E-2</v>
+        <v>2.9661017000000001E-2</v>
       </c>
       <c r="K93" s="4">
         <v>763337</v>
       </c>
       <c r="L93" s="3">
-        <v>2.1579909204805701E-2</v>
+        <v>2.1579909000000001E-2</v>
       </c>
       <c r="M93" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N93" s="6">
-        <v>0</v>
+        <v>936</v>
       </c>
       <c r="O93" s="6">
-        <v>0</v>
+        <v>286</v>
       </c>
       <c r="P93" s="7">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="Q93" s="3">
-        <v>0</v>
+        <v>3.2592593000000003E-2</v>
       </c>
       <c r="R93" s="4">
-        <v>0</v>
+        <v>693876</v>
       </c>
       <c r="S93" s="3">
-        <v>0</v>
+        <v>2.4528161E-2</v>
       </c>
       <c r="T93" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U93" t="s">
-        <v>100</v>
+        <v>202</v>
       </c>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>201</v>
+        <v>118</v>
       </c>
       <c r="B94" s="7">
         <v>1710</v>
@@ -7644,10 +7644,10 @@
         <v>36151302</v>
       </c>
       <c r="D94" s="7">
-        <v>84</v>
+        <v>1402</v>
       </c>
       <c r="E94" s="4">
-        <v>712816</v>
+        <v>28949301</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>3</v>
@@ -7662,45 +7662,45 @@
         <v>294</v>
       </c>
       <c r="J94" s="3">
-        <v>0.17192982456140299</v>
+        <v>0.17192982500000001</v>
       </c>
       <c r="K94" s="4">
         <v>4237568</v>
       </c>
       <c r="L94" s="3">
-        <v>0.11721757628535701</v>
+        <v>0.117217576</v>
       </c>
       <c r="M94" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N94" s="6">
-        <v>0</v>
+        <v>15411</v>
       </c>
       <c r="O94" s="6">
-        <v>0</v>
+        <v>2385</v>
       </c>
       <c r="P94" s="7">
-        <v>0</v>
+        <v>276</v>
       </c>
       <c r="Q94" s="3">
-        <v>0</v>
+        <v>0.19686162600000001</v>
       </c>
       <c r="R94" s="4">
-        <v>0</v>
+        <v>3988033</v>
       </c>
       <c r="S94" s="3">
-        <v>0</v>
+        <v>0.13775921599999999</v>
       </c>
       <c r="T94" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U94" t="s">
-        <v>101</v>
+        <v>203</v>
       </c>
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>202</v>
+        <v>119</v>
       </c>
       <c r="B95" s="7">
         <v>1712</v>
@@ -7709,10 +7709,10 @@
         <v>36128313</v>
       </c>
       <c r="D95" s="7">
-        <v>84</v>
+        <v>1403</v>
       </c>
       <c r="E95" s="4">
-        <v>712816</v>
+        <v>28925240</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>3</v>
@@ -7727,45 +7727,45 @@
         <v>95</v>
       </c>
       <c r="J95" s="3">
-        <v>5.54906542056074E-2</v>
+        <v>5.5490654E-2</v>
       </c>
       <c r="K95" s="4">
         <v>2679531</v>
       </c>
       <c r="L95" s="3">
-        <v>7.4167066699184103E-2</v>
+        <v>7.4167067000000003E-2</v>
       </c>
       <c r="M95" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N95" s="6">
-        <v>0</v>
+        <v>1580</v>
       </c>
       <c r="O95" s="6">
-        <v>0</v>
+        <v>692</v>
       </c>
       <c r="P95" s="7">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="Q95" s="3">
-        <v>0</v>
+        <v>6.1297219999999999E-2</v>
       </c>
       <c r="R95" s="4">
-        <v>0</v>
+        <v>2574362</v>
       </c>
       <c r="S95" s="3">
-        <v>0</v>
+        <v>8.9000541000000002E-2</v>
       </c>
       <c r="T95" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U95" t="s">
-        <v>102</v>
+        <v>204</v>
       </c>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>203</v>
+        <v>120</v>
       </c>
       <c r="B96" s="7">
         <v>1717</v>
@@ -7774,10 +7774,10 @@
         <v>36136214</v>
       </c>
       <c r="D96" s="7">
-        <v>84</v>
+        <v>1406</v>
       </c>
       <c r="E96" s="4">
-        <v>712816</v>
+        <v>28931102</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>3</v>
@@ -7792,45 +7792,45 @@
         <v>24</v>
       </c>
       <c r="J96" s="3">
-        <v>1.39778683750728E-2</v>
+        <v>1.3977867999999999E-2</v>
       </c>
       <c r="K96" s="4">
         <v>449011</v>
       </c>
       <c r="L96" s="3">
-        <v>1.2425513087785001E-2</v>
+        <v>1.2425512999999999E-2</v>
       </c>
       <c r="M96" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N96" s="6">
-        <v>0</v>
+        <v>704</v>
       </c>
       <c r="O96" s="6">
-        <v>0</v>
+        <v>525</v>
       </c>
       <c r="P96" s="7">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Q96" s="3">
-        <v>0</v>
+        <v>1.5647226E-2</v>
       </c>
       <c r="R96" s="4">
-        <v>0</v>
+        <v>446972</v>
       </c>
       <c r="S96" s="3">
-        <v>0</v>
+        <v>1.5449532E-2</v>
       </c>
       <c r="T96" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U96" t="s">
-        <v>103</v>
+        <v>205</v>
       </c>
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>204</v>
+        <v>121</v>
       </c>
       <c r="B97" s="7">
         <v>1732</v>
@@ -7839,10 +7839,10 @@
         <v>36184557</v>
       </c>
       <c r="D97" s="7">
-        <v>84</v>
+        <v>1418</v>
       </c>
       <c r="E97" s="4">
-        <v>712816</v>
+        <v>28983965</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>3</v>
@@ -7857,45 +7857,45 @@
         <v>107</v>
       </c>
       <c r="J97" s="3">
-        <v>6.1778290993071597E-2</v>
+        <v>6.1778290999999999E-2</v>
       </c>
       <c r="K97" s="4">
         <v>2622469</v>
       </c>
       <c r="L97" s="3">
-        <v>7.2474812942991101E-2</v>
+        <v>7.2474812999999999E-2</v>
       </c>
       <c r="M97" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N97" s="6">
-        <v>0</v>
+        <v>2225</v>
       </c>
       <c r="O97" s="6">
-        <v>0</v>
+        <v>690</v>
       </c>
       <c r="P97" s="7">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="Q97" s="3">
-        <v>0</v>
+        <v>7.1932299000000005E-2</v>
       </c>
       <c r="R97" s="4">
-        <v>0</v>
+        <v>2611030</v>
       </c>
       <c r="S97" s="3">
-        <v>0</v>
+        <v>9.0085328000000006E-2</v>
       </c>
       <c r="T97" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U97" t="s">
-        <v>104</v>
+        <v>206</v>
       </c>
     </row>
     <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>205</v>
+        <v>122</v>
       </c>
       <c r="B98" s="7">
         <v>1760</v>
@@ -7904,10 +7904,10 @@
         <v>36253232</v>
       </c>
       <c r="D98" s="7">
-        <v>84</v>
+        <v>1439</v>
       </c>
       <c r="E98" s="4">
-        <v>712816</v>
+        <v>29044077</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>3</v>
@@ -7922,45 +7922,45 @@
         <v>137</v>
       </c>
       <c r="J98" s="3">
-        <v>7.7840909090909002E-2</v>
+        <v>7.7840909E-2</v>
       </c>
       <c r="K98" s="4">
         <v>1691272</v>
       </c>
       <c r="L98" s="3">
-        <v>4.6651619916260101E-2</v>
+        <v>4.6651619999999998E-2</v>
       </c>
       <c r="M98" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N98" s="6">
-        <v>0</v>
+        <v>3162</v>
       </c>
       <c r="O98" s="6">
-        <v>0</v>
+        <v>1706</v>
       </c>
       <c r="P98" s="7">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="Q98" s="3">
-        <v>0</v>
+        <v>8.9645586999999999E-2</v>
       </c>
       <c r="R98" s="4">
-        <v>0</v>
+        <v>1682709</v>
       </c>
       <c r="S98" s="3">
-        <v>0</v>
+        <v>5.7936390999999997E-2</v>
       </c>
       <c r="T98" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U98" t="s">
-        <v>105</v>
+        <v>207</v>
       </c>
     </row>
     <row r="99" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>206</v>
+        <v>123</v>
       </c>
       <c r="B99" s="7">
         <v>1774</v>
@@ -7969,10 +7969,10 @@
         <v>36365483</v>
       </c>
       <c r="D99" s="7">
-        <v>84</v>
+        <v>1453</v>
       </c>
       <c r="E99" s="4">
-        <v>713077</v>
+        <v>29151650</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>3</v>
@@ -7987,45 +7987,45 @@
         <v>182</v>
       </c>
       <c r="J99" s="3">
-        <v>0.102593010146561</v>
+        <v>0.10259301</v>
       </c>
       <c r="K99" s="4">
         <v>4128882</v>
       </c>
       <c r="L99" s="3">
-        <v>0.11353848923167</v>
+        <v>0.11353848900000001</v>
       </c>
       <c r="M99" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N99" s="6">
-        <v>5</v>
+        <v>9445</v>
       </c>
       <c r="O99" s="6">
-        <v>0</v>
+        <v>6068</v>
       </c>
       <c r="P99" s="7">
-        <v>1</v>
+        <v>175</v>
       </c>
       <c r="Q99" s="3">
-        <v>1.1904761904761901E-2</v>
+        <v>0.12044046799999999</v>
       </c>
       <c r="R99" s="4">
-        <v>5051</v>
+        <v>4058718</v>
       </c>
       <c r="S99" s="3">
-        <v>7.0833865066465404E-3</v>
+        <v>0.139227728</v>
       </c>
       <c r="T99" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U99" t="s">
-        <v>106</v>
+        <v>208</v>
       </c>
     </row>
     <row r="100" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>207</v>
+        <v>124</v>
       </c>
       <c r="B100" s="7">
         <v>1774</v>
@@ -8034,10 +8034,10 @@
         <v>36367940</v>
       </c>
       <c r="D100" s="7">
-        <v>84</v>
+        <v>1453</v>
       </c>
       <c r="E100" s="4">
-        <v>713077</v>
+        <v>29154107</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>3</v>
@@ -8052,45 +8052,45 @@
         <v>9</v>
       </c>
       <c r="J100" s="3">
-        <v>5.0732807215332501E-3</v>
+        <v>5.0732809999999998E-3</v>
       </c>
       <c r="K100" s="4">
         <v>152480</v>
       </c>
       <c r="L100" s="3">
-        <v>4.1927037935060299E-3</v>
+        <v>4.1927040000000002E-3</v>
       </c>
       <c r="M100" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N100" s="6">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="O100" s="6">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="P100" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q100" s="3">
-        <v>0</v>
+        <v>6.1940809999999997E-3</v>
       </c>
       <c r="R100" s="4">
-        <v>0</v>
+        <v>152480</v>
       </c>
       <c r="S100" s="3">
-        <v>0</v>
+        <v>5.2301379999999996E-3</v>
       </c>
       <c r="T100" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U100" t="s">
-        <v>106</v>
+        <v>208</v>
       </c>
     </row>
     <row r="101" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>208</v>
+        <v>125</v>
       </c>
       <c r="B101" s="7">
         <v>1779</v>
@@ -8099,10 +8099,10 @@
         <v>36449111</v>
       </c>
       <c r="D101" s="7">
-        <v>84</v>
+        <v>1458</v>
       </c>
       <c r="E101" s="4">
-        <v>713077</v>
+        <v>29235498</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>3</v>
@@ -8117,40 +8117,40 @@
         <v>124</v>
       </c>
       <c r="J101" s="3">
-        <v>6.9702079820123594E-2</v>
+        <v>6.970208E-2</v>
       </c>
       <c r="K101" s="4">
         <v>2252439</v>
       </c>
       <c r="L101" s="3">
-        <v>6.1796815840035102E-2</v>
+        <v>6.1796815999999997E-2</v>
       </c>
       <c r="M101" s="1" t="s">
         <v>3</v>
       </c>
       <c r="N101" s="6">
-        <v>0</v>
+        <v>3807</v>
       </c>
       <c r="O101" s="6">
-        <v>0</v>
+        <v>1075</v>
       </c>
       <c r="P101" s="7">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="Q101" s="3">
-        <v>0</v>
+        <v>7.9561042999999998E-2</v>
       </c>
       <c r="R101" s="4">
-        <v>0</v>
+        <v>2148719</v>
       </c>
       <c r="S101" s="3">
-        <v>0</v>
+        <v>7.3496917999999994E-2</v>
       </c>
       <c r="T101" s="1" t="s">
         <v>3</v>
       </c>
       <c r="U101" t="s">
-        <v>107</v>
+        <v>209</v>
       </c>
     </row>
     <row r="103" spans="1:21" x14ac:dyDescent="0.25">
@@ -8172,7 +8172,7 @@
       <c r="K103" s="9"/>
       <c r="L103" s="9"/>
       <c r="N103" s="10" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O103" s="9"/>
       <c r="P103" s="9"/>
